--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,6 +241,10 @@
   </si>
   <si>
     <t>0-80%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -250,7 +254,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -384,7 +388,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -400,10 +404,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -436,14 +440,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -772,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE31"/>
+  <dimension ref="A1:AF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B6:B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AH15" sqref="AH14:AH15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -784,7 +791,7 @@
     <col min="7" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -878,8 +885,11 @@
       <c r="AE1" s="6">
         <v>42916</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AF1" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -915,8 +925,9 @@
       <c r="AC2" s="8"/>
       <c r="AD2" s="8"/>
       <c r="AE2" s="9"/>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AF2" s="9"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
@@ -952,8 +963,9 @@
       <c r="AC3" s="12"/>
       <c r="AD3" s="12"/>
       <c r="AE3" s="13"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AF3" s="13"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -987,8 +999,9 @@
       <c r="AC4" s="8"/>
       <c r="AD4" s="8"/>
       <c r="AE4" s="9"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AF4" s="9"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>40</v>
       </c>
@@ -1022,8 +1035,9 @@
       <c r="AC5" s="12"/>
       <c r="AD5" s="12"/>
       <c r="AE5" s="13"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AF5" s="13"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
@@ -1057,8 +1071,9 @@
       <c r="AC6" s="8"/>
       <c r="AD6" s="8"/>
       <c r="AE6" s="9"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AF6" s="9"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
         <v>42</v>
       </c>
@@ -1092,8 +1107,9 @@
       <c r="AC7" s="12"/>
       <c r="AD7" s="12"/>
       <c r="AE7" s="13"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AF7" s="13"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1127,8 +1143,9 @@
       <c r="AC8" s="8"/>
       <c r="AD8" s="8"/>
       <c r="AE8" s="9"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AF8" s="9"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -1162,8 +1179,9 @@
       <c r="AC9" s="12"/>
       <c r="AD9" s="12"/>
       <c r="AE9" s="13"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AF9" s="13"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1197,8 +1215,9 @@
       <c r="AC10" s="8"/>
       <c r="AD10" s="8"/>
       <c r="AE10" s="9"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AF10" s="9"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1232,8 +1251,9 @@
       <c r="AC11" s="12"/>
       <c r="AD11" s="12"/>
       <c r="AE11" s="13"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AF11" s="13"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
@@ -1267,8 +1287,9 @@
       <c r="AC12" s="8"/>
       <c r="AD12" s="8"/>
       <c r="AE12" s="9"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AF12" s="9"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
@@ -1302,8 +1323,9 @@
       <c r="AC13" s="12"/>
       <c r="AD13" s="12"/>
       <c r="AE13" s="13"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AF13" s="13"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
@@ -1337,8 +1359,9 @@
       <c r="AC14" s="8"/>
       <c r="AD14" s="8"/>
       <c r="AE14" s="9"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AF14" s="9"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
@@ -1372,8 +1395,9 @@
       <c r="AC15" s="12"/>
       <c r="AD15" s="12"/>
       <c r="AE15" s="13"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AF15" s="13"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
@@ -1407,8 +1431,9 @@
       <c r="AC16" s="8"/>
       <c r="AD16" s="8"/>
       <c r="AE16" s="9"/>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AF16" s="9"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
@@ -1442,8 +1467,9 @@
       <c r="AC17" s="12"/>
       <c r="AD17" s="12"/>
       <c r="AE17" s="13"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AF17" s="13"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -1477,35 +1503,36 @@
       <c r="AC18" s="8"/>
       <c r="AD18" s="8"/>
       <c r="AE18" s="9"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AF18" s="9"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="17">
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="18" t="s">
+      <c r="H25" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -1513,22 +1540,22 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="G27" s="17" t="s">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="G27" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="H27" s="17"/>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="17" t="s">
+      <c r="H28" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="17"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="I28" s="18"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -1536,17 +1563,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H30" s="17" t="s">
+      <c r="H30" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -245,6 +245,10 @@
   </si>
   <si>
     <t>总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-5.1%(1-20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,7 +392,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -443,13 +447,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -782,12 +789,13 @@
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH15" sqref="AH14:AH15"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="45.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
     <col min="7" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -801,7 +809,7 @@
       <c r="C1" s="5">
         <v>42888</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="21">
         <v>42889</v>
       </c>
       <c r="E1" s="5">
@@ -885,7 +893,7 @@
       <c r="AE1" s="6">
         <v>42916</v>
       </c>
-      <c r="AF1" s="20" t="s">
+      <c r="AF1" s="18" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1439,7 +1447,9 @@
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
+      <c r="D17" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -1522,15 +1532,15 @@
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="19" t="s">
+      <c r="H25" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G26" s="1" t="s">
@@ -1541,19 +1551,19 @@
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="G27" s="18" t="s">
+      <c r="G27" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="H27" s="18"/>
+      <c r="H27" s="19"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="18" t="s">
+      <c r="H28" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="18"/>
+      <c r="I28" s="19"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G29" s="1" t="s">
@@ -1567,11 +1577,11 @@
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H30" s="18" t="s">
+      <c r="H30" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G31" s="1" t="s">

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,6 +249,14 @@
   </si>
   <si>
     <t>0-5.1%(1-20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-83%(0-363)还剩下备份不太重要就先不看</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,7 +400,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -450,14 +458,23 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -789,7 +806,8 @@
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -809,7 +827,7 @@
       <c r="C1" s="5">
         <v>42888</v>
       </c>
-      <c r="D1" s="21">
+      <c r="D1" s="19">
         <v>42889</v>
       </c>
       <c r="E1" s="5">
@@ -1519,6 +1537,17 @@
       <c r="A19" s="16" t="s">
         <v>44</v>
       </c>
+      <c r="F19" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A20" s="22" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G24" s="1" t="s">
@@ -1532,15 +1561,15 @@
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="20" t="s">
+      <c r="H25" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G26" s="1" t="s">
@@ -1551,19 +1580,19 @@
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="G27" s="19" t="s">
+      <c r="G27" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="H27" s="19"/>
+      <c r="H27" s="20"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="19" t="s">
+      <c r="H28" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="19"/>
+      <c r="I28" s="20"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G29" s="1" t="s">
@@ -1577,11 +1606,11 @@
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H30" s="19" t="s">
+      <c r="H30" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G31" s="1" t="s">

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="6月" sheetId="3" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,13 +262,17 @@
   </si>
   <si>
     <t>0-83%(0-363)还剩下备份不太重要就先不看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-3.1%（113-134）代理模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
@@ -400,7 +409,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -461,19 +470,22 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -559,7 +571,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -592,9 +604,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -627,6 +656,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -807,17 +853,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F25" sqref="F25"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.625" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
     <col min="7" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -915,7 +961,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -953,7 +999,7 @@
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
@@ -991,7 +1037,7 @@
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -1027,7 +1073,7 @@
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>40</v>
       </c>
@@ -1063,7 +1109,7 @@
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
@@ -1099,7 +1145,7 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>42</v>
       </c>
@@ -1135,7 +1181,7 @@
       <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1171,7 +1217,7 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -1207,7 +1253,7 @@
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1243,7 +1289,7 @@
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1279,7 +1325,7 @@
       <c r="AE11" s="13"/>
       <c r="AF11" s="13"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
@@ -1315,7 +1361,7 @@
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
@@ -1351,14 +1397,16 @@
       <c r="AE13" s="13"/>
       <c r="AF13" s="13"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="E14" s="25" t="s">
+        <v>65</v>
+      </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -1387,7 +1435,7 @@
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
@@ -1423,7 +1471,7 @@
       <c r="AE15" s="13"/>
       <c r="AF15" s="13"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
@@ -1459,7 +1507,7 @@
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
@@ -1497,7 +1545,7 @@
       <c r="AE17" s="13"/>
       <c r="AF17" s="13"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -1533,23 +1581,23 @@
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A20" s="22" t="s">
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
@@ -1557,21 +1605,21 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="21" t="s">
+      <c r="H25" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -1579,22 +1627,22 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="G27" s="20" t="s">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="G27" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H27" s="20"/>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="H27" s="23"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="20" t="s">
+      <c r="H28" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="20"/>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="I28" s="23"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -1602,17 +1650,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H30" s="20" t="s">
+      <c r="H30" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
@@ -1641,12 +1689,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1657,22 +1705,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1692,18 +1740,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="41.5" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="41.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1726,7 +1774,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1737,7 +1785,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1754,7 +1802,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1765,7 +1813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1773,7 +1821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,6 +266,10 @@
   </si>
   <si>
     <t>0-3.1%（113-134）代理模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-6.6%(0-20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,13 +483,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -853,13 +857,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
     <col min="7" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -879,7 +884,7 @@
       <c r="E1" s="5">
         <v>42890</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="19">
         <v>42891</v>
       </c>
       <c r="G1" s="5">
@@ -1153,7 +1158,9 @@
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="F7" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -1404,7 +1411,7 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="23" t="s">
         <v>65</v>
       </c>
       <c r="F14" s="8"/>
@@ -1609,15 +1616,15 @@
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="24" t="s">
+      <c r="H25" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G26" s="1" t="s">
@@ -1628,19 +1635,19 @@
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="G27" s="23" t="s">
+      <c r="G27" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="H27" s="23"/>
+      <c r="H27" s="24"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="H28" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="23"/>
+      <c r="I28" s="24"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G29" s="1" t="s">
@@ -1654,11 +1661,11 @@
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H30" s="23" t="s">
+      <c r="H30" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G31" s="1" t="s">

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,6 +274,10 @@
   </si>
   <si>
     <t>0-2.4(141-158)索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-13.2%（21-40）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -861,15 +865,16 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F12" sqref="F12"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" customWidth="1"/>
-    <col min="7" max="8" width="9" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
@@ -891,7 +896,7 @@
       <c r="F1" s="19">
         <v>42891</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="19">
         <v>42892</v>
       </c>
       <c r="H1" s="5">
@@ -1165,7 +1170,9 @@
       <c r="F7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="12"/>
+      <c r="G7" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,11 +273,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0-2.4(141-158)索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-13.2%（21-40）</t>
+    <t>0-6.6%（21-40）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-2.4%(141-158)索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1%(159-166)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -865,14 +869,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="topRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
     <col min="7" max="7" width="15.77734375" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
@@ -1171,7 +1176,7 @@
         <v>66</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -1352,9 +1357,11 @@
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,6 +270,10 @@
   </si>
   <si>
     <t>0-6.6%(0-20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-2.4(141-158)索引</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -857,7 +861,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="topRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1340,7 +1344,9 @@
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="6月" sheetId="3" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -282,13 +277,17 @@
   </si>
   <si>
     <t>0-1%(159-166)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-2.7%(165-183)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
@@ -587,7 +586,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -620,26 +619,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -672,23 +654,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -867,22 +832,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F10" sqref="F10"/>
+      <selection pane="topRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="1" max="1" width="45.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -904,7 +869,7 @@
       <c r="G1" s="19">
         <v>42892</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1" s="19">
         <v>42893</v>
       </c>
       <c r="I1" s="5">
@@ -980,7 +945,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -1018,7 +983,7 @@
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
@@ -1056,7 +1021,7 @@
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -1092,7 +1057,7 @@
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>40</v>
       </c>
@@ -1128,7 +1093,7 @@
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
@@ -1164,7 +1129,7 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
         <v>42</v>
       </c>
@@ -1204,7 +1169,7 @@
       <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1240,7 +1205,7 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -1276,7 +1241,7 @@
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1312,7 +1277,7 @@
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1348,7 +1313,7 @@
       <c r="AE11" s="13"/>
       <c r="AF11" s="13"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
@@ -1388,7 +1353,7 @@
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
@@ -1424,7 +1389,7 @@
       <c r="AE13" s="13"/>
       <c r="AF13" s="13"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
@@ -1462,7 +1427,7 @@
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
@@ -1498,7 +1463,7 @@
       <c r="AE15" s="13"/>
       <c r="AF15" s="13"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
@@ -1534,7 +1499,7 @@
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
@@ -1572,7 +1537,7 @@
       <c r="AE17" s="13"/>
       <c r="AF17" s="13"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -1608,7 +1573,7 @@
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
         <v>44</v>
       </c>
@@ -1619,12 +1584,45 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A20" s="20" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
@@ -1632,7 +1630,7 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
@@ -1646,7 +1644,7 @@
       <c r="M25" s="25"/>
       <c r="N25" s="25"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -1654,13 +1652,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G27" s="24" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="24"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
@@ -1669,7 +1667,7 @@
       </c>
       <c r="I28" s="24"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -1677,7 +1675,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
@@ -1687,7 +1685,7 @@
       <c r="I30" s="24"/>
       <c r="J30" s="24"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
@@ -1716,12 +1714,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1732,22 +1730,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1767,18 +1765,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="41.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1801,7 +1799,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1812,7 +1810,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1829,7 +1827,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1840,7 +1838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1848,7 +1846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="6月" sheetId="3" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,13 +286,17 @@
   </si>
   <si>
     <t>0-2.7%(165-183)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-6.7%（41-63）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
@@ -586,7 +595,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -619,9 +628,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -654,6 +680,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -832,22 +875,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.625" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -945,7 +988,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -983,7 +1026,7 @@
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
@@ -1021,7 +1064,7 @@
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -1057,7 +1100,7 @@
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>40</v>
       </c>
@@ -1093,7 +1136,7 @@
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
@@ -1129,7 +1172,7 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>42</v>
       </c>
@@ -1143,7 +1186,9 @@
       <c r="G7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="12"/>
+      <c r="H7" s="12" t="s">
+        <v>71</v>
+      </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
@@ -1169,7 +1214,7 @@
       <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1205,7 +1250,7 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -1241,7 +1286,7 @@
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
     </row>
-    <row r="10" spans="1:32" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1277,7 +1322,7 @@
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1313,7 +1358,7 @@
       <c r="AE11" s="13"/>
       <c r="AF11" s="13"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
@@ -1353,7 +1398,7 @@
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
@@ -1389,7 +1434,7 @@
       <c r="AE13" s="13"/>
       <c r="AF13" s="13"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
@@ -1427,7 +1472,7 @@
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
@@ -1463,7 +1508,7 @@
       <c r="AE15" s="13"/>
       <c r="AF15" s="13"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
@@ -1499,7 +1544,7 @@
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
@@ -1537,7 +1582,7 @@
       <c r="AE17" s="13"/>
       <c r="AF17" s="13"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -1573,7 +1618,7 @@
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>44</v>
       </c>
@@ -1584,7 +1629,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>63</v>
       </c>
@@ -1622,7 +1667,7 @@
       <c r="AE20" s="8"/>
       <c r="AF20" s="8"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
@@ -1630,7 +1675,7 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
@@ -1644,7 +1689,7 @@
       <c r="M25" s="25"/>
       <c r="N25" s="25"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -1652,13 +1697,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G27" s="24" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="24"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
@@ -1667,7 +1712,7 @@
       </c>
       <c r="I28" s="24"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -1675,7 +1720,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
@@ -1685,7 +1730,7 @@
       <c r="I30" s="24"/>
       <c r="J30" s="24"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
@@ -1714,12 +1759,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1730,22 +1775,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1765,18 +1810,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="41.5" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="41.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1799,7 +1844,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1810,7 +1855,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1827,7 +1872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1838,7 +1883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1846,7 +1891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="6月" sheetId="3" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,13 +285,17 @@
   </si>
   <si>
     <t>0-6.7%（41-63）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-0.09%(183-189)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
@@ -595,7 +594,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -628,26 +627,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -680,23 +662,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -876,21 +841,22 @@
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H7" sqref="H7"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I12" activeCellId="1" sqref="H7 I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="45.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -915,7 +881,7 @@
       <c r="H1" s="19">
         <v>42893</v>
       </c>
-      <c r="I1" s="5">
+      <c r="I1" s="19">
         <v>42894</v>
       </c>
       <c r="J1" s="5">
@@ -988,7 +954,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -1026,7 +992,7 @@
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
@@ -1064,7 +1030,7 @@
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -1100,7 +1066,7 @@
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>40</v>
       </c>
@@ -1136,7 +1102,7 @@
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
@@ -1172,7 +1138,7 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
         <v>42</v>
       </c>
@@ -1214,7 +1180,7 @@
       <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1250,7 +1216,7 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -1286,7 +1252,7 @@
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1322,7 +1288,7 @@
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1358,7 +1324,7 @@
       <c r="AE11" s="13"/>
       <c r="AF11" s="13"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
@@ -1398,7 +1364,7 @@
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
@@ -1434,7 +1400,7 @@
       <c r="AE13" s="13"/>
       <c r="AF13" s="13"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
@@ -1472,7 +1438,7 @@
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
@@ -1508,7 +1474,7 @@
       <c r="AE15" s="13"/>
       <c r="AF15" s="13"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
@@ -1544,7 +1510,7 @@
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
@@ -1582,7 +1548,7 @@
       <c r="AE17" s="13"/>
       <c r="AF17" s="13"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -1618,7 +1584,7 @@
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
         <v>44</v>
       </c>
@@ -1629,7 +1595,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A20" s="20" t="s">
         <v>63</v>
       </c>
@@ -1642,7 +1608,9 @@
       <c r="H20" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="I20" s="8"/>
+      <c r="I20" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
@@ -1667,7 +1635,7 @@
       <c r="AE20" s="8"/>
       <c r="AF20" s="8"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
@@ -1675,7 +1643,7 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
@@ -1689,7 +1657,7 @@
       <c r="M25" s="25"/>
       <c r="N25" s="25"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -1697,13 +1665,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G27" s="24" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="24"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
@@ -1712,7 +1680,7 @@
       </c>
       <c r="I28" s="24"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -1720,7 +1688,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
@@ -1730,7 +1698,7 @@
       <c r="I30" s="24"/>
       <c r="J30" s="24"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
@@ -1759,12 +1727,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1775,22 +1743,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1810,18 +1778,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="41.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1844,7 +1812,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1855,7 +1823,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1872,7 +1840,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1883,7 +1851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1891,7 +1859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="6月" sheetId="3" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -289,13 +294,17 @@
   </si>
   <si>
     <t>0-0.09%(183-189)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-5.9%（63-82）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
@@ -594,7 +603,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -627,9 +636,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -662,6 +688,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -842,21 +885,21 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I12" activeCellId="1" sqref="H7 I12"/>
+      <selection pane="topRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.625" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -954,7 +997,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -992,7 +1035,7 @@
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
@@ -1030,7 +1073,7 @@
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -1066,7 +1109,7 @@
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>40</v>
       </c>
@@ -1102,7 +1145,7 @@
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
@@ -1138,7 +1181,7 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>42</v>
       </c>
@@ -1155,7 +1198,9 @@
       <c r="H7" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="I7" s="12"/>
+      <c r="I7" s="12" t="s">
+        <v>73</v>
+      </c>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
@@ -1180,7 +1225,7 @@
       <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1216,7 +1261,7 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -1252,7 +1297,7 @@
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
     </row>
-    <row r="10" spans="1:32" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1288,7 +1333,7 @@
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1324,7 +1369,7 @@
       <c r="AE11" s="13"/>
       <c r="AF11" s="13"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
@@ -1364,7 +1409,7 @@
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
@@ -1400,7 +1445,7 @@
       <c r="AE13" s="13"/>
       <c r="AF13" s="13"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
@@ -1438,7 +1483,7 @@
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
@@ -1474,7 +1519,7 @@
       <c r="AE15" s="13"/>
       <c r="AF15" s="13"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
@@ -1510,7 +1555,7 @@
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
@@ -1548,7 +1593,7 @@
       <c r="AE17" s="13"/>
       <c r="AF17" s="13"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -1584,7 +1629,7 @@
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>44</v>
       </c>
@@ -1595,7 +1640,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>63</v>
       </c>
@@ -1635,7 +1680,7 @@
       <c r="AE20" s="8"/>
       <c r="AF20" s="8"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
@@ -1643,7 +1688,7 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
@@ -1657,7 +1702,7 @@
       <c r="M25" s="25"/>
       <c r="N25" s="25"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -1665,13 +1710,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G27" s="24" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="24"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
@@ -1680,7 +1725,7 @@
       </c>
       <c r="I28" s="24"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -1688,7 +1733,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
@@ -1698,7 +1743,7 @@
       <c r="I30" s="24"/>
       <c r="J30" s="24"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
@@ -1727,12 +1772,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1743,22 +1788,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1778,18 +1823,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="41.5" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="41.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1812,7 +1857,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1823,7 +1868,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1840,7 +1885,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1851,7 +1896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1859,7 +1904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="6月" sheetId="3" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -298,13 +293,17 @@
   </si>
   <si>
     <t>0-5.9%（63-82）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-11%(0-48)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
@@ -603,7 +602,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -636,26 +635,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -688,23 +670,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -885,21 +850,21 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I7" sqref="I7"/>
+      <selection pane="topRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="45.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -997,7 +962,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -1035,7 +1000,7 @@
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
@@ -1073,7 +1038,7 @@
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -1109,7 +1074,7 @@
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>40</v>
       </c>
@@ -1120,7 +1085,9 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="I5" s="12" t="s">
+        <v>74</v>
+      </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
@@ -1145,7 +1112,7 @@
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
@@ -1181,7 +1148,7 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
         <v>42</v>
       </c>
@@ -1225,7 +1192,7 @@
       <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1261,7 +1228,7 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -1297,7 +1264,7 @@
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1333,7 +1300,7 @@
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1369,7 +1336,7 @@
       <c r="AE11" s="13"/>
       <c r="AF11" s="13"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
@@ -1409,7 +1376,7 @@
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
@@ -1445,7 +1412,7 @@
       <c r="AE13" s="13"/>
       <c r="AF13" s="13"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
@@ -1483,7 +1450,7 @@
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
@@ -1519,7 +1486,7 @@
       <c r="AE15" s="13"/>
       <c r="AF15" s="13"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
@@ -1555,7 +1522,7 @@
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
@@ -1593,7 +1560,7 @@
       <c r="AE17" s="13"/>
       <c r="AF17" s="13"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -1629,7 +1596,7 @@
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
         <v>44</v>
       </c>
@@ -1640,7 +1607,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A20" s="20" t="s">
         <v>63</v>
       </c>
@@ -1680,7 +1647,7 @@
       <c r="AE20" s="8"/>
       <c r="AF20" s="8"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
@@ -1688,7 +1655,7 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
@@ -1702,7 +1669,7 @@
       <c r="M25" s="25"/>
       <c r="N25" s="25"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -1710,13 +1677,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G27" s="24" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="24"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
@@ -1725,7 +1692,7 @@
       </c>
       <c r="I28" s="24"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -1733,7 +1700,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
@@ -1743,7 +1710,7 @@
       <c r="I30" s="24"/>
       <c r="J30" s="24"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
@@ -1772,12 +1739,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1788,22 +1755,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1823,18 +1790,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="41.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1857,7 +1824,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1868,7 +1835,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1885,7 +1852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1896,7 +1863,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1904,7 +1871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -297,6 +297,14 @@
   </si>
   <si>
     <t>1-11%(0-48)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-2.7%（190-208）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4%（49-60）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -849,8 +857,8 @@
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I5" sqref="I5"/>
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -862,6 +870,8 @@
     <col min="7" max="7" width="15.75" customWidth="1"/>
     <col min="8" max="8" width="17.5" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.15">
@@ -892,10 +902,10 @@
       <c r="I1" s="19">
         <v>42894</v>
       </c>
-      <c r="J1" s="5">
+      <c r="J1" s="19">
         <v>42895</v>
       </c>
-      <c r="K1" s="5">
+      <c r="K1" s="19">
         <v>42896</v>
       </c>
       <c r="L1" s="5">
@@ -1089,7 +1099,9 @@
         <v>74</v>
       </c>
       <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
+      <c r="K5" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
@@ -1623,7 +1635,9 @@
       <c r="I20" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="J20" s="8"/>
+      <c r="J20" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -248,63 +248,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-83%(0-363)还剩下备份不太重要就先不看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-3.1%（113-134）代理模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-6.6%(0-20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-6.6%（21-40）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-2.4%(141-158)索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1%(159-166)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-2.7%(165-183)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-6.7%（41-63）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-0.09%(183-189)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-5.9%（63-82）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-11%(0-48)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-2.7%（190-208）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4%（49-60）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0-5.1%(1-20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-83%(0-363)还剩下备份不太重要就先不看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-3.1%（113-134）代理模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-6.6%(0-20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-6.6%（21-40）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-2.4%(141-158)索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-1%(159-166)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-2.7%(165-183)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-6.7%（41-63）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-0.09%(183-189)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-5.9%（63-82）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-11%(0-48)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-2.7%（190-208）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-4%（49-60）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -316,7 +316,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,6 +362,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -448,7 +455,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -525,6 +532,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -857,11 +867,11 @@
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K8" sqref="K8"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="45.625" customWidth="1"/>
     <col min="4" max="4" width="11.875" customWidth="1"/>
@@ -874,7 +884,7 @@
     <col min="11" max="11" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:32">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -972,7 +982,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:32">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -1010,7 +1020,7 @@
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:32">
       <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
@@ -1048,7 +1058,7 @@
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:32">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -1084,7 +1094,7 @@
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:32">
       <c r="A5" s="10" t="s">
         <v>40</v>
       </c>
@@ -1095,12 +1105,12 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="12" t="s">
-        <v>74</v>
+      <c r="I5" s="26" t="s">
+        <v>73</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
@@ -1124,7 +1134,7 @@
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:32">
       <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
@@ -1160,7 +1170,7 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:32">
       <c r="A7" s="15" t="s">
         <v>42</v>
       </c>
@@ -1169,16 +1179,16 @@
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>67</v>
-      </c>
       <c r="H7" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
@@ -1204,7 +1214,7 @@
       <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:32">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1240,7 +1250,7 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:32">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -1276,7 +1286,7 @@
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
     </row>
-    <row r="10" spans="1:32" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="14.45">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1312,7 +1322,7 @@
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:32">
       <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1348,7 +1358,7 @@
       <c r="AE11" s="13"/>
       <c r="AF11" s="13"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:32">
       <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
@@ -1357,10 +1367,10 @@
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -1388,7 +1398,7 @@
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:32">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
@@ -1424,7 +1434,7 @@
       <c r="AE13" s="13"/>
       <c r="AF13" s="13"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:32">
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
@@ -1432,7 +1442,7 @@
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -1462,7 +1472,7 @@
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:32">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
@@ -1498,7 +1508,7 @@
       <c r="AE15" s="13"/>
       <c r="AF15" s="13"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:32">
       <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
@@ -1534,14 +1544,14 @@
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:32">
       <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -1572,7 +1582,7 @@
       <c r="AE17" s="13"/>
       <c r="AF17" s="13"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:32">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -1608,20 +1618,20 @@
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:32">
       <c r="A19" s="16" t="s">
         <v>44</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:32">
       <c r="A20" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -1630,13 +1640,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
@@ -1661,7 +1671,7 @@
       <c r="AE20" s="8"/>
       <c r="AF20" s="8"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:32">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
@@ -1669,7 +1679,7 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:32">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
@@ -1683,7 +1693,7 @@
       <c r="M25" s="25"/>
       <c r="N25" s="25"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:32">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -1691,13 +1701,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:32">
       <c r="G27" s="24" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="24"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:32">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
@@ -1706,7 +1716,7 @@
       </c>
       <c r="I28" s="24"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:32">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -1714,7 +1724,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:32">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
@@ -1724,7 +1734,7 @@
       <c r="I30" s="24"/>
       <c r="J30" s="24"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:32">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
@@ -1753,12 +1763,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1769,22 +1779,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1804,7 +1814,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -1815,7 +1825,7 @@
     <col min="7" max="7" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1838,7 +1848,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1849,7 +1859,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1866,7 +1876,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1877,7 +1887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1885,7 +1895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -306,6 +306,9 @@
   <si>
     <t>0-5.1%(1-20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-3.3%（21-34）</t>
   </si>
 </sst>
 </file>
@@ -528,13 +531,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -867,8 +870,8 @@
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D17" sqref="D17"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -881,7 +884,7 @@
     <col min="8" max="8" width="17.5" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
     <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="12.75" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -1105,7 +1108,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="24" t="s">
         <v>73</v>
       </c>
       <c r="J5" s="12"/>
@@ -1286,7 +1289,7 @@
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
     </row>
-    <row r="10" spans="1:32" ht="14.45">
+    <row r="10" spans="1:32">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1559,7 +1562,9 @@
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
+      <c r="K17" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
@@ -1683,15 +1688,15 @@
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="25" t="s">
+      <c r="H25" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
     </row>
     <row r="26" spans="1:32">
       <c r="G26" s="1" t="s">
@@ -1702,19 +1707,19 @@
       </c>
     </row>
     <row r="27" spans="1:32">
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="H27" s="24"/>
+      <c r="H27" s="25"/>
     </row>
     <row r="28" spans="1:32">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="24" t="s">
+      <c r="H28" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="24"/>
+      <c r="I28" s="25"/>
     </row>
     <row r="29" spans="1:32">
       <c r="G29" s="1" t="s">
@@ -1728,11 +1733,11 @@
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H30" s="24" t="s">
+      <c r="H30" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
     </row>
     <row r="31" spans="1:32">
       <c r="G31" s="1" t="s">
@@ -1784,7 +1789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.45">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>16</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,6 +309,10 @@
   </si>
   <si>
     <t>0-3.3%（21-34）</t>
+  </si>
+  <si>
+    <t>0-16%（82-132第二章结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -871,7 +875,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K1" sqref="K1"/>
+      <selection pane="topRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1194,7 +1198,9 @@
         <v>72</v>
       </c>
       <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
+      <c r="K7" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="6月" sheetId="3" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -312,18 +317,22 @@
   </si>
   <si>
     <t>0-16%（82-132第二章结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1.4%（58-64）单例模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -627,7 +636,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -660,9 +669,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -695,6 +721,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -875,23 +918,24 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K7" sqref="K7"/>
+      <selection pane="topRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.625" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -925,7 +969,7 @@
       <c r="K1" s="19">
         <v>42896</v>
       </c>
-      <c r="L1" s="5">
+      <c r="L1" s="19">
         <v>42897</v>
       </c>
       <c r="M1" s="5">
@@ -989,7 +1033,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -1027,7 +1071,7 @@
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
@@ -1065,7 +1109,7 @@
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -1101,7 +1145,7 @@
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>40</v>
       </c>
@@ -1141,7 +1185,7 @@
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
@@ -1177,7 +1221,7 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>42</v>
       </c>
@@ -1223,7 +1267,7 @@
       <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1259,7 +1303,7 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -1295,7 +1339,7 @@
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1331,7 +1375,7 @@
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1367,7 +1411,7 @@
       <c r="AE11" s="13"/>
       <c r="AF11" s="13"/>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
@@ -1407,7 +1451,7 @@
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
@@ -1443,7 +1487,7 @@
       <c r="AE13" s="13"/>
       <c r="AF13" s="13"/>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
@@ -1459,7 +1503,9 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
+      <c r="L14" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
@@ -1481,7 +1527,7 @@
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
@@ -1517,7 +1563,7 @@
       <c r="AE15" s="13"/>
       <c r="AF15" s="13"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
@@ -1553,7 +1599,7 @@
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
@@ -1593,7 +1639,7 @@
       <c r="AE17" s="13"/>
       <c r="AF17" s="13"/>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -1629,7 +1675,7 @@
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>44</v>
       </c>
@@ -1640,7 +1686,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>62</v>
       </c>
@@ -1682,7 +1728,7 @@
       <c r="AE20" s="8"/>
       <c r="AF20" s="8"/>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
@@ -1690,7 +1736,7 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
@@ -1704,7 +1750,7 @@
       <c r="M25" s="26"/>
       <c r="N25" s="26"/>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -1712,13 +1758,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G27" s="25" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="25"/>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
@@ -1727,7 +1773,7 @@
       </c>
       <c r="I28" s="25"/>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -1735,7 +1781,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
@@ -1745,7 +1791,7 @@
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
@@ -1774,12 +1820,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1790,22 +1836,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1825,18 +1871,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="41.5" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="41.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1859,7 +1905,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1870,7 +1916,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1887,7 +1933,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1898,7 +1944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1906,7 +1952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -321,6 +321,10 @@
   </si>
   <si>
     <t>0-1.4%（58-64）单例模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-6.6%(132-152)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -918,7 +922,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L1" sqref="L1"/>
+      <selection pane="topRight" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1245,7 +1249,9 @@
       <c r="K7" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="L7" s="12"/>
+      <c r="L7" s="12" t="s">
+        <v>80</v>
+      </c>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="6月" sheetId="3" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -325,18 +320,26 @@
   </si>
   <si>
     <t>0-6.6%(132-152)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3.7%(61-76)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-0.08%（209-212）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -640,7 +643,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -673,26 +676,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -725,23 +711,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -921,25 +890,26 @@
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L7" sqref="L7"/>
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M15" activeCellId="1" sqref="M24 M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="45.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="16.77734375" customWidth="1"/>
+    <col min="12" max="12" width="16.75" customWidth="1"/>
+    <col min="13" max="13" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -976,7 +946,7 @@
       <c r="L1" s="19">
         <v>42897</v>
       </c>
-      <c r="M1" s="5">
+      <c r="M1" s="19">
         <v>42898</v>
       </c>
       <c r="N1" s="5">
@@ -1037,7 +1007,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -1075,7 +1045,7 @@
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32">
       <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
@@ -1113,7 +1083,7 @@
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -1149,7 +1119,7 @@
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32">
       <c r="A5" s="10" t="s">
         <v>40</v>
       </c>
@@ -1167,8 +1137,9 @@
       <c r="K5" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="M5" s="12" t="s">
+        <v>81</v>
+      </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
@@ -1189,7 +1160,7 @@
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32">
       <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
@@ -1225,7 +1196,7 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32">
       <c r="A7" s="15" t="s">
         <v>42</v>
       </c>
@@ -1273,7 +1244,7 @@
       <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1309,7 +1280,7 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -1345,7 +1316,7 @@
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="14.45">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1381,7 +1352,7 @@
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32">
       <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1417,7 +1388,7 @@
       <c r="AE11" s="13"/>
       <c r="AF11" s="13"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32">
       <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
@@ -1457,7 +1428,7 @@
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
@@ -1493,7 +1464,7 @@
       <c r="AE13" s="13"/>
       <c r="AF13" s="13"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32">
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
@@ -1533,7 +1504,7 @@
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
@@ -1569,7 +1540,7 @@
       <c r="AE15" s="13"/>
       <c r="AF15" s="13"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32">
       <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
@@ -1605,7 +1576,7 @@
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32">
       <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
@@ -1645,7 +1616,7 @@
       <c r="AE17" s="13"/>
       <c r="AF17" s="13"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -1681,7 +1652,7 @@
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32">
       <c r="A19" s="16" t="s">
         <v>44</v>
       </c>
@@ -1692,7 +1663,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32">
       <c r="A20" s="20" t="s">
         <v>62</v>
       </c>
@@ -1713,7 +1684,9 @@
       </c>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
+      <c r="M20" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
@@ -1734,7 +1707,7 @@
       <c r="AE20" s="8"/>
       <c r="AF20" s="8"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
@@ -1742,7 +1715,7 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
@@ -1756,7 +1729,7 @@
       <c r="M25" s="26"/>
       <c r="N25" s="26"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -1764,13 +1737,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32">
       <c r="G27" s="25" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="25"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
@@ -1779,7 +1752,7 @@
       </c>
       <c r="I28" s="25"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -1787,7 +1760,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
@@ -1797,7 +1770,7 @@
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
@@ -1826,12 +1799,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1842,22 +1815,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1877,18 +1850,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="41.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1911,7 +1884,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1922,7 +1895,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1939,7 +1912,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1950,7 +1923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1958,7 +1931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="6月" sheetId="3" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,18 +333,30 @@
   </si>
   <si>
     <t>0-0.08%（209-212）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-15.3%（153-199）第三章线程间的通信看完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -643,7 +660,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -676,9 +693,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -711,6 +745,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -891,25 +942,25 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M15" activeCellId="1" sqref="M24 M15"/>
+      <selection pane="topRight" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.625" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="16.75" customWidth="1"/>
-    <col min="13" max="13" width="18.375" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -1007,7 +1058,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -1045,7 +1096,7 @@
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
@@ -1083,7 +1134,7 @@
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -1119,7 +1170,7 @@
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>40</v>
       </c>
@@ -1160,7 +1211,7 @@
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
@@ -1196,7 +1247,7 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>42</v>
       </c>
@@ -1223,9 +1274,15 @@
       <c r="L7" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
+      <c r="M7" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>84</v>
+      </c>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
@@ -1244,7 +1301,7 @@
       <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1280,7 +1337,7 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -1316,7 +1373,7 @@
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
     </row>
-    <row r="10" spans="1:32" ht="14.45">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1352,7 +1409,7 @@
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1388,7 +1445,7 @@
       <c r="AE11" s="13"/>
       <c r="AF11" s="13"/>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
@@ -1428,7 +1485,7 @@
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
@@ -1464,7 +1521,7 @@
       <c r="AE13" s="13"/>
       <c r="AF13" s="13"/>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
@@ -1504,7 +1561,7 @@
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
@@ -1540,7 +1597,7 @@
       <c r="AE15" s="13"/>
       <c r="AF15" s="13"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
@@ -1576,7 +1633,7 @@
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
@@ -1616,7 +1673,7 @@
       <c r="AE17" s="13"/>
       <c r="AF17" s="13"/>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -1652,7 +1709,7 @@
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>44</v>
       </c>
@@ -1663,7 +1720,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>62</v>
       </c>
@@ -1707,7 +1764,7 @@
       <c r="AE20" s="8"/>
       <c r="AF20" s="8"/>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
@@ -1715,7 +1772,7 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
@@ -1729,7 +1786,7 @@
       <c r="M25" s="26"/>
       <c r="N25" s="26"/>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -1737,13 +1794,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G27" s="25" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="25"/>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
@@ -1752,7 +1809,7 @@
       </c>
       <c r="I28" s="25"/>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -1760,7 +1817,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
@@ -1770,7 +1827,7 @@
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
@@ -1799,12 +1856,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1815,22 +1872,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1850,18 +1907,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="41.5" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="41.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1884,7 +1941,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1895,7 +1952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1912,7 +1969,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1923,7 +1980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1931,7 +1988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="6月" sheetId="3" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -345,18 +340,22 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1.2%（212-220）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -660,7 +659,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -693,26 +692,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -745,23 +727,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -941,26 +906,27 @@
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N9" sqref="N9"/>
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="45.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="16.77734375" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+    <col min="12" max="12" width="16.75" customWidth="1"/>
+    <col min="13" max="13" width="18.375" customWidth="1"/>
+    <col min="14" max="14" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -1000,7 +966,7 @@
       <c r="M1" s="19">
         <v>42898</v>
       </c>
-      <c r="N1" s="5">
+      <c r="N1" s="19">
         <v>42899</v>
       </c>
       <c r="O1" s="5">
@@ -1058,7 +1024,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -1096,7 +1062,7 @@
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32">
       <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
@@ -1134,7 +1100,7 @@
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -1170,7 +1136,7 @@
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32">
       <c r="A5" s="10" t="s">
         <v>40</v>
       </c>
@@ -1211,7 +1177,7 @@
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32">
       <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
@@ -1247,7 +1213,7 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32">
       <c r="A7" s="15" t="s">
         <v>42</v>
       </c>
@@ -1301,7 +1267,7 @@
       <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1337,7 +1303,7 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -1373,7 +1339,7 @@
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="14.45">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1409,7 +1375,7 @@
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32">
       <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1445,7 +1411,7 @@
       <c r="AE11" s="13"/>
       <c r="AF11" s="13"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32">
       <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
@@ -1485,7 +1451,7 @@
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
@@ -1521,7 +1487,7 @@
       <c r="AE13" s="13"/>
       <c r="AF13" s="13"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32">
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
@@ -1561,7 +1527,7 @@
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
@@ -1597,7 +1563,7 @@
       <c r="AE15" s="13"/>
       <c r="AF15" s="13"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32">
       <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
@@ -1633,7 +1599,7 @@
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32">
       <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
@@ -1673,7 +1639,7 @@
       <c r="AE17" s="13"/>
       <c r="AF17" s="13"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -1709,7 +1675,7 @@
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32">
       <c r="A19" s="16" t="s">
         <v>44</v>
       </c>
@@ -1720,7 +1686,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32">
       <c r="A20" s="20" t="s">
         <v>62</v>
       </c>
@@ -1744,7 +1710,9 @@
       <c r="M20" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="N20" s="8"/>
+      <c r="N20" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
@@ -1764,7 +1732,7 @@
       <c r="AE20" s="8"/>
       <c r="AF20" s="8"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
@@ -1772,7 +1740,7 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
@@ -1786,7 +1754,7 @@
       <c r="M25" s="26"/>
       <c r="N25" s="26"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -1794,13 +1762,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32">
       <c r="G27" s="25" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="25"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
@@ -1809,7 +1777,7 @@
       </c>
       <c r="I28" s="25"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -1817,7 +1785,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
@@ -1827,7 +1795,7 @@
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
@@ -1856,12 +1824,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1872,22 +1840,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1907,18 +1875,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="41.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1941,7 +1909,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1952,7 +1920,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1969,7 +1937,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1980,7 +1948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1988,7 +1956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="91">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -344,6 +344,22 @@
   </si>
   <si>
     <t>0-1.2%（212-220）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-3.6%(221-244)应用没有看，先看查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-5.3%(77-100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2%(162-170)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -907,7 +923,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N20" sqref="N20"/>
+      <selection pane="topRight" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -924,6 +940,7 @@
     <col min="12" max="12" width="16.75" customWidth="1"/>
     <col min="13" max="13" width="18.375" customWidth="1"/>
     <col min="14" max="14" width="15.75" customWidth="1"/>
+    <col min="15" max="15" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -969,7 +986,7 @@
       <c r="N1" s="19">
         <v>42899</v>
       </c>
-      <c r="O1" s="5">
+      <c r="O1" s="19">
         <v>42900</v>
       </c>
       <c r="P1" s="5">
@@ -1157,8 +1174,12 @@
       <c r="M5" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
+      <c r="N5" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>90</v>
+      </c>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
@@ -1339,7 +1360,7 @@
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
     </row>
-    <row r="10" spans="1:32" ht="14.45">
+    <row r="10" spans="1:32">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1713,9 +1734,15 @@
       <c r="N20" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
+      <c r="O20" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>88</v>
+      </c>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
       <c r="T20" s="8"/>
@@ -1845,7 +1872,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.45">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>16</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,6 +360,10 @@
   </si>
   <si>
     <t>1-2%(162-170)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-4.5%（34-48）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -922,8 +926,8 @@
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O5" sqref="O5"/>
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1641,7 +1645,9 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
+      <c r="O17" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -364,6 +364,10 @@
   </si>
   <si>
     <t>0-4.5%（34-48）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-6.1%（1-29）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -926,8 +930,8 @@
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O17" sqref="O17"/>
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1493,7 +1497,9 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
+      <c r="O13" s="12" t="s">
+        <v>92</v>
+      </c>
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="6月" sheetId="3" r:id="rId1"/>
@@ -335,10 +340,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">   </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -368,18 +369,22 @@
   </si>
   <si>
     <t>0-6.1%（1-29）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0-8.6%（200-226） </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -683,7 +688,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -716,9 +721,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -751,6 +773,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -931,27 +970,27 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O20" sqref="O20"/>
+      <selection pane="topRight" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.625" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="16.75" customWidth="1"/>
-    <col min="13" max="13" width="18.375" customWidth="1"/>
-    <col min="14" max="14" width="15.75" customWidth="1"/>
-    <col min="15" max="15" width="17.875" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="15.77734375" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -1049,7 +1088,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -1087,7 +1126,7 @@
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
@@ -1125,7 +1164,7 @@
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -1161,7 +1200,7 @@
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>40</v>
       </c>
@@ -1183,10 +1222,10 @@
         <v>81</v>
       </c>
       <c r="N5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="O5" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>90</v>
       </c>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
@@ -1206,7 +1245,7 @@
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
@@ -1242,7 +1281,7 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>42</v>
       </c>
@@ -1273,10 +1312,10 @@
         <v>83</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
@@ -1296,7 +1335,7 @@
       <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1332,7 +1371,7 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -1368,7 +1407,7 @@
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1404,7 +1443,7 @@
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1440,7 +1479,7 @@
       <c r="AE11" s="13"/>
       <c r="AF11" s="13"/>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
@@ -1480,7 +1519,7 @@
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
@@ -1498,7 +1537,7 @@
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
       <c r="O13" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
@@ -1518,7 +1557,7 @@
       <c r="AE13" s="13"/>
       <c r="AF13" s="13"/>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
@@ -1558,7 +1597,7 @@
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
@@ -1594,7 +1633,7 @@
       <c r="AE15" s="13"/>
       <c r="AF15" s="13"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
@@ -1630,7 +1669,7 @@
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
@@ -1652,7 +1691,7 @@
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
@@ -1672,7 +1711,7 @@
       <c r="AE17" s="13"/>
       <c r="AF17" s="13"/>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -1708,7 +1747,7 @@
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>44</v>
       </c>
@@ -1719,7 +1758,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>62</v>
       </c>
@@ -1744,16 +1783,16 @@
         <v>82</v>
       </c>
       <c r="N20" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="O20" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="O20" s="8" t="s">
+      <c r="P20" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="P20" s="8" t="s">
-        <v>88</v>
-      </c>
       <c r="Q20" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
@@ -1771,7 +1810,7 @@
       <c r="AE20" s="8"/>
       <c r="AF20" s="8"/>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
@@ -1779,7 +1818,7 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
@@ -1793,7 +1832,7 @@
       <c r="M25" s="26"/>
       <c r="N25" s="26"/>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -1801,13 +1840,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G27" s="25" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="25"/>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
@@ -1816,7 +1855,7 @@
       </c>
       <c r="I28" s="25"/>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,7 +1863,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
@@ -1834,7 +1873,7 @@
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
@@ -1863,12 +1902,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1879,22 +1918,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1914,18 +1953,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="41.5" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="41.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1948,7 +1987,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1959,7 +1998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1976,7 +2015,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1987,7 +2026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1995,7 +2034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="6月" sheetId="3" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -373,18 +368,22 @@
   </si>
   <si>
     <t xml:space="preserve">0-8.6%（200-226） </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0-0.08%（245-250）;还是从第一章开始0-2.6%（1-25）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -688,7 +687,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -721,26 +720,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -773,23 +755,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -969,28 +934,29 @@
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O7" sqref="O7"/>
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P12" activeCellId="1" sqref="P1 P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="45.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="16.77734375" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" customWidth="1"/>
-    <col min="14" max="14" width="15.77734375" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" customWidth="1"/>
+    <col min="12" max="12" width="16.75" customWidth="1"/>
+    <col min="13" max="13" width="18.375" customWidth="1"/>
+    <col min="14" max="14" width="15.75" customWidth="1"/>
+    <col min="15" max="15" width="17.875" customWidth="1"/>
+    <col min="16" max="16" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -1036,7 +1002,7 @@
       <c r="O1" s="19">
         <v>42900</v>
       </c>
-      <c r="P1" s="5">
+      <c r="P1" s="19">
         <v>42901</v>
       </c>
       <c r="Q1" s="5">
@@ -1088,7 +1054,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -1126,7 +1092,7 @@
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32">
       <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
@@ -1164,7 +1130,7 @@
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -1200,7 +1166,7 @@
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32">
       <c r="A5" s="10" t="s">
         <v>40</v>
       </c>
@@ -1245,7 +1211,7 @@
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32">
       <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
@@ -1281,7 +1247,7 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32">
       <c r="A7" s="15" t="s">
         <v>42</v>
       </c>
@@ -1335,7 +1301,7 @@
       <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1371,7 +1337,7 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -1407,7 +1373,7 @@
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="14.45">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1443,7 +1409,7 @@
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32">
       <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1479,7 +1445,7 @@
       <c r="AE11" s="13"/>
       <c r="AF11" s="13"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32">
       <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
@@ -1519,7 +1485,7 @@
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
@@ -1557,7 +1523,7 @@
       <c r="AE13" s="13"/>
       <c r="AF13" s="13"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32">
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
@@ -1597,7 +1563,7 @@
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
@@ -1633,7 +1599,7 @@
       <c r="AE15" s="13"/>
       <c r="AF15" s="13"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32">
       <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
@@ -1669,7 +1635,7 @@
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32">
       <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
@@ -1711,7 +1677,7 @@
       <c r="AE17" s="13"/>
       <c r="AF17" s="13"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -1747,7 +1713,7 @@
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32">
       <c r="A19" s="16" t="s">
         <v>44</v>
       </c>
@@ -1758,7 +1724,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32">
       <c r="A20" s="20" t="s">
         <v>62</v>
       </c>
@@ -1789,7 +1755,7 @@
         <v>86</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="Q20" s="8" t="s">
         <v>87</v>
@@ -1810,7 +1776,7 @@
       <c r="AE20" s="8"/>
       <c r="AF20" s="8"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
@@ -1818,7 +1784,7 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
@@ -1832,7 +1798,7 @@
       <c r="M25" s="26"/>
       <c r="N25" s="26"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -1840,13 +1806,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32">
       <c r="G27" s="25" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="25"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
@@ -1855,7 +1821,7 @@
       </c>
       <c r="I28" s="25"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -1863,7 +1829,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
@@ -1873,7 +1839,7 @@
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
@@ -1902,12 +1868,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1918,22 +1884,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1953,18 +1919,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="41.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1987,7 +1953,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1998,7 +1964,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2015,7 +1981,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2026,7 +1992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -2034,7 +2000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -383,7 +383,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,6 +436,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -522,7 +530,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -602,6 +610,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -934,8 +945,8 @@
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P12" activeCellId="1" sqref="P1 P12"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1181,16 +1192,16 @@
         <v>73</v>
       </c>
       <c r="J5" s="12"/>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="27" t="s">
         <v>89</v>
       </c>
       <c r="P5" s="12"/>
@@ -1373,7 +1384,7 @@
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
     </row>
-    <row r="10" spans="1:32" ht="14.45">
+    <row r="10" spans="1:32">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1889,7 +1900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.45">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>16</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -372,6 +372,10 @@
   </si>
   <si>
     <t xml:space="preserve"> 0-0.08%（245-250）;还是从第一章开始0-2.6%（1-25）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-8.7%(29-69)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -606,13 +610,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -945,8 +949,8 @@
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O5" sqref="O5"/>
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1192,16 +1196,16 @@
         <v>73</v>
       </c>
       <c r="J5" s="12"/>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="M5" s="27" t="s">
+      <c r="M5" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="N5" s="27" t="s">
+      <c r="N5" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="O5" s="27" t="s">
+      <c r="O5" s="25" t="s">
         <v>89</v>
       </c>
       <c r="P5" s="12"/>
@@ -1516,7 +1520,9 @@
       <c r="O13" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="P13" s="12"/>
+      <c r="P13" s="12" t="s">
+        <v>94</v>
+      </c>
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
       <c r="S13" s="12"/>
@@ -1799,15 +1805,15 @@
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="26" t="s">
+      <c r="H25" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
     </row>
     <row r="26" spans="1:32">
       <c r="G26" s="1" t="s">
@@ -1818,19 +1824,19 @@
       </c>
     </row>
     <row r="27" spans="1:32">
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="H27" s="25"/>
+      <c r="H27" s="26"/>
     </row>
     <row r="28" spans="1:32">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="25" t="s">
+      <c r="H28" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="25"/>
+      <c r="I28" s="26"/>
     </row>
     <row r="29" spans="1:32">
       <c r="G29" s="1" t="s">
@@ -1844,11 +1850,11 @@
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H30" s="25" t="s">
+      <c r="H30" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
     </row>
     <row r="31" spans="1:32">
       <c r="G31" s="1" t="s">

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -376,6 +376,10 @@
   </si>
   <si>
     <t>0-8.7%(29-69)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-4.2%（49-66）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -948,9 +952,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O15" sqref="O15"/>
+      <selection pane="topRight" activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1676,7 +1680,9 @@
       <c r="O17" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="P17" s="12"/>
+      <c r="P17" s="12" t="s">
+        <v>95</v>
+      </c>
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="6月" sheetId="3" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -380,18 +385,22 @@
   </si>
   <si>
     <t>0-4.2%（49-66）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-4.2%（227-240）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -706,7 +715,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -739,9 +748,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -774,6 +800,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -952,30 +995,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.625" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="16.75" customWidth="1"/>
-    <col min="13" max="13" width="18.375" customWidth="1"/>
-    <col min="14" max="14" width="15.75" customWidth="1"/>
-    <col min="15" max="15" width="17.875" customWidth="1"/>
-    <col min="16" max="16" width="19.625" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="15.77734375" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" customWidth="1"/>
+    <col min="16" max="16" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -1073,7 +1116,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -1111,7 +1154,7 @@
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
@@ -1149,7 +1192,7 @@
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -1185,7 +1228,7 @@
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>40</v>
       </c>
@@ -1230,7 +1273,7 @@
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
@@ -1266,7 +1309,7 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>42</v>
       </c>
@@ -1302,7 +1345,9 @@
       <c r="O7" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="P7" s="12"/>
+      <c r="P7" s="12" t="s">
+        <v>96</v>
+      </c>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
@@ -1320,7 +1365,7 @@
       <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1356,7 +1401,7 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -1392,7 +1437,7 @@
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1428,7 +1473,7 @@
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1464,7 +1509,7 @@
       <c r="AE11" s="13"/>
       <c r="AF11" s="13"/>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
@@ -1504,7 +1549,7 @@
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
@@ -1544,7 +1589,7 @@
       <c r="AE13" s="13"/>
       <c r="AF13" s="13"/>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
@@ -1584,7 +1629,7 @@
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
@@ -1620,7 +1665,7 @@
       <c r="AE15" s="13"/>
       <c r="AF15" s="13"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
@@ -1656,7 +1701,7 @@
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
@@ -1700,7 +1745,7 @@
       <c r="AE17" s="13"/>
       <c r="AF17" s="13"/>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -1736,7 +1781,7 @@
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>44</v>
       </c>
@@ -1747,7 +1792,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>62</v>
       </c>
@@ -1799,7 +1844,7 @@
       <c r="AE20" s="8"/>
       <c r="AF20" s="8"/>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
@@ -1807,7 +1852,7 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
@@ -1821,7 +1866,7 @@
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -1829,13 +1874,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G27" s="26" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="26"/>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
@@ -1844,7 +1889,7 @@
       </c>
       <c r="I28" s="26"/>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -1852,7 +1897,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
@@ -1862,7 +1907,7 @@
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
@@ -1891,12 +1936,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1907,22 +1952,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1942,18 +1987,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="41.5" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="41.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1976,7 +2021,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1987,7 +2032,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2004,7 +2049,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2015,7 +2060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -2023,7 +2068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="6月" sheetId="3" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -352,55 +347,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1-5.3%(77-100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2%(162-170)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-4.5%（34-48）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-6.1%（1-29）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0-8.6%（200-226） </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0-0.08%（245-250）;还是从第一章开始0-2.6%（1-25）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-8.7%(29-69)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-4.2%（49-66）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-4.2%（227-240）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0-16%（25-125）大概浏览了第一章基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-5.3%(77-100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-2%(162-170)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-4.5%（34-48）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-6.1%（1-29）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0-8.6%（200-226） </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0-0.08%（245-250）;还是从第一章开始0-2.6%（1-25）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-8.7%(29-69)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-4.2%（49-66）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-4.2%（227-240）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -715,7 +714,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -748,26 +747,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -800,23 +782,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -996,29 +961,30 @@
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P7" sqref="P7"/>
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="45.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="16.77734375" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" customWidth="1"/>
-    <col min="14" max="14" width="15.77734375" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" customWidth="1"/>
-    <col min="16" max="16" width="19.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.75" customWidth="1"/>
+    <col min="13" max="13" width="18.375" customWidth="1"/>
+    <col min="14" max="14" width="15.75" customWidth="1"/>
+    <col min="15" max="15" width="17.875" customWidth="1"/>
+    <col min="16" max="16" width="19.625" customWidth="1"/>
+    <col min="17" max="17" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -1067,7 +1033,7 @@
       <c r="P1" s="19">
         <v>42901</v>
       </c>
-      <c r="Q1" s="5">
+      <c r="Q1" s="19">
         <v>42902</v>
       </c>
       <c r="R1" s="5">
@@ -1116,7 +1082,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -1154,7 +1120,7 @@
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32">
       <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
@@ -1192,7 +1158,7 @@
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -1228,7 +1194,7 @@
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32">
       <c r="A5" s="10" t="s">
         <v>40</v>
       </c>
@@ -1250,10 +1216,10 @@
         <v>81</v>
       </c>
       <c r="N5" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="O5" s="25" t="s">
         <v>88</v>
-      </c>
-      <c r="O5" s="25" t="s">
-        <v>89</v>
       </c>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
@@ -1273,7 +1239,7 @@
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32">
       <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
@@ -1309,7 +1275,7 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32">
       <c r="A7" s="15" t="s">
         <v>42</v>
       </c>
@@ -1343,10 +1309,10 @@
         <v>84</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
@@ -1365,7 +1331,7 @@
       <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1401,7 +1367,7 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -1437,7 +1403,7 @@
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="14.45">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1473,7 +1439,7 @@
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32">
       <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1509,7 +1475,7 @@
       <c r="AE11" s="13"/>
       <c r="AF11" s="13"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32">
       <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
@@ -1549,7 +1515,7 @@
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
@@ -1567,10 +1533,10 @@
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
       <c r="O13" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
@@ -1589,7 +1555,7 @@
       <c r="AE13" s="13"/>
       <c r="AF13" s="13"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32">
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
@@ -1629,7 +1595,7 @@
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
@@ -1665,7 +1631,7 @@
       <c r="AE15" s="13"/>
       <c r="AF15" s="13"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32">
       <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
@@ -1701,7 +1667,7 @@
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32">
       <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
@@ -1723,10 +1689,10 @@
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
@@ -1745,7 +1711,7 @@
       <c r="AE17" s="13"/>
       <c r="AF17" s="13"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -1781,7 +1747,7 @@
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32">
       <c r="A19" s="16" t="s">
         <v>44</v>
       </c>
@@ -1792,7 +1758,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32">
       <c r="A20" s="20" t="s">
         <v>62</v>
       </c>
@@ -1823,14 +1789,20 @@
         <v>86</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
+        <v>96</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="S20" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="T20" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="U20" s="8"/>
       <c r="V20" s="8"/>
       <c r="W20" s="8"/>
@@ -1844,7 +1816,7 @@
       <c r="AE20" s="8"/>
       <c r="AF20" s="8"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
@@ -1852,7 +1824,7 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
@@ -1866,7 +1838,7 @@
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -1874,13 +1846,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32">
       <c r="G27" s="26" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="26"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
@@ -1889,7 +1861,7 @@
       </c>
       <c r="I28" s="26"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -1897,7 +1869,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
@@ -1907,7 +1879,7 @@
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
@@ -1936,12 +1908,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1952,22 +1924,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1987,18 +1959,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="41.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2021,7 +1993,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2032,7 +2004,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2049,7 +2021,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2060,7 +2032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -2068,7 +2040,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="99">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -388,6 +388,10 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1.7%(67-74)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -962,7 +966,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q20" sqref="Q20"/>
+      <selection pane="topRight" activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1403,7 +1407,7 @@
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
     </row>
-    <row r="10" spans="1:32" ht="14.45">
+    <row r="10" spans="1:32">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1694,7 +1698,9 @@
       <c r="P17" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="Q17" s="12"/>
+      <c r="Q17" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
       <c r="T17" s="12"/>
@@ -1929,7 +1935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.45">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>16</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="100">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -392,6 +392,10 @@
   </si>
   <si>
     <t>0-1.7%(67-74)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1.7%（70-78）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -966,7 +970,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q17" sqref="Q17"/>
+      <selection pane="topRight" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -984,7 +988,7 @@
     <col min="13" max="13" width="18.375" customWidth="1"/>
     <col min="14" max="14" width="15.75" customWidth="1"/>
     <col min="15" max="15" width="17.875" customWidth="1"/>
-    <col min="16" max="16" width="19.625" customWidth="1"/>
+    <col min="16" max="16" width="19.5" customWidth="1"/>
     <col min="17" max="17" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1542,7 +1546,9 @@
       <c r="P13" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="Q13" s="12"/>
+      <c r="Q13" s="12" t="s">
+        <v>99</v>
+      </c>
       <c r="R13" s="12"/>
       <c r="S13" s="12"/>
       <c r="T13" s="12"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -396,6 +396,14 @@
   </si>
   <si>
     <t>0-1.7%（70-78）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1.6%(65-76)工厂模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -969,8 +977,8 @@
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q13" sqref="Q13"/>
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -990,6 +998,7 @@
     <col min="15" max="15" width="17.875" customWidth="1"/>
     <col min="16" max="16" width="19.5" customWidth="1"/>
     <col min="17" max="17" width="16.75" customWidth="1"/>
+    <col min="18" max="18" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -1044,7 +1053,7 @@
       <c r="Q1" s="19">
         <v>42902</v>
       </c>
-      <c r="R1" s="5">
+      <c r="R1" s="19">
         <v>42903</v>
       </c>
       <c r="S1" s="5">
@@ -1565,7 +1574,7 @@
       <c r="AE13" s="13"/>
       <c r="AF13" s="13"/>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:32" ht="12.75" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
@@ -1589,8 +1598,12 @@
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
+      <c r="R14" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>101</v>
+      </c>
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -404,6 +404,10 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-12%（240-278）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -977,8 +981,8 @@
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A14" sqref="A14:XFD14"/>
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1332,7 +1336,9 @@
         <v>95</v>
       </c>
       <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
+      <c r="R7" s="12" t="s">
+        <v>102</v>
+      </c>
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="6月" sheetId="3" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -408,18 +413,22 @@
   </si>
   <si>
     <t>0-12%（240-278）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-18%（279-剩下）读完</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,7 +495,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -503,6 +512,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDCE6F1"/>
         <bgColor rgb="FFDCE6F1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -566,7 +581,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -649,6 +664,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -734,7 +752,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -767,9 +785,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -802,6 +837,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -982,30 +1034,31 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R7" sqref="R7"/>
+      <selection pane="topRight" activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.625" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="16.75" customWidth="1"/>
-    <col min="13" max="13" width="18.375" customWidth="1"/>
-    <col min="14" max="14" width="15.75" customWidth="1"/>
-    <col min="15" max="15" width="17.875" customWidth="1"/>
-    <col min="16" max="16" width="19.5" customWidth="1"/>
-    <col min="17" max="17" width="16.75" customWidth="1"/>
-    <col min="18" max="18" width="14.625" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="15.77734375" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" customWidth="1"/>
+    <col min="16" max="16" width="19.44140625" customWidth="1"/>
+    <col min="17" max="17" width="16.77734375" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" customWidth="1"/>
+    <col min="19" max="19" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -1060,7 +1113,7 @@
       <c r="R1" s="19">
         <v>42903</v>
       </c>
-      <c r="S1" s="5">
+      <c r="S1" s="19">
         <v>42904</v>
       </c>
       <c r="T1" s="5">
@@ -1103,7 +1156,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -1141,7 +1194,7 @@
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
@@ -1179,7 +1232,7 @@
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -1215,7 +1268,7 @@
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>40</v>
       </c>
@@ -1260,7 +1313,7 @@
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
@@ -1296,7 +1349,7 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>42</v>
       </c>
@@ -1339,7 +1392,9 @@
       <c r="R7" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="S7" s="12"/>
+      <c r="S7" s="28" t="s">
+        <v>103</v>
+      </c>
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12"/>
@@ -1354,7 +1409,7 @@
       <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1390,7 +1445,7 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -1426,7 +1481,7 @@
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1462,7 +1517,7 @@
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1498,7 +1553,7 @@
       <c r="AE11" s="13"/>
       <c r="AF11" s="13"/>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
@@ -1538,7 +1593,7 @@
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
@@ -1580,7 +1635,7 @@
       <c r="AE13" s="13"/>
       <c r="AF13" s="13"/>
     </row>
-    <row r="14" spans="1:32" ht="12.75" customHeight="1">
+    <row r="14" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
@@ -1624,7 +1679,7 @@
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
@@ -1660,7 +1715,7 @@
       <c r="AE15" s="13"/>
       <c r="AF15" s="13"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
@@ -1696,7 +1751,7 @@
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
@@ -1742,7 +1797,7 @@
       <c r="AE17" s="13"/>
       <c r="AF17" s="13"/>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -1778,7 +1833,7 @@
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>44</v>
       </c>
@@ -1789,7 +1844,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>62</v>
       </c>
@@ -1847,7 +1902,7 @@
       <c r="AE20" s="8"/>
       <c r="AF20" s="8"/>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
@@ -1855,7 +1910,7 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
@@ -1869,7 +1924,7 @@
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -1877,13 +1932,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G27" s="26" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="26"/>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
@@ -1892,7 +1947,7 @@
       </c>
       <c r="I28" s="26"/>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -1900,7 +1955,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
@@ -1910,7 +1965,7 @@
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
@@ -1939,12 +1994,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1955,22 +2010,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1990,18 +2045,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="41.5" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="41.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2024,7 +2079,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2035,7 +2090,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2052,7 +2107,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2063,7 +2118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -2071,7 +2126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="6月" sheetId="3" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="107">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,18 +412,30 @@
   </si>
   <si>
     <t>0-18%（279-剩下）读完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1.2%（75-79）默认标签解析结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -660,13 +667,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -752,7 +759,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -785,26 +792,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -837,23 +827,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1033,32 +1006,33 @@
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S7" sqref="S7"/>
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="45.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="16.77734375" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" customWidth="1"/>
-    <col min="14" max="14" width="15.77734375" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" customWidth="1"/>
-    <col min="16" max="16" width="19.44140625" customWidth="1"/>
-    <col min="17" max="17" width="16.77734375" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" customWidth="1"/>
-    <col min="19" max="19" width="21.5546875" customWidth="1"/>
+    <col min="12" max="12" width="16.75" customWidth="1"/>
+    <col min="13" max="13" width="18.375" customWidth="1"/>
+    <col min="14" max="14" width="15.75" customWidth="1"/>
+    <col min="15" max="15" width="17.875" customWidth="1"/>
+    <col min="16" max="16" width="19.5" customWidth="1"/>
+    <col min="17" max="17" width="16.75" customWidth="1"/>
+    <col min="18" max="18" width="14.625" customWidth="1"/>
+    <col min="19" max="19" width="21.5" customWidth="1"/>
+    <col min="20" max="20" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -1116,7 +1090,7 @@
       <c r="S1" s="19">
         <v>42904</v>
       </c>
-      <c r="T1" s="5">
+      <c r="T1" s="19">
         <v>42905</v>
       </c>
       <c r="U1" s="5">
@@ -1156,7 +1130,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -1194,7 +1168,7 @@
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32">
       <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
@@ -1232,7 +1206,7 @@
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -1268,7 +1242,7 @@
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32">
       <c r="A5" s="10" t="s">
         <v>40</v>
       </c>
@@ -1313,7 +1287,7 @@
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32">
       <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
@@ -1349,7 +1323,7 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32">
       <c r="A7" s="15" t="s">
         <v>42</v>
       </c>
@@ -1392,7 +1366,7 @@
       <c r="R7" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="S7" s="28" t="s">
+      <c r="S7" s="26" t="s">
         <v>103</v>
       </c>
       <c r="T7" s="12"/>
@@ -1409,7 +1383,7 @@
       <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1445,7 +1419,7 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -1481,7 +1455,7 @@
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="14.45">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1517,7 +1491,7 @@
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32">
       <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1553,7 +1527,7 @@
       <c r="AE11" s="13"/>
       <c r="AF11" s="13"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32">
       <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
@@ -1593,7 +1567,7 @@
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
@@ -1635,7 +1609,7 @@
       <c r="AE13" s="13"/>
       <c r="AF13" s="13"/>
     </row>
-    <row r="14" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="12.75" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
@@ -1679,7 +1653,7 @@
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
@@ -1715,7 +1689,7 @@
       <c r="AE15" s="13"/>
       <c r="AF15" s="13"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32">
       <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
@@ -1751,7 +1725,7 @@
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32">
       <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
@@ -1783,10 +1757,18 @@
       </c>
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
+      <c r="T17" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="U17" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="V17" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="W17" s="12" t="s">
+        <v>106</v>
+      </c>
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
       <c r="Z17" s="12"/>
@@ -1797,7 +1779,7 @@
       <c r="AE17" s="13"/>
       <c r="AF17" s="13"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -1833,7 +1815,7 @@
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32">
       <c r="A19" s="16" t="s">
         <v>44</v>
       </c>
@@ -1844,7 +1826,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32">
       <c r="A20" s="20" t="s">
         <v>62</v>
       </c>
@@ -1902,7 +1884,7 @@
       <c r="AE20" s="8"/>
       <c r="AF20" s="8"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
@@ -1910,21 +1892,21 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="H25" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+    </row>
+    <row r="26" spans="1:32">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -1932,22 +1914,22 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="G27" s="26" t="s">
+    <row r="27" spans="1:32">
+      <c r="G27" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="H27" s="26"/>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="H27" s="27"/>
+    </row>
+    <row r="28" spans="1:32">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="26" t="s">
+      <c r="H28" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="26"/>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="I28" s="27"/>
+    </row>
+    <row r="29" spans="1:32">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -1955,17 +1937,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H30" s="26" t="s">
+      <c r="H30" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+    </row>
+    <row r="31" spans="1:32">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
@@ -1994,12 +1976,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2010,22 +1992,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2045,18 +2027,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="41.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2079,7 +2061,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2090,7 +2072,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2107,7 +2089,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2118,7 +2100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -2126,7 +2108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="108">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -424,6 +424,10 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-3%（79-93）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1006,8 +1010,8 @@
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S15" sqref="S15"/>
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1455,7 +1459,7 @@
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
     </row>
-    <row r="10" spans="1:32" ht="14.45">
+    <row r="10" spans="1:32">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1595,7 +1599,9 @@
       </c>
       <c r="R13" s="12"/>
       <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
+      <c r="T13" s="12" t="s">
+        <v>107</v>
+      </c>
       <c r="U13" s="12"/>
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
@@ -1997,7 +2003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.45">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>16</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="6月" sheetId="3" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="109">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -428,18 +433,22 @@
   </si>
   <si>
     <t>0-3%（79-93）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-6.5%（0-23）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -763,7 +772,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -796,9 +805,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -831,6 +857,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1011,32 +1054,32 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T13" sqref="T13"/>
+      <selection pane="topRight" activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.625" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="16.75" customWidth="1"/>
-    <col min="13" max="13" width="18.375" customWidth="1"/>
-    <col min="14" max="14" width="15.75" customWidth="1"/>
-    <col min="15" max="15" width="17.875" customWidth="1"/>
-    <col min="16" max="16" width="19.5" customWidth="1"/>
-    <col min="17" max="17" width="16.75" customWidth="1"/>
-    <col min="18" max="18" width="14.625" customWidth="1"/>
-    <col min="19" max="19" width="21.5" customWidth="1"/>
-    <col min="20" max="20" width="16.625" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="15.77734375" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" customWidth="1"/>
+    <col min="16" max="16" width="19.44140625" customWidth="1"/>
+    <col min="17" max="17" width="16.77734375" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" customWidth="1"/>
+    <col min="19" max="19" width="21.44140625" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -1134,7 +1177,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -1172,7 +1215,7 @@
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
@@ -1210,7 +1253,7 @@
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -1246,7 +1289,7 @@
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>40</v>
       </c>
@@ -1291,7 +1334,7 @@
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
@@ -1327,7 +1370,7 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>42</v>
       </c>
@@ -1387,7 +1430,7 @@
       <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1423,7 +1466,7 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -1459,7 +1502,7 @@
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1495,7 +1538,7 @@
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1531,7 +1574,7 @@
       <c r="AE11" s="13"/>
       <c r="AF11" s="13"/>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
@@ -1571,7 +1614,7 @@
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
@@ -1615,7 +1658,7 @@
       <c r="AE13" s="13"/>
       <c r="AF13" s="13"/>
     </row>
-    <row r="14" spans="1:32" ht="12.75" customHeight="1">
+    <row r="14" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
@@ -1659,7 +1702,7 @@
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
@@ -1695,7 +1738,7 @@
       <c r="AE15" s="13"/>
       <c r="AF15" s="13"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
@@ -1731,7 +1774,7 @@
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
@@ -1785,7 +1828,7 @@
       <c r="AE17" s="13"/>
       <c r="AF17" s="13"/>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -1807,7 +1850,9 @@
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
+      <c r="T18" s="8" t="s">
+        <v>108</v>
+      </c>
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
@@ -1821,7 +1866,7 @@
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>44</v>
       </c>
@@ -1832,7 +1877,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>62</v>
       </c>
@@ -1890,7 +1935,7 @@
       <c r="AE20" s="8"/>
       <c r="AF20" s="8"/>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
@@ -1898,7 +1943,7 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
@@ -1912,7 +1957,7 @@
       <c r="M25" s="28"/>
       <c r="N25" s="28"/>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -1920,13 +1965,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G27" s="27" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="27"/>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
@@ -1935,7 +1980,7 @@
       </c>
       <c r="I28" s="27"/>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -1943,7 +1988,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
@@ -1953,7 +1998,7 @@
       <c r="I30" s="27"/>
       <c r="J30" s="27"/>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
@@ -1982,12 +2027,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1998,22 +2043,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2033,18 +2078,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="41.5" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="41.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2067,7 +2112,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2078,7 +2123,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2095,7 +2140,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2106,7 +2151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -2114,7 +2159,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="6月" sheetId="3" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="110">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -437,18 +432,22 @@
   </si>
   <si>
     <t>0-6.5%（0-23）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1.8%（251-263）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,7 +514,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -538,6 +537,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFDCE6F1"/>
       </patternFill>
     </fill>
   </fills>
@@ -601,7 +612,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -671,9 +682,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -687,6 +695,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -772,7 +789,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -805,26 +822,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -857,23 +857,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1053,33 +1036,34 @@
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T18" sqref="T18"/>
+      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="45.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="16.77734375" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" customWidth="1"/>
-    <col min="14" max="14" width="15.77734375" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" customWidth="1"/>
-    <col min="16" max="16" width="19.44140625" customWidth="1"/>
-    <col min="17" max="17" width="16.77734375" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" customWidth="1"/>
-    <col min="19" max="19" width="21.44140625" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.75" customWidth="1"/>
+    <col min="13" max="13" width="18.375" customWidth="1"/>
+    <col min="14" max="14" width="15.75" customWidth="1"/>
+    <col min="15" max="15" width="17.875" customWidth="1"/>
+    <col min="16" max="16" width="19.5" customWidth="1"/>
+    <col min="17" max="17" width="16.75" customWidth="1"/>
+    <col min="18" max="18" width="14.625" customWidth="1"/>
+    <col min="19" max="19" width="21.5" customWidth="1"/>
+    <col min="20" max="20" width="16.625" customWidth="1"/>
+    <col min="21" max="21" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -1092,7 +1076,7 @@
       <c r="D1" s="19">
         <v>42889</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="19">
         <v>42890</v>
       </c>
       <c r="F1" s="19">
@@ -1140,7 +1124,7 @@
       <c r="T1" s="19">
         <v>42905</v>
       </c>
-      <c r="U1" s="5">
+      <c r="U1" s="19">
         <v>42906</v>
       </c>
       <c r="V1" s="5">
@@ -1177,7 +1161,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -1215,7 +1199,7 @@
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32">
       <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
@@ -1253,7 +1237,7 @@
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -1289,7 +1273,7 @@
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32">
       <c r="A5" s="10" t="s">
         <v>40</v>
       </c>
@@ -1300,20 +1284,20 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="23" t="s">
         <v>73</v>
       </c>
       <c r="J5" s="12"/>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="M5" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="N5" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="O5" s="25" t="s">
+      <c r="O5" s="24" t="s">
         <v>88</v>
       </c>
       <c r="P5" s="12"/>
@@ -1334,7 +1318,7 @@
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32">
       <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
@@ -1370,7 +1354,7 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32">
       <c r="A7" s="15" t="s">
         <v>42</v>
       </c>
@@ -1378,7 +1362,7 @@
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="28" t="s">
         <v>65</v>
       </c>
       <c r="G7" s="12" t="s">
@@ -1413,7 +1397,7 @@
       <c r="R7" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="S7" s="26" t="s">
+      <c r="S7" s="25" t="s">
         <v>103</v>
       </c>
       <c r="T7" s="12"/>
@@ -1430,7 +1414,7 @@
       <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1466,7 +1450,7 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -1502,7 +1486,7 @@
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="14.45">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1538,7 +1522,7 @@
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32">
       <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1574,7 +1558,7 @@
       <c r="AE11" s="13"/>
       <c r="AF11" s="13"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32">
       <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
@@ -1614,7 +1598,7 @@
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
@@ -1658,14 +1642,14 @@
       <c r="AE13" s="13"/>
       <c r="AF13" s="13"/>
     </row>
-    <row r="14" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="12.75" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="30" t="s">
         <v>64</v>
       </c>
       <c r="F14" s="8"/>
@@ -1702,7 +1686,7 @@
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
@@ -1738,7 +1722,7 @@
       <c r="AE15" s="13"/>
       <c r="AF15" s="13"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32">
       <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
@@ -1774,13 +1758,13 @@
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32">
       <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="28" t="s">
         <v>76</v>
       </c>
       <c r="E17" s="12"/>
@@ -1828,7 +1812,7 @@
       <c r="AE17" s="13"/>
       <c r="AF17" s="13"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -1850,7 +1834,7 @@
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
-      <c r="T18" s="8" t="s">
+      <c r="T18" s="29" t="s">
         <v>108</v>
       </c>
       <c r="U18" s="8"/>
@@ -1866,7 +1850,7 @@
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32">
       <c r="A19" s="16" t="s">
         <v>44</v>
       </c>
@@ -1877,7 +1861,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32">
       <c r="A20" s="20" t="s">
         <v>62</v>
       </c>
@@ -1887,7 +1871,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="29" t="s">
         <v>69</v>
       </c>
       <c r="I20" s="8" t="s">
@@ -1922,7 +1906,9 @@
       <c r="T20" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="U20" s="8"/>
+      <c r="U20" s="8" t="s">
+        <v>109</v>
+      </c>
       <c r="V20" s="8"/>
       <c r="W20" s="8"/>
       <c r="X20" s="8"/>
@@ -1935,7 +1921,7 @@
       <c r="AE20" s="8"/>
       <c r="AF20" s="8"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
@@ -1943,21 +1929,21 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="28" t="s">
+      <c r="H25" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+    </row>
+    <row r="26" spans="1:32">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -1965,22 +1951,22 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="G27" s="27" t="s">
+    <row r="27" spans="1:32">
+      <c r="G27" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="H27" s="27"/>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="H27" s="26"/>
+    </row>
+    <row r="28" spans="1:32">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="H28" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="27"/>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="I28" s="26"/>
+    </row>
+    <row r="29" spans="1:32">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -1988,17 +1974,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H30" s="27" t="s">
+      <c r="H30" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+    </row>
+    <row r="31" spans="1:32">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
@@ -2027,12 +2013,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2043,22 +2029,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2078,18 +2064,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="41.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2112,7 +2098,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2123,7 +2109,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2140,7 +2126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2151,7 +2137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -2159,7 +2145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -423,10 +423,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0-3%（79-93）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -436,6 +432,10 @@
   </si>
   <si>
     <t>0-1.8%（251-263）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0-2.2%（80-89）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -691,19 +691,19 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1037,7 +1037,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="topRight" activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1362,7 +1362,7 @@
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="26" t="s">
         <v>65</v>
       </c>
       <c r="G7" s="12" t="s">
@@ -1486,7 +1486,7 @@
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
     </row>
-    <row r="10" spans="1:32" ht="14.45">
+    <row r="10" spans="1:32">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1627,7 +1627,7 @@
       <c r="R13" s="12"/>
       <c r="S13" s="12"/>
       <c r="T13" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U13" s="12"/>
       <c r="V13" s="12"/>
@@ -1649,7 +1649,7 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="28" t="s">
         <v>64</v>
       </c>
       <c r="F14" s="8"/>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="26" t="s">
         <v>76</v>
       </c>
       <c r="E17" s="12"/>
@@ -1794,13 +1794,13 @@
         <v>104</v>
       </c>
       <c r="U17" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="V17" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="V17" s="12" t="s">
-        <v>106</v>
-      </c>
       <c r="W17" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
@@ -1834,8 +1834,8 @@
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
-      <c r="T18" s="29" t="s">
-        <v>108</v>
+      <c r="T18" s="27" t="s">
+        <v>107</v>
       </c>
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
@@ -1871,7 +1871,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="29" t="s">
+      <c r="H20" s="27" t="s">
         <v>69</v>
       </c>
       <c r="I20" s="8" t="s">
@@ -1907,7 +1907,7 @@
         <v>97</v>
       </c>
       <c r="U20" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V20" s="8"/>
       <c r="W20" s="8"/>
@@ -1933,15 +1933,15 @@
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="H25" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
     </row>
     <row r="26" spans="1:32">
       <c r="G26" s="1" t="s">
@@ -1952,19 +1952,19 @@
       </c>
     </row>
     <row r="27" spans="1:32">
-      <c r="G27" s="26" t="s">
+      <c r="G27" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="H27" s="26"/>
+      <c r="H27" s="29"/>
     </row>
     <row r="28" spans="1:32">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="26" t="s">
+      <c r="H28" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="26"/>
+      <c r="I28" s="29"/>
     </row>
     <row r="29" spans="1:32">
       <c r="G29" s="1" t="s">
@@ -1978,11 +1978,11 @@
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H30" s="26" t="s">
+      <c r="H30" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
     </row>
     <row r="31" spans="1:32">
       <c r="G31" s="1" t="s">
@@ -2034,7 +2034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.45">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>16</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="111">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -436,6 +436,10 @@
   </si>
   <si>
     <t xml:space="preserve"> 0-2.2%（80-89）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-2.6%（94-106）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1037,7 +1041,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U17" sqref="U17"/>
+      <selection pane="topRight" activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1629,7 +1633,9 @@
       <c r="T13" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="U13" s="12"/>
+      <c r="U13" s="12" t="s">
+        <v>110</v>
+      </c>
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
       <c r="X13" s="12"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="6月" sheetId="3" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="112">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -440,18 +445,22 @@
   </si>
   <si>
     <t>0-2.6%（94-106）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-2%（24-31）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -793,7 +802,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -826,9 +835,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -861,6 +887,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1041,33 +1084,33 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U13" sqref="U13"/>
+      <selection pane="topRight" activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.625" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="16.75" customWidth="1"/>
-    <col min="13" max="13" width="18.375" customWidth="1"/>
-    <col min="14" max="14" width="15.75" customWidth="1"/>
-    <col min="15" max="15" width="17.875" customWidth="1"/>
-    <col min="16" max="16" width="19.5" customWidth="1"/>
-    <col min="17" max="17" width="16.75" customWidth="1"/>
-    <col min="18" max="18" width="14.625" customWidth="1"/>
-    <col min="19" max="19" width="21.5" customWidth="1"/>
-    <col min="20" max="20" width="16.625" customWidth="1"/>
-    <col min="21" max="21" width="16.25" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="15.77734375" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" customWidth="1"/>
+    <col min="16" max="16" width="19.44140625" customWidth="1"/>
+    <col min="17" max="17" width="16.77734375" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" customWidth="1"/>
+    <col min="19" max="19" width="21.44140625" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" customWidth="1"/>
+    <col min="21" max="21" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -1165,7 +1208,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -1203,7 +1246,7 @@
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
@@ -1241,7 +1284,7 @@
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -1277,7 +1320,7 @@
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>40</v>
       </c>
@@ -1322,7 +1365,7 @@
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
@@ -1358,7 +1401,7 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>42</v>
       </c>
@@ -1418,7 +1461,7 @@
       <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1454,7 +1497,7 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -1490,7 +1533,7 @@
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1526,7 +1569,7 @@
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1562,7 +1605,7 @@
       <c r="AE11" s="13"/>
       <c r="AF11" s="13"/>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
@@ -1602,7 +1645,7 @@
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
@@ -1648,7 +1691,7 @@
       <c r="AE13" s="13"/>
       <c r="AF13" s="13"/>
     </row>
-    <row r="14" spans="1:32" ht="12.75" customHeight="1">
+    <row r="14" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
@@ -1692,7 +1735,7 @@
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
@@ -1728,7 +1771,7 @@
       <c r="AE15" s="13"/>
       <c r="AF15" s="13"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
@@ -1764,7 +1807,7 @@
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
@@ -1818,7 +1861,7 @@
       <c r="AE17" s="13"/>
       <c r="AF17" s="13"/>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -1843,7 +1886,9 @@
       <c r="T18" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="U18" s="8"/>
+      <c r="U18" s="8" t="s">
+        <v>111</v>
+      </c>
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
       <c r="X18" s="8"/>
@@ -1856,7 +1901,7 @@
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>44</v>
       </c>
@@ -1867,7 +1912,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>62</v>
       </c>
@@ -1927,7 +1972,7 @@
       <c r="AE20" s="8"/>
       <c r="AF20" s="8"/>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
@@ -1935,7 +1980,7 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
@@ -1949,7 +1994,7 @@
       <c r="M25" s="30"/>
       <c r="N25" s="30"/>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -1957,13 +2002,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G27" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="29"/>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
@@ -1972,7 +2017,7 @@
       </c>
       <c r="I28" s="29"/>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -1980,7 +2025,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
@@ -1990,7 +2035,7 @@
       <c r="I30" s="29"/>
       <c r="J30" s="29"/>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
@@ -2019,12 +2064,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2035,22 +2080,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2070,18 +2115,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="41.5" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="41.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2104,7 +2149,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2115,7 +2160,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2132,7 +2177,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2143,7 +2188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -2151,7 +2196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="6月" sheetId="3" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="113">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -449,18 +444,22 @@
   </si>
   <si>
     <t>0-2%（24-31）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1%（264-271）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -802,7 +801,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -835,26 +834,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -887,23 +869,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1084,33 +1049,34 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U18" sqref="U18"/>
+      <selection pane="topRight" activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="45.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="16.77734375" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" customWidth="1"/>
-    <col min="14" max="14" width="15.77734375" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" customWidth="1"/>
-    <col min="16" max="16" width="19.44140625" customWidth="1"/>
-    <col min="17" max="17" width="16.77734375" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" customWidth="1"/>
-    <col min="19" max="19" width="21.44140625" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" customWidth="1"/>
-    <col min="21" max="21" width="16.21875" customWidth="1"/>
+    <col min="12" max="12" width="16.75" customWidth="1"/>
+    <col min="13" max="13" width="18.375" customWidth="1"/>
+    <col min="14" max="14" width="15.75" customWidth="1"/>
+    <col min="15" max="15" width="17.875" customWidth="1"/>
+    <col min="16" max="16" width="19.5" customWidth="1"/>
+    <col min="17" max="17" width="16.75" customWidth="1"/>
+    <col min="18" max="18" width="14.625" customWidth="1"/>
+    <col min="19" max="19" width="21.5" customWidth="1"/>
+    <col min="20" max="20" width="16.625" customWidth="1"/>
+    <col min="21" max="21" width="16.25" customWidth="1"/>
+    <col min="22" max="22" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -1174,7 +1140,7 @@
       <c r="U1" s="19">
         <v>42906</v>
       </c>
-      <c r="V1" s="5">
+      <c r="V1" s="19">
         <v>42907</v>
       </c>
       <c r="W1" s="5">
@@ -1208,7 +1174,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -1246,7 +1212,7 @@
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32">
       <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
@@ -1284,7 +1250,7 @@
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -1320,7 +1286,7 @@
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32">
       <c r="A5" s="10" t="s">
         <v>40</v>
       </c>
@@ -1365,7 +1331,7 @@
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32">
       <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
@@ -1401,7 +1367,7 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32">
       <c r="A7" s="15" t="s">
         <v>42</v>
       </c>
@@ -1461,7 +1427,7 @@
       <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1497,7 +1463,7 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -1533,7 +1499,7 @@
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="14.45">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1569,7 +1535,7 @@
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32">
       <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1605,7 +1571,7 @@
       <c r="AE11" s="13"/>
       <c r="AF11" s="13"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32">
       <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
@@ -1645,7 +1611,7 @@
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
@@ -1691,7 +1657,7 @@
       <c r="AE13" s="13"/>
       <c r="AF13" s="13"/>
     </row>
-    <row r="14" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="12.75" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
@@ -1735,7 +1701,7 @@
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
@@ -1771,7 +1737,7 @@
       <c r="AE15" s="13"/>
       <c r="AF15" s="13"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32">
       <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
@@ -1807,7 +1773,7 @@
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32">
       <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
@@ -1861,7 +1827,7 @@
       <c r="AE17" s="13"/>
       <c r="AF17" s="13"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -1901,7 +1867,7 @@
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32">
       <c r="A19" s="16" t="s">
         <v>44</v>
       </c>
@@ -1912,7 +1878,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32">
       <c r="A20" s="20" t="s">
         <v>62</v>
       </c>
@@ -1960,7 +1926,9 @@
       <c r="U20" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="V20" s="8"/>
+      <c r="V20" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="W20" s="8"/>
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
@@ -1972,7 +1940,7 @@
       <c r="AE20" s="8"/>
       <c r="AF20" s="8"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
@@ -1980,7 +1948,7 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
@@ -1994,7 +1962,7 @@
       <c r="M25" s="30"/>
       <c r="N25" s="30"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -2002,13 +1970,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32">
       <c r="G27" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="29"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
@@ -2017,7 +1985,7 @@
       </c>
       <c r="I28" s="29"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -2025,7 +1993,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
@@ -2035,7 +2003,7 @@
       <c r="I30" s="29"/>
       <c r="J30" s="29"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
@@ -2064,12 +2032,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2080,22 +2048,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2115,18 +2083,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="41.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2149,7 +2117,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2160,7 +2128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2177,7 +2145,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2188,7 +2156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -2196,7 +2164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="114">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -448,6 +448,10 @@
   </si>
   <si>
     <t>0-1%（264-271）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-2.1%（195-211）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1049,7 +1053,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V1" sqref="V1"/>
+      <selection pane="topRight" activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1499,7 +1503,7 @@
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
     </row>
-    <row r="10" spans="1:32" ht="14.45">
+    <row r="10" spans="1:32">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1599,7 +1603,9 @@
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
+      <c r="V12" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="W12" s="8"/>
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
@@ -2053,7 +2059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.45">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>16</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="115">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -452,6 +452,10 @@
   </si>
   <si>
     <t>0-2.1%（195-211）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0-2.3%（90-100）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1053,7 +1057,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V12" sqref="V12"/>
+      <selection pane="topRight" activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1818,7 +1822,7 @@
         <v>109</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="W17" s="12" t="s">
         <v>105</v>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="116">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -456,6 +456,10 @@
   </si>
   <si>
     <t xml:space="preserve"> 0-2.3%（90-100）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-2.7%（107-120）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1057,7 +1061,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V17" sqref="V17"/>
+      <selection pane="topRight" activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1655,7 +1659,9 @@
       <c r="U13" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="V13" s="12"/>
+      <c r="V13" s="12" t="s">
+        <v>115</v>
+      </c>
       <c r="W13" s="12"/>
       <c r="X13" s="12"/>
       <c r="Y13" s="12"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="6月" sheetId="3" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="118">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -460,18 +465,26 @@
   </si>
   <si>
     <t>0-2.7%（107-120）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-9%（32-64）第三章结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -813,7 +826,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -846,9 +859,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -881,6 +911,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1060,35 +1107,35 @@
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V13" sqref="V13"/>
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.625" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="16.75" customWidth="1"/>
-    <col min="13" max="13" width="18.375" customWidth="1"/>
-    <col min="14" max="14" width="15.75" customWidth="1"/>
-    <col min="15" max="15" width="17.875" customWidth="1"/>
-    <col min="16" max="16" width="19.5" customWidth="1"/>
-    <col min="17" max="17" width="16.75" customWidth="1"/>
-    <col min="18" max="18" width="14.625" customWidth="1"/>
-    <col min="19" max="19" width="21.5" customWidth="1"/>
-    <col min="20" max="20" width="16.625" customWidth="1"/>
-    <col min="21" max="21" width="16.25" customWidth="1"/>
-    <col min="22" max="22" width="15.375" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="15.77734375" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" customWidth="1"/>
+    <col min="16" max="16" width="19.44140625" customWidth="1"/>
+    <col min="17" max="17" width="16.77734375" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" customWidth="1"/>
+    <col min="19" max="19" width="21.44140625" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" customWidth="1"/>
+    <col min="21" max="21" width="16.21875" customWidth="1"/>
+    <col min="22" max="22" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -1186,7 +1233,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -1224,7 +1271,7 @@
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
@@ -1262,7 +1309,7 @@
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -1298,7 +1345,7 @@
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>40</v>
       </c>
@@ -1343,7 +1390,7 @@
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
@@ -1379,7 +1426,7 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>42</v>
       </c>
@@ -1439,7 +1486,7 @@
       <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1475,7 +1522,7 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -1511,7 +1558,7 @@
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1547,7 +1594,7 @@
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1583,7 +1630,7 @@
       <c r="AE11" s="13"/>
       <c r="AF11" s="13"/>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
@@ -1625,7 +1672,7 @@
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
@@ -1673,7 +1720,7 @@
       <c r="AE13" s="13"/>
       <c r="AF13" s="13"/>
     </row>
-    <row r="14" spans="1:32" ht="12.75" customHeight="1">
+    <row r="14" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
@@ -1717,7 +1764,7 @@
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
@@ -1753,7 +1800,7 @@
       <c r="AE15" s="13"/>
       <c r="AF15" s="13"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
@@ -1789,7 +1836,7 @@
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
@@ -1843,7 +1890,7 @@
       <c r="AE17" s="13"/>
       <c r="AF17" s="13"/>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -1871,8 +1918,12 @@
       <c r="U18" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
+      <c r="V18" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="W18" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
@@ -1883,7 +1934,7 @@
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>44</v>
       </c>
@@ -1894,7 +1945,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>62</v>
       </c>
@@ -1956,7 +2007,7 @@
       <c r="AE20" s="8"/>
       <c r="AF20" s="8"/>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
@@ -1964,7 +2015,7 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
@@ -1978,7 +2029,7 @@
       <c r="M25" s="30"/>
       <c r="N25" s="30"/>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -1986,13 +2037,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G27" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="29"/>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
@@ -2001,7 +2052,7 @@
       </c>
       <c r="I28" s="29"/>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -2009,7 +2060,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
@@ -2019,7 +2070,7 @@
       <c r="I30" s="29"/>
       <c r="J30" s="29"/>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
@@ -2048,12 +2099,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2064,22 +2115,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2099,18 +2150,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="41.5" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="41.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2133,7 +2184,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2144,7 +2195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2161,7 +2212,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2172,7 +2223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -2180,7 +2231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="6月" sheetId="3" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="120">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -473,18 +468,26 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1.9%（272-285）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1.8%（212-222）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -826,7 +829,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -859,26 +862,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -911,23 +897,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1107,35 +1076,35 @@
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V19" sqref="V19"/>
+      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="45.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="16.77734375" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" customWidth="1"/>
-    <col min="14" max="14" width="15.77734375" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" customWidth="1"/>
-    <col min="16" max="16" width="19.44140625" customWidth="1"/>
-    <col min="17" max="17" width="16.77734375" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" customWidth="1"/>
-    <col min="19" max="19" width="21.44140625" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" customWidth="1"/>
-    <col min="21" max="21" width="16.21875" customWidth="1"/>
-    <col min="22" max="22" width="15.33203125" customWidth="1"/>
+    <col min="12" max="12" width="16.75" customWidth="1"/>
+    <col min="13" max="13" width="18.375" customWidth="1"/>
+    <col min="14" max="14" width="15.75" customWidth="1"/>
+    <col min="15" max="15" width="17.875" customWidth="1"/>
+    <col min="16" max="16" width="19.5" customWidth="1"/>
+    <col min="17" max="17" width="16.75" customWidth="1"/>
+    <col min="18" max="18" width="14.625" customWidth="1"/>
+    <col min="19" max="19" width="21.5" customWidth="1"/>
+    <col min="20" max="20" width="16.625" customWidth="1"/>
+    <col min="21" max="21" width="16.25" customWidth="1"/>
+    <col min="22" max="22" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -1233,7 +1202,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -1271,7 +1240,7 @@
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32">
       <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
@@ -1309,7 +1278,7 @@
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -1345,7 +1314,7 @@
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32">
       <c r="A5" s="10" t="s">
         <v>40</v>
       </c>
@@ -1390,7 +1359,7 @@
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32">
       <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
@@ -1426,7 +1395,7 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32">
       <c r="A7" s="15" t="s">
         <v>42</v>
       </c>
@@ -1486,7 +1455,7 @@
       <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1522,7 +1491,7 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -1558,7 +1527,7 @@
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="14.45">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1594,7 +1563,7 @@
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32">
       <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1630,7 +1599,7 @@
       <c r="AE11" s="13"/>
       <c r="AF11" s="13"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32">
       <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
@@ -1661,7 +1630,9 @@
       <c r="V12" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="W12" s="8"/>
+      <c r="W12" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
@@ -1672,7 +1643,7 @@
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
@@ -1720,7 +1691,7 @@
       <c r="AE13" s="13"/>
       <c r="AF13" s="13"/>
     </row>
-    <row r="14" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="12.75" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
@@ -1764,7 +1735,7 @@
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
@@ -1800,7 +1771,7 @@
       <c r="AE15" s="13"/>
       <c r="AF15" s="13"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32">
       <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
@@ -1836,7 +1807,7 @@
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32">
       <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
@@ -1890,7 +1861,7 @@
       <c r="AE17" s="13"/>
       <c r="AF17" s="13"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -1934,7 +1905,7 @@
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32">
       <c r="A19" s="16" t="s">
         <v>44</v>
       </c>
@@ -1945,7 +1916,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32">
       <c r="A20" s="20" t="s">
         <v>62</v>
       </c>
@@ -1996,7 +1967,9 @@
       <c r="V20" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="W20" s="8"/>
+      <c r="W20" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
@@ -2007,7 +1980,7 @@
       <c r="AE20" s="8"/>
       <c r="AF20" s="8"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
@@ -2015,7 +1988,7 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
@@ -2029,7 +2002,7 @@
       <c r="M25" s="30"/>
       <c r="N25" s="30"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -2037,13 +2010,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32">
       <c r="G27" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="29"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
@@ -2052,7 +2025,7 @@
       </c>
       <c r="I28" s="29"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -2060,7 +2033,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
@@ -2070,7 +2043,7 @@
       <c r="I30" s="29"/>
       <c r="J30" s="29"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
@@ -2099,12 +2072,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2115,22 +2088,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2150,18 +2123,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="41.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2184,7 +2157,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2195,7 +2168,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2212,7 +2185,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2223,7 +2196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -2231,7 +2204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -419,63 +419,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0-3%（79-93）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-6.5%（0-23）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1.8%（251-263）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0-2.2%（80-89）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-2.6%（94-106）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-2%（24-31）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1%（264-271）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-2.1%（195-211）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0-2.3%（90-100）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-2.7%（107-120）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-9%（32-64）第三章结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0-3%（79-93）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-6.5%（0-23）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-1.8%（251-263）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0-2.2%（80-89）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-2.6%（94-106）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-2%（24-31）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-1%（264-271）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-2.1%（195-211）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0-2.3%（90-100）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-2.7%（107-120）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-9%（32-64）第三章结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0-1.9%（272-285）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0-1.8%（212-222）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0-2.3%（101-111）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1077,7 +1077,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W12" sqref="W12"/>
+      <selection pane="topRight" activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1102,6 +1102,7 @@
     <col min="20" max="20" width="16.625" customWidth="1"/>
     <col min="21" max="21" width="16.25" customWidth="1"/>
     <col min="22" max="22" width="15.375" customWidth="1"/>
+    <col min="23" max="23" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -1171,7 +1172,7 @@
       <c r="V1" s="19">
         <v>42907</v>
       </c>
-      <c r="W1" s="5">
+      <c r="W1" s="19">
         <v>42908</v>
       </c>
       <c r="X1" s="5">
@@ -1527,7 +1528,7 @@
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
     </row>
-    <row r="10" spans="1:32" ht="14.45">
+    <row r="10" spans="1:32">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1628,10 +1629,10 @@
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
       <c r="V12" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W12" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
@@ -1672,13 +1673,13 @@
       <c r="R13" s="12"/>
       <c r="S13" s="12"/>
       <c r="T13" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W13" s="12"/>
       <c r="X13" s="12"/>
@@ -1843,13 +1844,13 @@
         <v>104</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="W17" s="12" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
@@ -1884,16 +1885,16 @@
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
       <c r="T18" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U18" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V18" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="W18" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="W18" s="8" t="s">
-        <v>117</v>
       </c>
       <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
@@ -1962,13 +1963,13 @@
         <v>97</v>
       </c>
       <c r="U20" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V20" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W20" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
@@ -2093,7 +2094,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.45">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>16</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="121">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -476,6 +476,10 @@
   </si>
   <si>
     <t xml:space="preserve"> 0-2.3%（101-111）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-4.1%（121-140）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1077,7 +1081,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W17" sqref="W17"/>
+      <selection pane="topRight" activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1681,7 +1685,9 @@
       <c r="V13" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="W13" s="12"/>
+      <c r="W13" s="12" t="s">
+        <v>120</v>
+      </c>
       <c r="X13" s="12"/>
       <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="122">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -480,6 +480,10 @@
   </si>
   <si>
     <t>0-4.1%（121-140）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1.8%（286-295）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1081,7 +1085,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W13" sqref="W13"/>
+      <selection pane="topRight" activeCell="X19" activeCellId="1" sqref="X1 X19:Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1107,6 +1111,7 @@
     <col min="21" max="21" width="16.25" customWidth="1"/>
     <col min="22" max="22" width="15.375" customWidth="1"/>
     <col min="23" max="23" width="17.375" customWidth="1"/>
+    <col min="24" max="24" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -1179,7 +1184,7 @@
       <c r="W1" s="19">
         <v>42908</v>
       </c>
-      <c r="X1" s="5">
+      <c r="X1" s="19">
         <v>42909</v>
       </c>
       <c r="Y1" s="5">
@@ -1977,7 +1982,9 @@
       <c r="W20" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="X20" s="8"/>
+      <c r="X20" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
       <c r="AA20" s="8"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="123">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -484,6 +484,10 @@
   </si>
   <si>
     <t>0-1.8%（286-295）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-2.3%（112-122）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1084,8 +1088,8 @@
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X19" activeCellId="1" sqref="X1 X19:Y19"/>
+      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1863,7 +1867,9 @@
       <c r="W17" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="X17" s="12"/>
+      <c r="X17" s="12" t="s">
+        <v>122</v>
+      </c>
       <c r="Y17" s="12"/>
       <c r="Z17" s="12"/>
       <c r="AA17" s="12"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="124">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -488,6 +488,10 @@
   </si>
   <si>
     <t>0-2.3%（112-122）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-3.2%（141-155）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1089,7 +1093,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X17" sqref="X17"/>
+      <selection pane="topRight" activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1697,7 +1701,9 @@
       <c r="W13" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="X13" s="12"/>
+      <c r="X13" s="12" t="s">
+        <v>123</v>
+      </c>
       <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
       <c r="AA13" s="12"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -1093,7 +1093,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X13" sqref="X13"/>
+      <selection pane="topRight" activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1119,7 +1119,7 @@
     <col min="21" max="21" width="16.25" customWidth="1"/>
     <col min="22" max="22" width="15.375" customWidth="1"/>
     <col min="23" max="23" width="17.375" customWidth="1"/>
-    <col min="24" max="24" width="16.25" customWidth="1"/>
+    <col min="24" max="24" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="126">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -492,6 +492,14 @@
   </si>
   <si>
     <t>0-3.2%（141-155）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-7.9%（65-93）第三章结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1092,8 +1100,8 @@
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X17" sqref="X17"/>
+      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1120,6 +1128,7 @@
     <col min="22" max="22" width="15.375" customWidth="1"/>
     <col min="23" max="23" width="17.375" customWidth="1"/>
     <col min="24" max="24" width="17.25" customWidth="1"/>
+    <col min="25" max="25" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -1195,7 +1204,7 @@
       <c r="X1" s="19">
         <v>42909</v>
       </c>
-      <c r="Y1" s="5">
+      <c r="Y1" s="19">
         <v>42910</v>
       </c>
       <c r="Z1" s="5">
@@ -1920,8 +1929,12 @@
         <v>116</v>
       </c>
       <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
+      <c r="Y18" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z18" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="AA18" s="8"/>
       <c r="AB18" s="8"/>
       <c r="AC18" s="8"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="127">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -500,6 +500,10 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-2.7%（262-277）观察者模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1101,7 +1105,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y21" sqref="Y21"/>
+      <selection pane="topRight" activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1757,7 +1761,9 @@
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
       <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
+      <c r="Y14" s="8" t="s">
+        <v>126</v>
+      </c>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
       <c r="AB14" s="8"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="128">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -504,6 +504,10 @@
   </si>
   <si>
     <t>0-2.7%（262-277）观察者模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1.9%（296-309）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1104,8 +1108,8 @@
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A14" sqref="A14:XFD14"/>
+      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1133,6 +1137,7 @@
     <col min="23" max="23" width="17.375" customWidth="1"/>
     <col min="24" max="24" width="17.25" customWidth="1"/>
     <col min="25" max="25" width="18.25" customWidth="1"/>
+    <col min="27" max="27" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -1214,7 +1219,7 @@
       <c r="Z1" s="5">
         <v>42911</v>
       </c>
-      <c r="AA1" s="5">
+      <c r="AA1" s="19">
         <v>42912</v>
       </c>
       <c r="AB1" s="5">
@@ -2018,7 +2023,9 @@
       </c>
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
-      <c r="AA20" s="8"/>
+      <c r="AA20" s="8" t="s">
+        <v>127</v>
+      </c>
       <c r="AB20" s="8"/>
       <c r="AC20" s="8"/>
       <c r="AD20" s="8"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="129">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,6 +508,10 @@
   </si>
   <si>
     <t>0-1.9%（296-309）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-4.2%（123-140）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1108,8 +1112,8 @@
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA1" sqref="AA1"/>
+      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1898,7 +1902,9 @@
       </c>
       <c r="Y17" s="12"/>
       <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
+      <c r="AA17" s="12" t="s">
+        <v>128</v>
+      </c>
       <c r="AB17" s="12"/>
       <c r="AC17" s="12"/>
       <c r="AD17" s="12"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="130">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -512,6 +512,10 @@
   </si>
   <si>
     <t>0-4.2%（123-140）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-2.1%（156-166）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1113,7 +1117,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA17" sqref="AA17"/>
+      <selection pane="topRight" activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1728,7 +1732,9 @@
       </c>
       <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
+      <c r="AA13" s="12" t="s">
+        <v>129</v>
+      </c>
       <c r="AB13" s="12"/>
       <c r="AC13" s="12"/>
       <c r="AD13" s="12"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="6月" sheetId="3" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="132">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -499,35 +504,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0-2.7%（262-277）观察者模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1.9%（296-309）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-4.2%（123-140）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-2.1%（156-166）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0-2.7%（262-277）观察者模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-1.9%（296-309）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-4.2%（123-140）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-2.1%（156-166）</t>
+    <t>0-4%（94-108）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-9.4%（109-142）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -869,7 +882,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -902,9 +915,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -937,6 +967,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1117,38 +1164,39 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA13" sqref="AA13"/>
+      <selection pane="topRight" activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.625" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="16.75" customWidth="1"/>
-    <col min="13" max="13" width="18.375" customWidth="1"/>
-    <col min="14" max="14" width="15.75" customWidth="1"/>
-    <col min="15" max="15" width="17.875" customWidth="1"/>
-    <col min="16" max="16" width="19.5" customWidth="1"/>
-    <col min="17" max="17" width="16.75" customWidth="1"/>
-    <col min="18" max="18" width="14.625" customWidth="1"/>
-    <col min="19" max="19" width="21.5" customWidth="1"/>
-    <col min="20" max="20" width="16.625" customWidth="1"/>
-    <col min="21" max="21" width="16.25" customWidth="1"/>
-    <col min="22" max="22" width="15.375" customWidth="1"/>
-    <col min="23" max="23" width="17.375" customWidth="1"/>
-    <col min="24" max="24" width="17.25" customWidth="1"/>
-    <col min="25" max="25" width="18.25" customWidth="1"/>
-    <col min="27" max="27" width="16.5" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="15.77734375" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" customWidth="1"/>
+    <col min="16" max="16" width="19.44140625" customWidth="1"/>
+    <col min="17" max="17" width="16.77734375" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" customWidth="1"/>
+    <col min="19" max="19" width="21.44140625" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" customWidth="1"/>
+    <col min="21" max="21" width="16.21875" customWidth="1"/>
+    <col min="22" max="22" width="15.33203125" customWidth="1"/>
+    <col min="23" max="23" width="17.33203125" customWidth="1"/>
+    <col min="24" max="24" width="17.21875" customWidth="1"/>
+    <col min="25" max="25" width="18.21875" customWidth="1"/>
+    <col min="26" max="26" width="14.44140625" customWidth="1"/>
+    <col min="27" max="27" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -1246,7 +1294,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -1284,7 +1332,7 @@
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
@@ -1322,7 +1370,7 @@
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -1358,7 +1406,7 @@
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>40</v>
       </c>
@@ -1403,7 +1451,7 @@
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
@@ -1439,7 +1487,7 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>42</v>
       </c>
@@ -1499,7 +1547,7 @@
       <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1535,7 +1583,7 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -1571,7 +1619,7 @@
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1607,7 +1655,7 @@
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1643,7 +1691,7 @@
       <c r="AE11" s="13"/>
       <c r="AF11" s="13"/>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
@@ -1687,7 +1735,7 @@
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
@@ -1733,7 +1781,7 @@
       <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
       <c r="AA13" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AB13" s="12"/>
       <c r="AC13" s="12"/>
@@ -1741,7 +1789,7 @@
       <c r="AE13" s="13"/>
       <c r="AF13" s="13"/>
     </row>
-    <row r="14" spans="1:32" ht="12.75" customHeight="1">
+    <row r="14" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
@@ -1777,9 +1825,11 @@
       <c r="W14" s="8"/>
       <c r="X14" s="8"/>
       <c r="Y14" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z14" s="8"/>
+        <v>125</v>
+      </c>
+      <c r="Z14" s="8" t="s">
+        <v>129</v>
+      </c>
       <c r="AA14" s="8"/>
       <c r="AB14" s="8"/>
       <c r="AC14" s="8"/>
@@ -1787,7 +1837,7 @@
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
@@ -1823,7 +1873,7 @@
       <c r="AE15" s="13"/>
       <c r="AF15" s="13"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
@@ -1859,7 +1909,7 @@
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
@@ -1909,7 +1959,7 @@
       <c r="Y17" s="12"/>
       <c r="Z17" s="12"/>
       <c r="AA17" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AB17" s="12"/>
       <c r="AC17" s="12"/>
@@ -1917,7 +1967,7 @@
       <c r="AE17" s="13"/>
       <c r="AF17" s="13"/>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -1956,16 +2006,18 @@
         <v>124</v>
       </c>
       <c r="Z18" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA18" s="8"/>
+        <v>130</v>
+      </c>
+      <c r="AA18" s="8" t="s">
+        <v>131</v>
+      </c>
       <c r="AB18" s="8"/>
       <c r="AC18" s="8"/>
       <c r="AD18" s="8"/>
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>44</v>
       </c>
@@ -1976,7 +2028,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>62</v>
       </c>
@@ -2036,7 +2088,7 @@
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
       <c r="AA20" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AB20" s="8"/>
       <c r="AC20" s="8"/>
@@ -2044,7 +2096,7 @@
       <c r="AE20" s="8"/>
       <c r="AF20" s="8"/>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
@@ -2052,7 +2104,7 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
@@ -2066,7 +2118,7 @@
       <c r="M25" s="30"/>
       <c r="N25" s="30"/>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -2074,13 +2126,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G27" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="29"/>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
@@ -2089,7 +2141,7 @@
       </c>
       <c r="I28" s="29"/>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -2097,7 +2149,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
@@ -2107,7 +2159,7 @@
       <c r="I30" s="29"/>
       <c r="J30" s="29"/>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
@@ -2136,12 +2188,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2152,22 +2204,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2187,18 +2239,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="41.5" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="41.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2221,7 +2273,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2232,7 +2284,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2249,7 +2301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2260,7 +2312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -2268,7 +2320,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="6月" sheetId="3" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="133">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -529,18 +524,22 @@
   </si>
   <si>
     <t>0-9.4%（109-142）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-0.9%（310-316）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -882,7 +881,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -915,26 +914,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -967,23 +949,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1162,41 +1127,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA18" sqref="AA18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="45.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="16.77734375" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" customWidth="1"/>
-    <col min="14" max="14" width="15.77734375" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" customWidth="1"/>
-    <col min="16" max="16" width="19.44140625" customWidth="1"/>
-    <col min="17" max="17" width="16.77734375" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" customWidth="1"/>
-    <col min="19" max="19" width="21.44140625" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" customWidth="1"/>
-    <col min="21" max="21" width="16.21875" customWidth="1"/>
-    <col min="22" max="22" width="15.33203125" customWidth="1"/>
-    <col min="23" max="23" width="17.33203125" customWidth="1"/>
-    <col min="24" max="24" width="17.21875" customWidth="1"/>
-    <col min="25" max="25" width="18.21875" customWidth="1"/>
-    <col min="26" max="26" width="14.44140625" customWidth="1"/>
-    <col min="27" max="27" width="17.44140625" customWidth="1"/>
+    <col min="12" max="12" width="16.75" customWidth="1"/>
+    <col min="13" max="13" width="18.375" customWidth="1"/>
+    <col min="14" max="14" width="15.75" customWidth="1"/>
+    <col min="15" max="15" width="17.875" customWidth="1"/>
+    <col min="16" max="16" width="19.5" customWidth="1"/>
+    <col min="17" max="17" width="16.75" customWidth="1"/>
+    <col min="18" max="18" width="14.625" customWidth="1"/>
+    <col min="19" max="19" width="21.5" customWidth="1"/>
+    <col min="20" max="20" width="16.625" customWidth="1"/>
+    <col min="21" max="21" width="16.25" customWidth="1"/>
+    <col min="22" max="22" width="15.375" customWidth="1"/>
+    <col min="23" max="23" width="17.375" customWidth="1"/>
+    <col min="24" max="24" width="17.25" customWidth="1"/>
+    <col min="25" max="25" width="18.25" customWidth="1"/>
+    <col min="26" max="26" width="14.5" customWidth="1"/>
+    <col min="27" max="27" width="17.5" customWidth="1"/>
+    <col min="28" max="28" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -1278,7 +1244,7 @@
       <c r="AA1" s="19">
         <v>42912</v>
       </c>
-      <c r="AB1" s="5">
+      <c r="AB1" s="19">
         <v>42913</v>
       </c>
       <c r="AC1" s="5">
@@ -1294,7 +1260,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -1332,7 +1298,7 @@
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32">
       <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
@@ -1370,7 +1336,7 @@
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -1406,7 +1372,7 @@
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32">
       <c r="A5" s="10" t="s">
         <v>40</v>
       </c>
@@ -1451,7 +1417,7 @@
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32">
       <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
@@ -1487,7 +1453,7 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32">
       <c r="A7" s="15" t="s">
         <v>42</v>
       </c>
@@ -1547,7 +1513,7 @@
       <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1583,7 +1549,7 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -1619,7 +1585,7 @@
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="14.45">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1655,7 +1621,7 @@
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32">
       <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1691,7 +1657,7 @@
       <c r="AE11" s="13"/>
       <c r="AF11" s="13"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32">
       <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
@@ -1735,7 +1701,7 @@
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
@@ -1789,7 +1755,7 @@
       <c r="AE13" s="13"/>
       <c r="AF13" s="13"/>
     </row>
-    <row r="14" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="12.75" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
@@ -1837,7 +1803,7 @@
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
@@ -1873,7 +1839,7 @@
       <c r="AE15" s="13"/>
       <c r="AF15" s="13"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32">
       <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
@@ -1909,7 +1875,7 @@
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32">
       <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
@@ -1967,7 +1933,7 @@
       <c r="AE17" s="13"/>
       <c r="AF17" s="13"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -2017,7 +1983,7 @@
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32">
       <c r="A19" s="16" t="s">
         <v>44</v>
       </c>
@@ -2028,7 +1994,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32">
       <c r="A20" s="20" t="s">
         <v>62</v>
       </c>
@@ -2090,13 +2056,15 @@
       <c r="AA20" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="AB20" s="8"/>
+      <c r="AB20" s="8" t="s">
+        <v>132</v>
+      </c>
       <c r="AC20" s="8"/>
       <c r="AD20" s="8"/>
       <c r="AE20" s="8"/>
       <c r="AF20" s="8"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
@@ -2104,7 +2072,7 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
@@ -2118,7 +2086,7 @@
       <c r="M25" s="30"/>
       <c r="N25" s="30"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -2126,13 +2094,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32">
       <c r="G27" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="29"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
@@ -2141,7 +2109,7 @@
       </c>
       <c r="I28" s="29"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -2149,7 +2117,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
@@ -2159,7 +2127,7 @@
       <c r="I30" s="29"/>
       <c r="J30" s="29"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
@@ -2188,12 +2156,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2204,22 +2172,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2239,18 +2207,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="41.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2273,7 +2241,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2284,7 +2252,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2301,7 +2269,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2312,7 +2280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -2320,7 +2288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="134">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -528,6 +528,10 @@
   </si>
   <si>
     <t>0-0.9%（310-316）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-2.3%（141-152）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1127,9 +1131,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB1" sqref="AB1"/>
+      <selection pane="topRight" activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1585,7 +1589,7 @@
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
     </row>
-    <row r="10" spans="1:32" ht="14.45">
+    <row r="10" spans="1:32">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1927,7 +1931,9 @@
       <c r="AA17" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="AB17" s="12"/>
+      <c r="AB17" s="12" t="s">
+        <v>133</v>
+      </c>
       <c r="AC17" s="12"/>
       <c r="AD17" s="12"/>
       <c r="AE17" s="13"/>
@@ -2177,7 +2183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.45">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>16</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="136">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -532,6 +532,14 @@
   </si>
   <si>
     <t>0-2.3%（141-152）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-2.2%（167-178）第五章结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1133,7 +1141,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB17" sqref="AB17"/>
+      <selection pane="topRight" activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1753,8 +1761,12 @@
       <c r="AA13" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
+      <c r="AB13" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC13" s="12" t="s">
+        <v>135</v>
+      </c>
       <c r="AD13" s="12"/>
       <c r="AE13" s="13"/>
       <c r="AF13" s="13"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="6月" sheetId="3" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="137">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -540,18 +545,22 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-7.1%（143-168）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -893,7 +902,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -926,9 +935,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -961,6 +987,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1141,40 +1184,40 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC13" sqref="AC13"/>
+      <selection pane="topRight" activeCell="AB18" sqref="AB18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.625" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="16.75" customWidth="1"/>
-    <col min="13" max="13" width="18.375" customWidth="1"/>
-    <col min="14" max="14" width="15.75" customWidth="1"/>
-    <col min="15" max="15" width="17.875" customWidth="1"/>
-    <col min="16" max="16" width="19.5" customWidth="1"/>
-    <col min="17" max="17" width="16.75" customWidth="1"/>
-    <col min="18" max="18" width="14.625" customWidth="1"/>
-    <col min="19" max="19" width="21.5" customWidth="1"/>
-    <col min="20" max="20" width="16.625" customWidth="1"/>
-    <col min="21" max="21" width="16.25" customWidth="1"/>
-    <col min="22" max="22" width="15.375" customWidth="1"/>
-    <col min="23" max="23" width="17.375" customWidth="1"/>
-    <col min="24" max="24" width="17.25" customWidth="1"/>
-    <col min="25" max="25" width="18.25" customWidth="1"/>
-    <col min="26" max="26" width="14.5" customWidth="1"/>
-    <col min="27" max="27" width="17.5" customWidth="1"/>
-    <col min="28" max="28" width="17.125" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="15.77734375" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" customWidth="1"/>
+    <col min="16" max="16" width="19.44140625" customWidth="1"/>
+    <col min="17" max="17" width="16.77734375" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" customWidth="1"/>
+    <col min="19" max="19" width="21.44140625" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" customWidth="1"/>
+    <col min="21" max="21" width="16.21875" customWidth="1"/>
+    <col min="22" max="22" width="15.33203125" customWidth="1"/>
+    <col min="23" max="23" width="17.33203125" customWidth="1"/>
+    <col min="24" max="24" width="17.21875" customWidth="1"/>
+    <col min="25" max="25" width="18.21875" customWidth="1"/>
+    <col min="26" max="26" width="14.44140625" customWidth="1"/>
+    <col min="27" max="27" width="17.44140625" customWidth="1"/>
+    <col min="28" max="28" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -1272,7 +1315,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -1310,7 +1353,7 @@
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
@@ -1348,7 +1391,7 @@
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -1384,7 +1427,7 @@
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>40</v>
       </c>
@@ -1429,7 +1472,7 @@
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
@@ -1465,7 +1508,7 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>42</v>
       </c>
@@ -1525,7 +1568,7 @@
       <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1561,7 +1604,7 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -1597,7 +1640,7 @@
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1633,7 +1676,7 @@
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1669,7 +1712,7 @@
       <c r="AE11" s="13"/>
       <c r="AF11" s="13"/>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
@@ -1713,7 +1756,7 @@
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
@@ -1771,7 +1814,7 @@
       <c r="AE13" s="13"/>
       <c r="AF13" s="13"/>
     </row>
-    <row r="14" spans="1:32" ht="12.75" customHeight="1">
+    <row r="14" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
@@ -1819,7 +1862,7 @@
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
@@ -1855,7 +1898,7 @@
       <c r="AE15" s="13"/>
       <c r="AF15" s="13"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
@@ -1891,7 +1934,7 @@
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
@@ -1951,7 +1994,7 @@
       <c r="AE17" s="13"/>
       <c r="AF17" s="13"/>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -1995,13 +2038,15 @@
       <c r="AA18" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="AB18" s="8"/>
+      <c r="AB18" s="8" t="s">
+        <v>136</v>
+      </c>
       <c r="AC18" s="8"/>
       <c r="AD18" s="8"/>
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>44</v>
       </c>
@@ -2012,7 +2057,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>62</v>
       </c>
@@ -2082,7 +2127,7 @@
       <c r="AE20" s="8"/>
       <c r="AF20" s="8"/>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
@@ -2090,7 +2135,7 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
@@ -2104,7 +2149,7 @@
       <c r="M25" s="30"/>
       <c r="N25" s="30"/>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -2112,13 +2157,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G27" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="29"/>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
@@ -2127,7 +2172,7 @@
       </c>
       <c r="I28" s="29"/>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -2135,7 +2180,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
@@ -2145,7 +2190,7 @@
       <c r="I30" s="29"/>
       <c r="J30" s="29"/>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
@@ -2174,12 +2219,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2190,22 +2235,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2225,18 +2270,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="41.5" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="41.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2259,7 +2304,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2270,7 +2315,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2287,7 +2332,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2298,7 +2343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -2306,7 +2351,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="6月" sheetId="3" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="139">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -549,18 +544,26 @@
   </si>
   <si>
     <t>0-7.1%（143-168）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-4.6%（317-347）查找的应用没看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -902,7 +905,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -935,26 +938,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -987,23 +973,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1183,41 +1152,42 @@
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB18" sqref="AB18"/>
+      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC20" sqref="AC20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="45.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="16.77734375" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" customWidth="1"/>
-    <col min="14" max="14" width="15.77734375" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" customWidth="1"/>
-    <col min="16" max="16" width="19.44140625" customWidth="1"/>
-    <col min="17" max="17" width="16.77734375" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" customWidth="1"/>
-    <col min="19" max="19" width="21.44140625" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" customWidth="1"/>
-    <col min="21" max="21" width="16.21875" customWidth="1"/>
-    <col min="22" max="22" width="15.33203125" customWidth="1"/>
-    <col min="23" max="23" width="17.33203125" customWidth="1"/>
-    <col min="24" max="24" width="17.21875" customWidth="1"/>
-    <col min="25" max="25" width="18.21875" customWidth="1"/>
-    <col min="26" max="26" width="14.44140625" customWidth="1"/>
-    <col min="27" max="27" width="17.44140625" customWidth="1"/>
-    <col min="28" max="28" width="17.109375" customWidth="1"/>
+    <col min="12" max="12" width="16.75" customWidth="1"/>
+    <col min="13" max="13" width="18.375" customWidth="1"/>
+    <col min="14" max="14" width="15.75" customWidth="1"/>
+    <col min="15" max="15" width="17.875" customWidth="1"/>
+    <col min="16" max="16" width="19.5" customWidth="1"/>
+    <col min="17" max="17" width="16.75" customWidth="1"/>
+    <col min="18" max="18" width="14.625" customWidth="1"/>
+    <col min="19" max="19" width="21.5" customWidth="1"/>
+    <col min="20" max="20" width="16.625" customWidth="1"/>
+    <col min="21" max="21" width="16.25" customWidth="1"/>
+    <col min="22" max="22" width="15.375" customWidth="1"/>
+    <col min="23" max="23" width="17.375" customWidth="1"/>
+    <col min="24" max="24" width="17.25" customWidth="1"/>
+    <col min="25" max="25" width="18.25" customWidth="1"/>
+    <col min="26" max="26" width="14.5" customWidth="1"/>
+    <col min="27" max="27" width="17.5" customWidth="1"/>
+    <col min="28" max="28" width="17.125" customWidth="1"/>
+    <col min="29" max="29" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -1302,7 +1272,7 @@
       <c r="AB1" s="19">
         <v>42913</v>
       </c>
-      <c r="AC1" s="5">
+      <c r="AC1" s="19">
         <v>42914</v>
       </c>
       <c r="AD1" s="5">
@@ -1315,7 +1285,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -1353,7 +1323,7 @@
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32">
       <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
@@ -1391,7 +1361,7 @@
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -1427,7 +1397,7 @@
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32">
       <c r="A5" s="10" t="s">
         <v>40</v>
       </c>
@@ -1472,7 +1442,7 @@
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32">
       <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
@@ -1508,7 +1478,7 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32">
       <c r="A7" s="15" t="s">
         <v>42</v>
       </c>
@@ -1568,7 +1538,7 @@
       <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1604,7 +1574,7 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -1640,7 +1610,7 @@
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="14.45">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1676,7 +1646,7 @@
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32">
       <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1712,7 +1682,7 @@
       <c r="AE11" s="13"/>
       <c r="AF11" s="13"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32">
       <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
@@ -1756,7 +1726,7 @@
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
@@ -1814,7 +1784,7 @@
       <c r="AE13" s="13"/>
       <c r="AF13" s="13"/>
     </row>
-    <row r="14" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="12.75" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
@@ -1862,7 +1832,7 @@
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
@@ -1898,7 +1868,7 @@
       <c r="AE15" s="13"/>
       <c r="AF15" s="13"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32">
       <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
@@ -1934,7 +1904,7 @@
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32">
       <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
@@ -1994,7 +1964,7 @@
       <c r="AE17" s="13"/>
       <c r="AF17" s="13"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -2046,7 +2016,7 @@
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32">
       <c r="A19" s="16" t="s">
         <v>44</v>
       </c>
@@ -2057,7 +2027,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32">
       <c r="A20" s="20" t="s">
         <v>62</v>
       </c>
@@ -2122,12 +2092,18 @@
       <c r="AB20" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="AC20" s="8"/>
-      <c r="AD20" s="8"/>
-      <c r="AE20" s="8"/>
+      <c r="AC20" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD20" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE20" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="AF20" s="8"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
@@ -2135,7 +2111,7 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
@@ -2149,7 +2125,7 @@
       <c r="M25" s="30"/>
       <c r="N25" s="30"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -2157,13 +2133,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32">
       <c r="G27" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="29"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
@@ -2172,7 +2148,7 @@
       </c>
       <c r="I28" s="29"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -2180,7 +2156,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
@@ -2190,7 +2166,7 @@
       <c r="I30" s="29"/>
       <c r="J30" s="29"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
@@ -2219,12 +2195,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2235,22 +2211,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2270,18 +2246,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="41.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2304,7 +2280,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2315,7 +2291,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2332,7 +2308,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2343,7 +2319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -2351,7 +2327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="140">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -552,6 +552,10 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-3.5%（153-167）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1153,7 +1157,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC20" sqref="AC20"/>
+      <selection pane="topRight" activeCell="AC17" sqref="AC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1610,7 +1614,7 @@
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
     </row>
-    <row r="10" spans="1:32" ht="14.45">
+    <row r="10" spans="1:32">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1959,7 +1963,9 @@
       <c r="AB17" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="AC17" s="12"/>
+      <c r="AC17" s="12" t="s">
+        <v>139</v>
+      </c>
       <c r="AD17" s="12"/>
       <c r="AE17" s="13"/>
       <c r="AF17" s="13"/>
@@ -2216,7 +2222,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.45">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>16</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="141">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -539,23 +539,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0-7.1%（143-168）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-4.6%（317-347）查找的应用没看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0-7.1%（143-168）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-4.6%（317-347）查找的应用没看</t>
+    <t>0-3.5%（153-167）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0-3.9%（179-197）cookie结束</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-3.5%（153-167）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1157,7 +1161,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC17" sqref="AC17"/>
+      <selection pane="topRight" activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1188,7 +1192,7 @@
     <col min="26" max="26" width="14.5" customWidth="1"/>
     <col min="27" max="27" width="17.5" customWidth="1"/>
     <col min="28" max="28" width="17.125" customWidth="1"/>
-    <col min="29" max="29" width="17.75" customWidth="1"/>
+    <col min="29" max="29" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -1782,9 +1786,11 @@
         <v>134</v>
       </c>
       <c r="AC13" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD13" s="12"/>
+        <v>139</v>
+      </c>
+      <c r="AD13" s="12" t="s">
+        <v>140</v>
+      </c>
       <c r="AE13" s="13"/>
       <c r="AF13" s="13"/>
     </row>
@@ -1964,7 +1970,7 @@
         <v>133</v>
       </c>
       <c r="AC17" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AD17" s="12"/>
       <c r="AE17" s="13"/>
@@ -2015,7 +2021,7 @@
         <v>131</v>
       </c>
       <c r="AB18" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AC18" s="8"/>
       <c r="AD18" s="8"/>
@@ -2099,13 +2105,13 @@
         <v>132</v>
       </c>
       <c r="AC20" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD20" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="AD20" s="8" t="s">
-        <v>138</v>
-      </c>
       <c r="AE20" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF20" s="8"/>
     </row>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="6月" sheetId="3" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="142">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -560,18 +565,22 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-5.4%（169-188）第五章结束</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -913,7 +922,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -946,9 +955,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -981,6 +1007,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1161,41 +1204,41 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD13" sqref="AD13"/>
+      <selection pane="topRight" activeCell="AC18" sqref="AC18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.625" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="16.75" customWidth="1"/>
-    <col min="13" max="13" width="18.375" customWidth="1"/>
-    <col min="14" max="14" width="15.75" customWidth="1"/>
-    <col min="15" max="15" width="17.875" customWidth="1"/>
-    <col min="16" max="16" width="19.5" customWidth="1"/>
-    <col min="17" max="17" width="16.75" customWidth="1"/>
-    <col min="18" max="18" width="14.625" customWidth="1"/>
-    <col min="19" max="19" width="21.5" customWidth="1"/>
-    <col min="20" max="20" width="16.625" customWidth="1"/>
-    <col min="21" max="21" width="16.25" customWidth="1"/>
-    <col min="22" max="22" width="15.375" customWidth="1"/>
-    <col min="23" max="23" width="17.375" customWidth="1"/>
-    <col min="24" max="24" width="17.25" customWidth="1"/>
-    <col min="25" max="25" width="18.25" customWidth="1"/>
-    <col min="26" max="26" width="14.5" customWidth="1"/>
-    <col min="27" max="27" width="17.5" customWidth="1"/>
-    <col min="28" max="28" width="17.125" customWidth="1"/>
-    <col min="29" max="29" width="17.875" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="15.77734375" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" customWidth="1"/>
+    <col min="16" max="16" width="19.44140625" customWidth="1"/>
+    <col min="17" max="17" width="16.77734375" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" customWidth="1"/>
+    <col min="19" max="19" width="21.44140625" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" customWidth="1"/>
+    <col min="21" max="21" width="16.21875" customWidth="1"/>
+    <col min="22" max="22" width="15.33203125" customWidth="1"/>
+    <col min="23" max="23" width="17.33203125" customWidth="1"/>
+    <col min="24" max="24" width="17.21875" customWidth="1"/>
+    <col min="25" max="25" width="18.21875" customWidth="1"/>
+    <col min="26" max="26" width="14.44140625" customWidth="1"/>
+    <col min="27" max="27" width="17.44140625" customWidth="1"/>
+    <col min="28" max="28" width="17.109375" customWidth="1"/>
+    <col min="29" max="29" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -1293,7 +1336,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -1331,7 +1374,7 @@
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
@@ -1369,7 +1412,7 @@
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -1405,7 +1448,7 @@
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>40</v>
       </c>
@@ -1450,7 +1493,7 @@
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
@@ -1486,7 +1529,7 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>42</v>
       </c>
@@ -1546,7 +1589,7 @@
       <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1582,7 +1625,7 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -1618,7 +1661,7 @@
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1654,7 +1697,7 @@
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1690,7 +1733,7 @@
       <c r="AE11" s="13"/>
       <c r="AF11" s="13"/>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
@@ -1734,7 +1777,7 @@
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
@@ -1794,7 +1837,7 @@
       <c r="AE13" s="13"/>
       <c r="AF13" s="13"/>
     </row>
-    <row r="14" spans="1:32" ht="12.75" customHeight="1">
+    <row r="14" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
@@ -1842,7 +1885,7 @@
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
@@ -1878,7 +1921,7 @@
       <c r="AE15" s="13"/>
       <c r="AF15" s="13"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
@@ -1914,7 +1957,7 @@
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
@@ -1976,7 +2019,7 @@
       <c r="AE17" s="13"/>
       <c r="AF17" s="13"/>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -2023,12 +2066,14 @@
       <c r="AB18" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="AC18" s="8"/>
+      <c r="AC18" s="8" t="s">
+        <v>141</v>
+      </c>
       <c r="AD18" s="8"/>
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>44</v>
       </c>
@@ -2039,7 +2084,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>62</v>
       </c>
@@ -2115,7 +2160,7 @@
       </c>
       <c r="AF20" s="8"/>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
@@ -2123,7 +2168,7 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
@@ -2137,7 +2182,7 @@
       <c r="M25" s="30"/>
       <c r="N25" s="30"/>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -2145,13 +2190,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G27" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="29"/>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
@@ -2160,7 +2205,7 @@
       </c>
       <c r="I28" s="29"/>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -2168,7 +2213,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
@@ -2178,7 +2223,7 @@
       <c r="I30" s="29"/>
       <c r="J30" s="29"/>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
@@ -2207,12 +2252,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2223,22 +2268,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2258,18 +2303,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="41.5" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="41.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2292,7 +2337,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2303,7 +2348,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2320,7 +2365,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2331,7 +2376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -2339,7 +2384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="6月" sheetId="3" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="144">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -569,18 +564,26 @@
   </si>
   <si>
     <t>0-5.4%（169-188）第五章结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-3.2%（168-181）第六章结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -745,7 +748,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -837,6 +840,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -922,7 +928,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -955,26 +961,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1007,23 +996,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1203,42 +1175,43 @@
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC18" sqref="AC18"/>
+      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AF15" activeCellId="1" sqref="AD17 AF15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="45.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="16.77734375" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" customWidth="1"/>
-    <col min="14" max="14" width="15.77734375" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" customWidth="1"/>
-    <col min="16" max="16" width="19.44140625" customWidth="1"/>
-    <col min="17" max="17" width="16.77734375" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" customWidth="1"/>
-    <col min="19" max="19" width="21.44140625" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" customWidth="1"/>
-    <col min="21" max="21" width="16.21875" customWidth="1"/>
-    <col min="22" max="22" width="15.33203125" customWidth="1"/>
-    <col min="23" max="23" width="17.33203125" customWidth="1"/>
-    <col min="24" max="24" width="17.21875" customWidth="1"/>
-    <col min="25" max="25" width="18.21875" customWidth="1"/>
-    <col min="26" max="26" width="14.44140625" customWidth="1"/>
-    <col min="27" max="27" width="17.44140625" customWidth="1"/>
-    <col min="28" max="28" width="17.109375" customWidth="1"/>
-    <col min="29" max="29" width="17.88671875" customWidth="1"/>
+    <col min="12" max="12" width="16.75" customWidth="1"/>
+    <col min="13" max="13" width="18.375" customWidth="1"/>
+    <col min="14" max="14" width="15.75" customWidth="1"/>
+    <col min="15" max="15" width="17.875" customWidth="1"/>
+    <col min="16" max="16" width="19.5" customWidth="1"/>
+    <col min="17" max="17" width="16.75" customWidth="1"/>
+    <col min="18" max="18" width="14.625" customWidth="1"/>
+    <col min="19" max="19" width="21.5" customWidth="1"/>
+    <col min="20" max="20" width="16.625" customWidth="1"/>
+    <col min="21" max="21" width="16.25" customWidth="1"/>
+    <col min="22" max="22" width="15.375" customWidth="1"/>
+    <col min="23" max="23" width="17.375" customWidth="1"/>
+    <col min="24" max="24" width="17.25" customWidth="1"/>
+    <col min="25" max="25" width="18.25" customWidth="1"/>
+    <col min="26" max="26" width="14.5" customWidth="1"/>
+    <col min="27" max="27" width="17.5" customWidth="1"/>
+    <col min="28" max="28" width="17.125" customWidth="1"/>
+    <col min="29" max="29" width="17.875" customWidth="1"/>
+    <col min="30" max="30" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -1326,7 +1299,7 @@
       <c r="AC1" s="19">
         <v>42914</v>
       </c>
-      <c r="AD1" s="5">
+      <c r="AD1" s="31">
         <v>42915</v>
       </c>
       <c r="AE1" s="6">
@@ -1336,7 +1309,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -1374,7 +1347,7 @@
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32">
       <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
@@ -1412,7 +1385,7 @@
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -1448,7 +1421,7 @@
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32">
       <c r="A5" s="10" t="s">
         <v>40</v>
       </c>
@@ -1493,7 +1466,7 @@
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32">
       <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
@@ -1529,7 +1502,7 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32">
       <c r="A7" s="15" t="s">
         <v>42</v>
       </c>
@@ -1589,7 +1562,7 @@
       <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1625,7 +1598,7 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -1661,7 +1634,7 @@
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1697,7 +1670,7 @@
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32">
       <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1733,7 +1706,7 @@
       <c r="AE11" s="13"/>
       <c r="AF11" s="13"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32">
       <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
@@ -1777,7 +1750,7 @@
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
@@ -1837,7 +1810,7 @@
       <c r="AE13" s="13"/>
       <c r="AF13" s="13"/>
     </row>
-    <row r="14" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="12.75" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
@@ -1885,7 +1858,7 @@
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
@@ -1921,7 +1894,7 @@
       <c r="AE15" s="13"/>
       <c r="AF15" s="13"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32">
       <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
@@ -1957,7 +1930,7 @@
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32">
       <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
@@ -2015,11 +1988,15 @@
       <c r="AC17" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="13"/>
+      <c r="AD17" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE17" s="13" t="s">
+        <v>143</v>
+      </c>
       <c r="AF17" s="13"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -2073,7 +2050,7 @@
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32">
       <c r="A19" s="16" t="s">
         <v>44</v>
       </c>
@@ -2084,7 +2061,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32">
       <c r="A20" s="20" t="s">
         <v>62</v>
       </c>
@@ -2160,7 +2137,7 @@
       </c>
       <c r="AF20" s="8"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
@@ -2168,7 +2145,7 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
@@ -2182,7 +2159,7 @@
       <c r="M25" s="30"/>
       <c r="N25" s="30"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -2190,13 +2167,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32">
       <c r="G27" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="29"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
@@ -2205,7 +2182,7 @@
       </c>
       <c r="I28" s="29"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -2213,7 +2190,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
@@ -2223,7 +2200,7 @@
       <c r="I30" s="29"/>
       <c r="J30" s="29"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
@@ -2252,12 +2229,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2268,22 +2245,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2303,18 +2280,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="41.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2337,7 +2314,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2348,7 +2325,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2365,7 +2342,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2376,7 +2353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -2384,7 +2361,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -559,19 +559,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0-5.4%（169-188）第五章结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-3.2%（168-181）第六章结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0-5.4%（169-188）第五章结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-3.2%（168-181）第六章结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve"> 0-5.6%（198-224）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -748,7 +748,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -840,9 +840,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1176,7 +1173,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF15" activeCellId="1" sqref="AD17 AF15"/>
+      <selection pane="topRight" activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1299,7 +1296,7 @@
       <c r="AC1" s="19">
         <v>42914</v>
       </c>
-      <c r="AD1" s="31">
+      <c r="AD1" s="19">
         <v>42915</v>
       </c>
       <c r="AE1" s="6">
@@ -1805,7 +1802,7 @@
         <v>139</v>
       </c>
       <c r="AD13" s="12" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AE13" s="13"/>
       <c r="AF13" s="13"/>
@@ -1989,10 +1986,10 @@
         <v>138</v>
       </c>
       <c r="AD17" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE17" s="13" t="s">
         <v>142</v>
-      </c>
-      <c r="AE17" s="13" t="s">
-        <v>143</v>
       </c>
       <c r="AF17" s="13"/>
     </row>
@@ -2044,7 +2041,7 @@
         <v>135</v>
       </c>
       <c r="AC18" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AD18" s="8"/>
       <c r="AE18" s="9"/>
@@ -2250,7 +2247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.45">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>16</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="145">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -572,6 +572,35 @@
   </si>
   <si>
     <t xml:space="preserve"> 0-5.6%（198-224）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 0-1.6</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（348-359）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,7 +612,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,6 +673,15 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -748,7 +786,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -765,9 +803,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1172,8 +1207,8 @@
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD13" sqref="AD13"/>
+      <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC8" activeCellId="1" sqref="AE1 AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1206,6 +1241,7 @@
     <col min="28" max="28" width="17.125" customWidth="1"/>
     <col min="29" max="29" width="17.875" customWidth="1"/>
     <col min="30" max="30" width="16.75" customWidth="1"/>
+    <col min="31" max="31" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -1218,927 +1254,927 @@
       <c r="C1" s="5">
         <v>42888</v>
       </c>
-      <c r="D1" s="19">
+      <c r="D1" s="18">
         <v>42889</v>
       </c>
-      <c r="E1" s="19">
+      <c r="E1" s="18">
         <v>42890</v>
       </c>
-      <c r="F1" s="19">
+      <c r="F1" s="18">
         <v>42891</v>
       </c>
-      <c r="G1" s="19">
+      <c r="G1" s="18">
         <v>42892</v>
       </c>
-      <c r="H1" s="19">
+      <c r="H1" s="18">
         <v>42893</v>
       </c>
-      <c r="I1" s="19">
+      <c r="I1" s="18">
         <v>42894</v>
       </c>
-      <c r="J1" s="19">
+      <c r="J1" s="18">
         <v>42895</v>
       </c>
-      <c r="K1" s="19">
+      <c r="K1" s="18">
         <v>42896</v>
       </c>
-      <c r="L1" s="19">
+      <c r="L1" s="18">
         <v>42897</v>
       </c>
-      <c r="M1" s="19">
+      <c r="M1" s="18">
         <v>42898</v>
       </c>
-      <c r="N1" s="19">
+      <c r="N1" s="18">
         <v>42899</v>
       </c>
-      <c r="O1" s="19">
+      <c r="O1" s="18">
         <v>42900</v>
       </c>
-      <c r="P1" s="19">
+      <c r="P1" s="18">
         <v>42901</v>
       </c>
-      <c r="Q1" s="19">
+      <c r="Q1" s="18">
         <v>42902</v>
       </c>
-      <c r="R1" s="19">
+      <c r="R1" s="18">
         <v>42903</v>
       </c>
-      <c r="S1" s="19">
+      <c r="S1" s="18">
         <v>42904</v>
       </c>
-      <c r="T1" s="19">
+      <c r="T1" s="18">
         <v>42905</v>
       </c>
-      <c r="U1" s="19">
+      <c r="U1" s="18">
         <v>42906</v>
       </c>
-      <c r="V1" s="19">
+      <c r="V1" s="18">
         <v>42907</v>
       </c>
-      <c r="W1" s="19">
+      <c r="W1" s="18">
         <v>42908</v>
       </c>
-      <c r="X1" s="19">
+      <c r="X1" s="18">
         <v>42909</v>
       </c>
-      <c r="Y1" s="19">
+      <c r="Y1" s="18">
         <v>42910</v>
       </c>
       <c r="Z1" s="5">
         <v>42911</v>
       </c>
-      <c r="AA1" s="19">
+      <c r="AA1" s="18">
         <v>42912</v>
       </c>
-      <c r="AB1" s="19">
+      <c r="AB1" s="18">
         <v>42913</v>
       </c>
-      <c r="AC1" s="19">
+      <c r="AC1" s="18">
         <v>42914</v>
       </c>
-      <c r="AD1" s="19">
+      <c r="AD1" s="18">
         <v>42915</v>
       </c>
-      <c r="AE1" s="6">
+      <c r="AE1" s="17">
         <v>42916</v>
       </c>
-      <c r="AF1" s="18" t="s">
+      <c r="AF1" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
     </row>
     <row r="4" spans="1:32">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="9"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
     </row>
     <row r="5" spans="1:32">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="23" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="24" t="s">
+      <c r="J5" s="11"/>
+      <c r="K5" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="M5" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="N5" s="24" t="s">
+      <c r="N5" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="O5" s="24" t="s">
+      <c r="O5" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
     </row>
     <row r="7" spans="1:32">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="26" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12" t="s">
+      <c r="J7" s="11"/>
+      <c r="K7" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="O7" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="P7" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12" t="s">
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="S7" s="25" t="s">
+      <c r="S7" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
     </row>
     <row r="10" spans="1:32">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8" t="s">
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="W12" s="8" t="s">
+      <c r="W12" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="8"/>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="9"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="P13" s="12" t="s">
+      <c r="P13" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="Q13" s="12" t="s">
+      <c r="Q13" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12" t="s">
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="U13" s="12" t="s">
+      <c r="U13" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="V13" s="12" t="s">
+      <c r="V13" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="W13" s="12" t="s">
+      <c r="W13" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="X13" s="12" t="s">
+      <c r="X13" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12" t="s">
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="AB13" s="12" t="s">
+      <c r="AB13" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="AC13" s="12" t="s">
+      <c r="AC13" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="AD13" s="12" t="s">
+      <c r="AD13" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
     </row>
     <row r="14" spans="1:32" ht="12.75" customHeight="1">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="28" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8" t="s">
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="S14" s="8" t="s">
+      <c r="S14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8" t="s">
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="Z14" s="8" t="s">
+      <c r="Z14" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="8"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="12"/>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="9"/>
-      <c r="AF16" s="9"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
     </row>
     <row r="17" spans="1:32">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="26" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12" t="s">
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12" t="s">
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="P17" s="12" t="s">
+      <c r="P17" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="Q17" s="12" t="s">
+      <c r="Q17" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12" t="s">
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="U17" s="12" t="s">
+      <c r="U17" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="V17" s="12" t="s">
+      <c r="V17" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="W17" s="12" t="s">
+      <c r="W17" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="X17" s="12" t="s">
+      <c r="X17" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12" t="s">
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="AB17" s="12" t="s">
+      <c r="AB17" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="AC17" s="12" t="s">
+      <c r="AC17" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="AD17" s="12" t="s">
+      <c r="AD17" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="AE17" s="13" t="s">
+      <c r="AE17" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="AF17" s="13"/>
+      <c r="AF17" s="12"/>
     </row>
     <row r="18" spans="1:32">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="27" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="U18" s="8" t="s">
+      <c r="U18" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="V18" s="8" t="s">
+      <c r="V18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="W18" s="8" t="s">
+      <c r="W18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8" t="s">
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="Z18" s="8" t="s">
+      <c r="Z18" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="AA18" s="8" t="s">
+      <c r="AA18" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="AB18" s="8" t="s">
+      <c r="AB18" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="AC18" s="8" t="s">
+      <c r="AC18" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="AD18" s="8"/>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="9"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
     </row>
     <row r="19" spans="1:32">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
     </row>
     <row r="20" spans="1:32">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="27" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8" t="s">
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="N20" s="8" t="s">
+      <c r="N20" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="O20" s="8" t="s">
+      <c r="O20" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P20" s="8" t="s">
+      <c r="P20" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="Q20" s="8" t="s">
+      <c r="Q20" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="R20" s="8" t="s">
+      <c r="R20" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="S20" s="8" t="s">
+      <c r="S20" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="T20" s="8" t="s">
+      <c r="T20" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="U20" s="8" t="s">
+      <c r="U20" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="V20" s="8" t="s">
+      <c r="V20" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="W20" s="8" t="s">
+      <c r="W20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="X20" s="8" t="s">
+      <c r="X20" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="8" t="s">
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="AB20" s="8" t="s">
+      <c r="AB20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AC20" s="8" t="s">
+      <c r="AC20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="AD20" s="8" t="s">
+      <c r="AD20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="AE20" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="AF20" s="8"/>
+      <c r="AE20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF20" s="7"/>
     </row>
     <row r="24" spans="1:32">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="16">
         <v>42889</v>
       </c>
     </row>
@@ -2146,15 +2182,15 @@
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="30" t="s">
+      <c r="H25" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
     </row>
     <row r="26" spans="1:32">
       <c r="G26" s="1" t="s">
@@ -2165,19 +2201,19 @@
       </c>
     </row>
     <row r="27" spans="1:32">
-      <c r="G27" s="29" t="s">
+      <c r="G27" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="H27" s="29"/>
+      <c r="H27" s="28"/>
     </row>
     <row r="28" spans="1:32">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="29" t="s">
+      <c r="H28" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="29"/>
+      <c r="I28" s="28"/>
     </row>
     <row r="29" spans="1:32">
       <c r="G29" s="1" t="s">
@@ -2191,11 +2227,11 @@
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H30" s="29" t="s">
+      <c r="H30" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
     </row>
     <row r="31" spans="1:32">
       <c r="G31" s="1" t="s">

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -564,10 +564,6 @@
   </si>
   <si>
     <t>0-3.2%（168-181）第六章结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -601,6 +597,10 @@
       </rPr>
       <t>（348-359）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0-2.2%（182-191）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1208,7 +1208,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC8" activeCellId="1" sqref="AE1 AC8"/>
+      <selection pane="topRight" activeCell="AE17" sqref="AE17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1838,7 +1838,7 @@
         <v>139</v>
       </c>
       <c r="AD13" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AE13" s="12"/>
       <c r="AF13" s="12"/>
@@ -2025,7 +2025,7 @@
         <v>141</v>
       </c>
       <c r="AE17" s="12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AF17" s="12"/>
     </row>
@@ -2166,7 +2166,7 @@
         <v>137</v>
       </c>
       <c r="AE20" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF20" s="7"/>
     </row>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="147">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -601,6 +601,14 @@
   </si>
   <si>
     <t xml:space="preserve"> 0-2.2%（182-191）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-4.3%（225-245）第七章结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1208,7 +1216,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE17" sqref="AE17"/>
+      <selection pane="topRight" activeCell="AG13" sqref="AG13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1241,7 +1249,7 @@
     <col min="28" max="28" width="17.125" customWidth="1"/>
     <col min="29" max="29" width="17.875" customWidth="1"/>
     <col min="30" max="30" width="16.75" customWidth="1"/>
-    <col min="31" max="31" width="16.125" customWidth="1"/>
+    <col min="31" max="31" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -1840,8 +1848,12 @@
       <c r="AD13" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
+      <c r="AE13" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF13" s="12" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="14" spans="1:32" ht="12.75" customHeight="1">
       <c r="A14" s="6" t="s">

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="6月" sheetId="3" r:id="rId1"/>
-    <sheet name="再返工" sheetId="2" r:id="rId2"/>
-    <sheet name="格式1.0" sheetId="1" r:id="rId3"/>
+    <sheet name="完整书单" sheetId="4" r:id="rId1"/>
+    <sheet name="6月" sheetId="3" r:id="rId2"/>
+    <sheet name="7月" sheetId="5" r:id="rId3"/>
+    <sheet name="再返工" sheetId="2" r:id="rId4"/>
+    <sheet name="格式1.0" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="151">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -609,6 +611,36 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>记录自己看过的树，这样以后再看能有个记录，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这次标记这个月读的，不再全部书</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0-5%（189-207）第六章结束</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -794,7 +826,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -883,6 +915,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1212,11 +1253,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="57.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="29" customFormat="1">
+      <c r="A1" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG13" sqref="AG13"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC18" sqref="AC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2194,15 +2354,15 @@
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="29" t="s">
+      <c r="H25" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
     </row>
     <row r="26" spans="1:32">
       <c r="G26" s="1" t="s">
@@ -2213,19 +2373,19 @@
       </c>
     </row>
     <row r="27" spans="1:32">
-      <c r="G27" s="28" t="s">
+      <c r="G27" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="H27" s="28"/>
+      <c r="H27" s="30"/>
     </row>
     <row r="28" spans="1:32">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="28" t="s">
+      <c r="H28" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="28"/>
+      <c r="I28" s="30"/>
     </row>
     <row r="29" spans="1:32">
       <c r="G29" s="1" t="s">
@@ -2239,11 +2399,11 @@
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H30" s="28" t="s">
+      <c r="H30" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
     </row>
     <row r="31" spans="1:32">
       <c r="G31" s="1" t="s">
@@ -2266,7 +2426,971 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="29.25" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18">
+        <v>42917</v>
+      </c>
+      <c r="C1" s="5">
+        <v>42918</v>
+      </c>
+      <c r="D1" s="5">
+        <v>42919</v>
+      </c>
+      <c r="E1" s="5">
+        <v>42920</v>
+      </c>
+      <c r="F1" s="5">
+        <v>42921</v>
+      </c>
+      <c r="G1" s="5">
+        <v>42922</v>
+      </c>
+      <c r="H1" s="5">
+        <v>42923</v>
+      </c>
+      <c r="I1" s="5">
+        <v>42924</v>
+      </c>
+      <c r="J1" s="5">
+        <v>42925</v>
+      </c>
+      <c r="K1" s="5">
+        <v>42926</v>
+      </c>
+      <c r="L1" s="5">
+        <v>42927</v>
+      </c>
+      <c r="M1" s="5">
+        <v>42928</v>
+      </c>
+      <c r="N1" s="5">
+        <v>42929</v>
+      </c>
+      <c r="O1" s="5">
+        <v>42930</v>
+      </c>
+      <c r="P1" s="5">
+        <v>42931</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>42932</v>
+      </c>
+      <c r="R1" s="5">
+        <v>42933</v>
+      </c>
+      <c r="S1" s="5">
+        <v>42934</v>
+      </c>
+      <c r="T1" s="5">
+        <v>42935</v>
+      </c>
+      <c r="U1" s="5">
+        <v>42936</v>
+      </c>
+      <c r="V1" s="5">
+        <v>42937</v>
+      </c>
+      <c r="W1" s="5">
+        <v>42938</v>
+      </c>
+      <c r="X1" s="5">
+        <v>42939</v>
+      </c>
+      <c r="Y1" s="5">
+        <v>42940</v>
+      </c>
+      <c r="Z1" s="5">
+        <v>42941</v>
+      </c>
+      <c r="AA1" s="5">
+        <v>42942</v>
+      </c>
+      <c r="AB1" s="5">
+        <v>42943</v>
+      </c>
+      <c r="AC1" s="5">
+        <v>42944</v>
+      </c>
+      <c r="AD1" s="5">
+        <v>42945</v>
+      </c>
+      <c r="AE1" s="5">
+        <v>42946</v>
+      </c>
+      <c r="AF1" s="5">
+        <v>42947</v>
+      </c>
+      <c r="AG1" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" s="14"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="A9" s="9"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="A11" s="9"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="12"/>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+    </row>
+    <row r="13" spans="1:34">
+      <c r="A13" s="9"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="U13" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="V13" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="W13" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="X13" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y13" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z13" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA13" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB13" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC13" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD13" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE13" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF13" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG13" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7"/>
+    </row>
+    <row r="15" spans="1:34">
+      <c r="A15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="12"/>
+      <c r="AG15" s="12"/>
+    </row>
+    <row r="16" spans="1:34">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+    </row>
+    <row r="17" spans="1:34">
+      <c r="A17" s="9"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+    </row>
+    <row r="18" spans="1:34">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+    </row>
+    <row r="19" spans="1:34">
+      <c r="A19" s="9"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+      <c r="AF19" s="29"/>
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="29"/>
+    </row>
+    <row r="20" spans="1:34">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+    </row>
+    <row r="22" spans="1:34">
+      <c r="I22" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="J22" s="16">
+        <v>42917</v>
+      </c>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+    </row>
+    <row r="23" spans="1:34">
+      <c r="I23" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+    </row>
+    <row r="24" spans="1:34">
+      <c r="I24" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="J24" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+    </row>
+    <row r="25" spans="1:34">
+      <c r="I25" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="J25" s="30"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+    </row>
+    <row r="26" spans="1:34">
+      <c r="I26" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="K26" s="30"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+    </row>
+    <row r="27" spans="1:34">
+      <c r="I27" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+    </row>
+    <row r="28" spans="1:34">
+      <c r="I28" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="J28" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+    </row>
+    <row r="29" spans="1:34">
+      <c r="I29" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="J29" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J28:L28"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -2317,7 +3441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="完整书单" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="153">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -641,6 +641,14 @@
   </si>
   <si>
     <t xml:space="preserve"> 0-5%（189-207）第六章结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0-2.5%（215-229）适配器模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -917,13 +925,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1256,7 +1264,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A20"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1374,9 +1382,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC18" sqref="AC18"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2354,15 +2362,15 @@
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="31" t="s">
+      <c r="H25" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
     </row>
     <row r="26" spans="1:32">
       <c r="G26" s="1" t="s">
@@ -2373,19 +2381,19 @@
       </c>
     </row>
     <row r="27" spans="1:32">
-      <c r="G27" s="30" t="s">
+      <c r="G27" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="H27" s="30"/>
+      <c r="H27" s="31"/>
     </row>
     <row r="28" spans="1:32">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="30" t="s">
+      <c r="H28" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="30"/>
+      <c r="I28" s="31"/>
     </row>
     <row r="29" spans="1:32">
       <c r="G29" s="1" t="s">
@@ -2399,11 +2407,11 @@
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H30" s="30" t="s">
+      <c r="H30" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
     </row>
     <row r="31" spans="1:32">
       <c r="G31" s="1" t="s">
@@ -2430,8 +2438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2585,11 +2593,15 @@
       <c r="AG2" s="8"/>
     </row>
     <row r="3" spans="1:34">
-      <c r="A3" s="9"/>
+      <c r="A3" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="B3" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="10"/>
+        <v>151</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>152</v>
+      </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -3285,15 +3297,15 @@
       <c r="I23" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="31" t="s">
+      <c r="J23" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
     </row>
     <row r="24" spans="1:34">
       <c r="I24" s="28" t="s">
@@ -3305,15 +3317,15 @@
       <c r="K24" s="29"/>
       <c r="L24" s="29"/>
       <c r="M24" s="29"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
     </row>
     <row r="25" spans="1:34">
-      <c r="I25" s="30" t="s">
+      <c r="I25" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="J25" s="30"/>
+      <c r="J25" s="31"/>
       <c r="K25" s="29"/>
       <c r="L25" s="29"/>
       <c r="M25" s="29"/>
@@ -3325,10 +3337,10 @@
       <c r="I26" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="J26" s="30" t="s">
+      <c r="J26" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="K26" s="30"/>
+      <c r="K26" s="31"/>
       <c r="L26" s="29"/>
       <c r="M26" s="29"/>
       <c r="N26" s="29"/>
@@ -3353,11 +3365,11 @@
       <c r="I28" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="J28" s="30" t="s">
+      <c r="J28" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
       <c r="M28" s="29"/>
       <c r="N28" s="29"/>
       <c r="O28" s="29"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="154">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -649,6 +649,10 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1.2%（192-197）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1383,8 +1387,8 @@
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y14" sqref="Y14"/>
+      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AE17" sqref="AE17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2439,7 +2443,7 @@
   <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2634,8 +2638,12 @@
       <c r="AG3" s="12"/>
     </row>
     <row r="4" spans="1:34">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>153</v>
+      </c>
       <c r="C4" s="13"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="完整书单" sheetId="4" r:id="rId1"/>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="155">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -648,23 +653,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0-1.2%（192-197）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0-1.6%（192-201）装饰模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-1.2%（192-197）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1021,7 +1030,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1054,9 +1063,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1089,6 +1115,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1271,107 +1314,107 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.625" customWidth="1"/>
+    <col min="1" max="1" width="57.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="29" customFormat="1">
+    <row r="1" spans="1:1" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>62</v>
       </c>
@@ -1391,40 +1434,40 @@
       <selection pane="topRight" activeCell="AE17" sqref="AE17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.625" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="16.75" customWidth="1"/>
-    <col min="13" max="13" width="18.375" customWidth="1"/>
-    <col min="14" max="14" width="15.75" customWidth="1"/>
-    <col min="15" max="15" width="17.875" customWidth="1"/>
-    <col min="16" max="16" width="19.5" customWidth="1"/>
-    <col min="17" max="17" width="16.75" customWidth="1"/>
-    <col min="18" max="18" width="14.625" customWidth="1"/>
-    <col min="19" max="19" width="21.5" customWidth="1"/>
-    <col min="20" max="20" width="16.625" customWidth="1"/>
-    <col min="21" max="21" width="16.25" customWidth="1"/>
-    <col min="22" max="22" width="15.375" customWidth="1"/>
-    <col min="23" max="23" width="17.375" customWidth="1"/>
-    <col min="24" max="24" width="17.25" customWidth="1"/>
-    <col min="25" max="25" width="18.25" customWidth="1"/>
-    <col min="26" max="26" width="14.5" customWidth="1"/>
-    <col min="27" max="27" width="17.5" customWidth="1"/>
-    <col min="28" max="28" width="17.125" customWidth="1"/>
-    <col min="29" max="29" width="17.875" customWidth="1"/>
-    <col min="30" max="30" width="16.75" customWidth="1"/>
-    <col min="31" max="31" width="21.375" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="15.77734375" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" customWidth="1"/>
+    <col min="16" max="16" width="19.44140625" customWidth="1"/>
+    <col min="17" max="17" width="16.77734375" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" customWidth="1"/>
+    <col min="19" max="19" width="21.44140625" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" customWidth="1"/>
+    <col min="21" max="21" width="16.21875" customWidth="1"/>
+    <col min="22" max="22" width="15.33203125" customWidth="1"/>
+    <col min="23" max="23" width="17.33203125" customWidth="1"/>
+    <col min="24" max="24" width="17.21875" customWidth="1"/>
+    <col min="25" max="25" width="18.21875" customWidth="1"/>
+    <col min="26" max="26" width="14.44140625" customWidth="1"/>
+    <col min="27" max="27" width="17.44140625" customWidth="1"/>
+    <col min="28" max="28" width="17.109375" customWidth="1"/>
+    <col min="29" max="29" width="17.88671875" customWidth="1"/>
+    <col min="30" max="30" width="16.77734375" customWidth="1"/>
+    <col min="31" max="31" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -1522,7 +1565,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
@@ -1560,7 +1603,7 @@
       <c r="AE2" s="8"/>
       <c r="AF2" s="8"/>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>38</v>
       </c>
@@ -1598,7 +1641,7 @@
       <c r="AE3" s="12"/>
       <c r="AF3" s="12"/>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
@@ -1634,7 +1677,7 @@
       <c r="AE4" s="8"/>
       <c r="AF4" s="8"/>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
@@ -1679,7 +1722,7 @@
       <c r="AE5" s="12"/>
       <c r="AF5" s="12"/>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
@@ -1715,7 +1758,7 @@
       <c r="AE6" s="8"/>
       <c r="AF6" s="8"/>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>42</v>
       </c>
@@ -1775,7 +1818,7 @@
       <c r="AE7" s="12"/>
       <c r="AF7" s="12"/>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
@@ -1811,7 +1854,7 @@
       <c r="AE8" s="8"/>
       <c r="AF8" s="8"/>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
@@ -1847,7 +1890,7 @@
       <c r="AE9" s="12"/>
       <c r="AF9" s="12"/>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -1883,7 +1926,7 @@
       <c r="AE10" s="8"/>
       <c r="AF10" s="8"/>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
@@ -1919,7 +1962,7 @@
       <c r="AE11" s="12"/>
       <c r="AF11" s="12"/>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
@@ -1963,7 +2006,7 @@
       <c r="AE12" s="8"/>
       <c r="AF12" s="8"/>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>31</v>
       </c>
@@ -2027,7 +2070,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="12.75" customHeight="1">
+    <row r="14" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -2075,7 +2118,7 @@
       <c r="AE14" s="8"/>
       <c r="AF14" s="8"/>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>33</v>
       </c>
@@ -2111,7 +2154,7 @@
       <c r="AE15" s="12"/>
       <c r="AF15" s="12"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
@@ -2147,7 +2190,7 @@
       <c r="AE16" s="8"/>
       <c r="AF16" s="8"/>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
@@ -2213,7 +2256,7 @@
       </c>
       <c r="AF17" s="12"/>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
@@ -2267,7 +2310,7 @@
       <c r="AE18" s="8"/>
       <c r="AF18" s="8"/>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>44</v>
       </c>
@@ -2278,7 +2321,7 @@
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>62</v>
       </c>
@@ -2354,7 +2397,7 @@
       </c>
       <c r="AF20" s="7"/>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
@@ -2362,7 +2405,7 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
@@ -2376,7 +2419,7 @@
       <c r="M25" s="32"/>
       <c r="N25" s="32"/>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -2384,13 +2427,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G27" s="31" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="31"/>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
@@ -2399,7 +2442,7 @@
       </c>
       <c r="I28" s="31"/>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -2407,7 +2450,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
@@ -2417,7 +2460,7 @@
       <c r="I30" s="31"/>
       <c r="J30" s="31"/>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
@@ -2443,25 +2486,26 @@
   <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.25" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="18">
         <v>42917</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="18">
         <v>42918</v>
       </c>
       <c r="D1" s="5">
@@ -2555,7 +2599,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>36</v>
       </c>
@@ -2596,7 +2640,7 @@
       <c r="AF2" s="8"/>
       <c r="AG2" s="8"/>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>32</v>
       </c>
@@ -2604,9 +2648,11 @@
         <v>151</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" s="11"/>
+        <v>153</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>154</v>
+      </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -2637,12 +2683,12 @@
       <c r="AF3" s="12"/>
       <c r="AG3" s="12"/>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="7"/>
@@ -2676,7 +2722,7 @@
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -2711,7 +2757,7 @@
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -2746,7 +2792,7 @@
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -2781,7 +2827,7 @@
       <c r="AF7" s="12"/>
       <c r="AG7" s="12"/>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -2816,7 +2862,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -2851,7 +2897,7 @@
       <c r="AF9" s="12"/>
       <c r="AG9" s="12"/>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -2886,7 +2932,7 @@
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -2921,7 +2967,7 @@
       <c r="AF11" s="12"/>
       <c r="AG11" s="12"/>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -2956,7 +3002,7 @@
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -3041,7 +3087,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -3077,7 +3123,7 @@
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -3112,7 +3158,7 @@
       <c r="AF15" s="12"/>
       <c r="AG15" s="12"/>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -3147,7 +3193,7 @@
       <c r="AF16" s="8"/>
       <c r="AG16" s="8"/>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -3182,7 +3228,7 @@
       <c r="AF17" s="11"/>
       <c r="AG17" s="11"/>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -3217,7 +3263,7 @@
       <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -3252,7 +3298,7 @@
       <c r="AG19" s="29"/>
       <c r="AH19" s="29"/>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3287,7 +3333,7 @@
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I22" s="28" t="s">
         <v>58</v>
       </c>
@@ -3301,7 +3347,7 @@
       <c r="O22" s="29"/>
       <c r="P22" s="29"/>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I23" s="28" t="s">
         <v>24</v>
       </c>
@@ -3315,7 +3361,7 @@
       <c r="O23" s="32"/>
       <c r="P23" s="32"/>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I24" s="28" t="s">
         <v>54</v>
       </c>
@@ -3329,7 +3375,7 @@
       <c r="O24" s="30"/>
       <c r="P24" s="30"/>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I25" s="31" t="s">
         <v>45</v>
       </c>
@@ -3341,7 +3387,7 @@
       <c r="O25" s="29"/>
       <c r="P25" s="29"/>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I26" s="28" t="s">
         <v>49</v>
       </c>
@@ -3355,7 +3401,7 @@
       <c r="O26" s="29"/>
       <c r="P26" s="29"/>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I27" s="28" t="s">
         <v>46</v>
       </c>
@@ -3369,7 +3415,7 @@
       <c r="O27" s="29"/>
       <c r="P27" s="29"/>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I28" s="28" t="s">
         <v>51</v>
       </c>
@@ -3383,7 +3429,7 @@
       <c r="O28" s="29"/>
       <c r="P28" s="29"/>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I29" s="28" t="s">
         <v>57</v>
       </c>
@@ -3418,12 +3464,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3434,22 +3480,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -3469,18 +3515,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="41.5" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="41.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3503,7 +3549,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3514,7 +3560,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3531,7 +3577,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -3542,7 +3588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -3550,7 +3596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="完整书单" sheetId="4" r:id="rId1"/>
@@ -23,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="157">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -664,16 +659,24 @@
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-.7%（360-365）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1030,7 +1033,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1063,26 +1066,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1115,23 +1101,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1311,110 +1280,110 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="57.6640625" customWidth="1"/>
+    <col min="1" max="1" width="57.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="29" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="14.45">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="19" t="s">
         <v>62</v>
       </c>
@@ -1431,43 +1400,43 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE17" sqref="AE17"/>
+      <selection pane="topRight" activeCell="AE20" sqref="AE20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="45.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="16.77734375" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" customWidth="1"/>
-    <col min="14" max="14" width="15.77734375" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" customWidth="1"/>
-    <col min="16" max="16" width="19.44140625" customWidth="1"/>
-    <col min="17" max="17" width="16.77734375" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" customWidth="1"/>
-    <col min="19" max="19" width="21.44140625" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" customWidth="1"/>
-    <col min="21" max="21" width="16.21875" customWidth="1"/>
-    <col min="22" max="22" width="15.33203125" customWidth="1"/>
-    <col min="23" max="23" width="17.33203125" customWidth="1"/>
-    <col min="24" max="24" width="17.21875" customWidth="1"/>
-    <col min="25" max="25" width="18.21875" customWidth="1"/>
-    <col min="26" max="26" width="14.44140625" customWidth="1"/>
-    <col min="27" max="27" width="17.44140625" customWidth="1"/>
-    <col min="28" max="28" width="17.109375" customWidth="1"/>
-    <col min="29" max="29" width="17.88671875" customWidth="1"/>
-    <col min="30" max="30" width="16.77734375" customWidth="1"/>
-    <col min="31" max="31" width="21.33203125" customWidth="1"/>
+    <col min="12" max="12" width="16.75" customWidth="1"/>
+    <col min="13" max="13" width="18.375" customWidth="1"/>
+    <col min="14" max="14" width="15.75" customWidth="1"/>
+    <col min="15" max="15" width="17.875" customWidth="1"/>
+    <col min="16" max="16" width="19.5" customWidth="1"/>
+    <col min="17" max="17" width="16.75" customWidth="1"/>
+    <col min="18" max="18" width="14.625" customWidth="1"/>
+    <col min="19" max="19" width="21.5" customWidth="1"/>
+    <col min="20" max="20" width="16.625" customWidth="1"/>
+    <col min="21" max="21" width="16.25" customWidth="1"/>
+    <col min="22" max="22" width="15.375" customWidth="1"/>
+    <col min="23" max="23" width="17.375" customWidth="1"/>
+    <col min="24" max="24" width="17.25" customWidth="1"/>
+    <col min="25" max="25" width="18.25" customWidth="1"/>
+    <col min="26" max="26" width="14.5" customWidth="1"/>
+    <col min="27" max="27" width="17.5" customWidth="1"/>
+    <col min="28" max="28" width="17.125" customWidth="1"/>
+    <col min="29" max="29" width="17.875" customWidth="1"/>
+    <col min="30" max="30" width="16.75" customWidth="1"/>
+    <col min="31" max="31" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -1565,7 +1534,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32">
       <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
@@ -1603,7 +1572,7 @@
       <c r="AE2" s="8"/>
       <c r="AF2" s="8"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32">
       <c r="A3" s="9" t="s">
         <v>38</v>
       </c>
@@ -1641,7 +1610,7 @@
       <c r="AE3" s="12"/>
       <c r="AF3" s="12"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
@@ -1677,7 +1646,7 @@
       <c r="AE4" s="8"/>
       <c r="AF4" s="8"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32">
       <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
@@ -1722,7 +1691,7 @@
       <c r="AE5" s="12"/>
       <c r="AF5" s="12"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32">
       <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
@@ -1758,7 +1727,7 @@
       <c r="AE6" s="8"/>
       <c r="AF6" s="8"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32">
       <c r="A7" s="14" t="s">
         <v>42</v>
       </c>
@@ -1818,7 +1787,7 @@
       <c r="AE7" s="12"/>
       <c r="AF7" s="12"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
@@ -1854,7 +1823,7 @@
       <c r="AE8" s="8"/>
       <c r="AF8" s="8"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32">
       <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
@@ -1890,7 +1859,7 @@
       <c r="AE9" s="12"/>
       <c r="AF9" s="12"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="14.45">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -1926,7 +1895,7 @@
       <c r="AE10" s="8"/>
       <c r="AF10" s="8"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
@@ -1962,7 +1931,7 @@
       <c r="AE11" s="12"/>
       <c r="AF11" s="12"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32">
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
@@ -2006,7 +1975,7 @@
       <c r="AE12" s="8"/>
       <c r="AF12" s="8"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
         <v>31</v>
       </c>
@@ -2070,7 +2039,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="12.75" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -2118,7 +2087,7 @@
       <c r="AE14" s="8"/>
       <c r="AF14" s="8"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
         <v>33</v>
       </c>
@@ -2154,7 +2123,7 @@
       <c r="AE15" s="12"/>
       <c r="AF15" s="12"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
@@ -2190,7 +2159,7 @@
       <c r="AE16" s="8"/>
       <c r="AF16" s="8"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32">
       <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
@@ -2256,7 +2225,7 @@
       </c>
       <c r="AF17" s="12"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32">
       <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
@@ -2310,7 +2279,7 @@
       <c r="AE18" s="8"/>
       <c r="AF18" s="8"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32">
       <c r="A19" s="15" t="s">
         <v>44</v>
       </c>
@@ -2321,7 +2290,7 @@
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32">
       <c r="A20" s="19" t="s">
         <v>62</v>
       </c>
@@ -2397,7 +2366,7 @@
       </c>
       <c r="AF20" s="7"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
@@ -2405,7 +2374,7 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
@@ -2419,7 +2388,7 @@
       <c r="M25" s="32"/>
       <c r="N25" s="32"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -2427,13 +2396,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32">
       <c r="G27" s="31" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="31"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
@@ -2442,7 +2411,7 @@
       </c>
       <c r="I28" s="31"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -2450,7 +2419,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
@@ -2460,7 +2429,7 @@
       <c r="I30" s="31"/>
       <c r="J30" s="31"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
@@ -2486,19 +2455,20 @@
   <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="29.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.25" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2508,7 +2478,7 @@
       <c r="C1" s="18">
         <v>42918</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="18">
         <v>42919</v>
       </c>
       <c r="E1" s="5">
@@ -2599,7 +2569,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34">
       <c r="A2" s="6" t="s">
         <v>36</v>
       </c>
@@ -2640,7 +2610,7 @@
       <c r="AF2" s="8"/>
       <c r="AG2" s="8"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34">
       <c r="A3" s="9" t="s">
         <v>32</v>
       </c>
@@ -2683,7 +2653,7 @@
       <c r="AF3" s="12"/>
       <c r="AG3" s="12"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34">
       <c r="A4" s="9" t="s">
         <v>35</v>
       </c>
@@ -2722,11 +2692,15 @@
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+    <row r="5" spans="1:34">
+      <c r="A5" s="9" t="s">
+        <v>155</v>
+      </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -2757,7 +2731,7 @@
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" ht="14.45">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -2792,7 +2766,7 @@
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" ht="14.45">
       <c r="A7" s="14"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -2827,7 +2801,7 @@
       <c r="AF7" s="12"/>
       <c r="AG7" s="12"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" ht="14.45">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -2862,7 +2836,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" ht="14.45">
       <c r="A9" s="9"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -2897,7 +2871,7 @@
       <c r="AF9" s="12"/>
       <c r="AG9" s="12"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" ht="14.45">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -2932,7 +2906,7 @@
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" ht="14.45">
       <c r="A11" s="9"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -2967,7 +2941,7 @@
       <c r="AF11" s="12"/>
       <c r="AG11" s="12"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" ht="14.45">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -3002,7 +2976,7 @@
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" ht="14.45">
       <c r="A13" s="9"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -3087,7 +3061,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" ht="14.45">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -3123,7 +3097,7 @@
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" ht="14.45">
       <c r="A15" s="9"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -3158,7 +3132,7 @@
       <c r="AF15" s="12"/>
       <c r="AG15" s="12"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" ht="14.45">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -3193,7 +3167,7 @@
       <c r="AF16" s="8"/>
       <c r="AG16" s="8"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" ht="14.45">
       <c r="A17" s="9"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -3228,7 +3202,7 @@
       <c r="AF17" s="11"/>
       <c r="AG17" s="11"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" ht="14.45">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -3263,7 +3237,7 @@
       <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" ht="14.45">
       <c r="A19" s="9"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -3298,7 +3272,7 @@
       <c r="AG19" s="29"/>
       <c r="AH19" s="29"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" ht="14.45">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3333,7 +3307,7 @@
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34">
       <c r="I22" s="28" t="s">
         <v>58</v>
       </c>
@@ -3347,7 +3321,7 @@
       <c r="O22" s="29"/>
       <c r="P22" s="29"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34">
       <c r="I23" s="28" t="s">
         <v>24</v>
       </c>
@@ -3361,7 +3335,7 @@
       <c r="O23" s="32"/>
       <c r="P23" s="32"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34">
       <c r="I24" s="28" t="s">
         <v>54</v>
       </c>
@@ -3375,7 +3349,7 @@
       <c r="O24" s="30"/>
       <c r="P24" s="30"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34">
       <c r="I25" s="31" t="s">
         <v>45</v>
       </c>
@@ -3387,7 +3361,7 @@
       <c r="O25" s="29"/>
       <c r="P25" s="29"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34">
       <c r="I26" s="28" t="s">
         <v>49</v>
       </c>
@@ -3401,7 +3375,7 @@
       <c r="O26" s="29"/>
       <c r="P26" s="29"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34">
       <c r="I27" s="28" t="s">
         <v>46</v>
       </c>
@@ -3415,7 +3389,7 @@
       <c r="O27" s="29"/>
       <c r="P27" s="29"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34">
       <c r="I28" s="28" t="s">
         <v>51</v>
       </c>
@@ -3429,7 +3403,7 @@
       <c r="O28" s="29"/>
       <c r="P28" s="29"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34">
       <c r="I29" s="28" t="s">
         <v>57</v>
       </c>
@@ -3464,12 +3438,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3480,22 +3454,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -3515,18 +3489,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="41.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3549,7 +3523,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3560,7 +3534,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3577,7 +3551,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -3588,7 +3562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -3596,7 +3570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="158">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -656,15 +656,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-.7%（360-365）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-4.0%（198-214）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-.7%（360-365）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1333,7 +1337,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="14.45">
+    <row r="10" spans="1:1">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -1859,7 +1863,7 @@
       <c r="AE9" s="12"/>
       <c r="AF9" s="12"/>
     </row>
-    <row r="10" spans="1:32" ht="14.45">
+    <row r="10" spans="1:32">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -2455,7 +2459,7 @@
   <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2621,7 +2625,7 @@
         <v>153</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -2661,7 +2665,9 @@
         <v>152</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>156</v>
+      </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -2694,12 +2700,12 @@
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -2731,7 +2737,7 @@
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
     </row>
-    <row r="6" spans="1:34" ht="14.45">
+    <row r="6" spans="1:34">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -2766,7 +2772,7 @@
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
     </row>
-    <row r="7" spans="1:34" ht="14.45">
+    <row r="7" spans="1:34">
       <c r="A7" s="14"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -2801,7 +2807,7 @@
       <c r="AF7" s="12"/>
       <c r="AG7" s="12"/>
     </row>
-    <row r="8" spans="1:34" ht="14.45">
+    <row r="8" spans="1:34">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -2836,7 +2842,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
     </row>
-    <row r="9" spans="1:34" ht="14.45">
+    <row r="9" spans="1:34">
       <c r="A9" s="9"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -2871,7 +2877,7 @@
       <c r="AF9" s="12"/>
       <c r="AG9" s="12"/>
     </row>
-    <row r="10" spans="1:34" ht="14.45">
+    <row r="10" spans="1:34">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -2906,7 +2912,7 @@
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
     </row>
-    <row r="11" spans="1:34" ht="14.45">
+    <row r="11" spans="1:34">
       <c r="A11" s="9"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -2941,7 +2947,7 @@
       <c r="AF11" s="12"/>
       <c r="AG11" s="12"/>
     </row>
-    <row r="12" spans="1:34" ht="14.45">
+    <row r="12" spans="1:34">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -2976,7 +2982,7 @@
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:34" ht="14.45">
+    <row r="13" spans="1:34">
       <c r="A13" s="9"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -3061,7 +3067,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="14.45">
+    <row r="14" spans="1:34">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -3097,7 +3103,7 @@
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
     </row>
-    <row r="15" spans="1:34" ht="14.45">
+    <row r="15" spans="1:34">
       <c r="A15" s="9"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -3132,7 +3138,7 @@
       <c r="AF15" s="12"/>
       <c r="AG15" s="12"/>
     </row>
-    <row r="16" spans="1:34" ht="14.45">
+    <row r="16" spans="1:34">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -3167,7 +3173,7 @@
       <c r="AF16" s="8"/>
       <c r="AG16" s="8"/>
     </row>
-    <row r="17" spans="1:34" ht="14.45">
+    <row r="17" spans="1:34">
       <c r="A17" s="9"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -3202,7 +3208,7 @@
       <c r="AF17" s="11"/>
       <c r="AG17" s="11"/>
     </row>
-    <row r="18" spans="1:34" ht="14.45">
+    <row r="18" spans="1:34">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -3237,7 +3243,7 @@
       <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
     </row>
-    <row r="19" spans="1:34" ht="14.45">
+    <row r="19" spans="1:34">
       <c r="A19" s="9"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -3272,7 +3278,7 @@
       <c r="AG19" s="29"/>
       <c r="AH19" s="29"/>
     </row>
-    <row r="20" spans="1:34" ht="14.45">
+    <row r="20" spans="1:34">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3459,7 +3465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.45">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>16</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -669,6 +669,14 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java网络编程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-5%（246-267）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1284,7 +1292,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1354,7 +1362,7 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="9" t="s">
-        <v>31</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -1404,7 +1412,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE20" sqref="AE20"/>
+      <selection pane="topRight" activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1437,7 +1445,7 @@
     <col min="28" max="28" width="17.125" customWidth="1"/>
     <col min="29" max="29" width="17.875" customWidth="1"/>
     <col min="30" max="30" width="16.75" customWidth="1"/>
-    <col min="31" max="31" width="21.375" customWidth="1"/>
+    <col min="31" max="31" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -2459,7 +2467,7 @@
   <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2738,10 +2746,14 @@
       <c r="AG5" s="12"/>
     </row>
     <row r="6" spans="1:34">
-      <c r="A6" s="6"/>
+      <c r="A6" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>159</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="163">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -677,6 +677,18 @@
   </si>
   <si>
     <t>0-5%（246-267）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深入浅出mybatis技术原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深入浅出mybatis技术原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-20%（0-50）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1292,7 +1304,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1372,7 +1384,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="9" t="s">
-        <v>33</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -2467,7 +2479,7 @@
   <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2785,10 +2797,14 @@
       <c r="AG6" s="8"/>
     </row>
     <row r="7" spans="1:34">
-      <c r="A7" s="14"/>
+      <c r="A7" s="14" t="s">
+        <v>161</v>
+      </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="D7" s="11" t="s">
+        <v>162</v>
+      </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="164">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -689,6 +689,10 @@
   </si>
   <si>
     <t>0-20%（0-50）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1.8%（366-378）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2478,8 +2482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2488,6 +2492,7 @@
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9" style="29"/>
   </cols>
@@ -2505,7 +2510,7 @@
       <c r="D1" s="18">
         <v>42919</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="18">
         <v>42920</v>
       </c>
       <c r="F1" s="5">
@@ -2727,7 +2732,9 @@
       <c r="D5" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="11" t="s">
+        <v>163</v>
+      </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="165">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -693,6 +693,10 @@
   </si>
   <si>
     <t>0-1.8%（366-378）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-4%（215-223）+265-273）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2482,8 +2486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2492,7 +2496,7 @@
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9" style="29"/>
   </cols>
@@ -2693,7 +2697,9 @@
       <c r="D4" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>164</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="166">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -697,6 +697,10 @@
   </si>
   <si>
     <t>0-4%（215-223）+265-273）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-8.2%（268-306）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2487,7 +2491,7 @@
   <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2779,7 +2783,9 @@
       <c r="D6" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>165</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="完整书单" sheetId="4" r:id="rId1"/>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="168">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -703,16 +708,24 @@
     <t>0-8.2%（268-306）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>0-6.8%（208-234）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-17.2%(51-94)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1069,7 +1082,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1102,9 +1115,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1137,6 +1167,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1319,107 +1366,107 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.625" customWidth="1"/>
+    <col min="1" max="1" width="57.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="29" customFormat="1">
+    <row r="1" spans="1:1" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>62</v>
       </c>
@@ -1439,40 +1486,40 @@
       <selection pane="topRight" activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.625" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="16.75" customWidth="1"/>
-    <col min="13" max="13" width="18.375" customWidth="1"/>
-    <col min="14" max="14" width="15.75" customWidth="1"/>
-    <col min="15" max="15" width="17.875" customWidth="1"/>
-    <col min="16" max="16" width="19.5" customWidth="1"/>
-    <col min="17" max="17" width="16.75" customWidth="1"/>
-    <col min="18" max="18" width="14.625" customWidth="1"/>
-    <col min="19" max="19" width="21.5" customWidth="1"/>
-    <col min="20" max="20" width="16.625" customWidth="1"/>
-    <col min="21" max="21" width="16.25" customWidth="1"/>
-    <col min="22" max="22" width="15.375" customWidth="1"/>
-    <col min="23" max="23" width="17.375" customWidth="1"/>
-    <col min="24" max="24" width="17.25" customWidth="1"/>
-    <col min="25" max="25" width="18.25" customWidth="1"/>
-    <col min="26" max="26" width="14.5" customWidth="1"/>
-    <col min="27" max="27" width="17.5" customWidth="1"/>
-    <col min="28" max="28" width="17.125" customWidth="1"/>
-    <col min="29" max="29" width="17.875" customWidth="1"/>
-    <col min="30" max="30" width="16.75" customWidth="1"/>
-    <col min="31" max="31" width="26.5" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="15.77734375" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" customWidth="1"/>
+    <col min="16" max="16" width="19.44140625" customWidth="1"/>
+    <col min="17" max="17" width="16.77734375" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" customWidth="1"/>
+    <col min="19" max="19" width="21.44140625" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" customWidth="1"/>
+    <col min="21" max="21" width="16.21875" customWidth="1"/>
+    <col min="22" max="22" width="15.33203125" customWidth="1"/>
+    <col min="23" max="23" width="17.33203125" customWidth="1"/>
+    <col min="24" max="24" width="17.21875" customWidth="1"/>
+    <col min="25" max="25" width="18.21875" customWidth="1"/>
+    <col min="26" max="26" width="14.44140625" customWidth="1"/>
+    <col min="27" max="27" width="17.44140625" customWidth="1"/>
+    <col min="28" max="28" width="17.109375" customWidth="1"/>
+    <col min="29" max="29" width="17.88671875" customWidth="1"/>
+    <col min="30" max="30" width="16.77734375" customWidth="1"/>
+    <col min="31" max="31" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -1570,7 +1617,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
@@ -1608,7 +1655,7 @@
       <c r="AE2" s="8"/>
       <c r="AF2" s="8"/>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>38</v>
       </c>
@@ -1646,7 +1693,7 @@
       <c r="AE3" s="12"/>
       <c r="AF3" s="12"/>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
@@ -1682,7 +1729,7 @@
       <c r="AE4" s="8"/>
       <c r="AF4" s="8"/>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
@@ -1727,7 +1774,7 @@
       <c r="AE5" s="12"/>
       <c r="AF5" s="12"/>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
@@ -1763,7 +1810,7 @@
       <c r="AE6" s="8"/>
       <c r="AF6" s="8"/>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>42</v>
       </c>
@@ -1823,7 +1870,7 @@
       <c r="AE7" s="12"/>
       <c r="AF7" s="12"/>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
@@ -1859,7 +1906,7 @@
       <c r="AE8" s="8"/>
       <c r="AF8" s="8"/>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
@@ -1895,7 +1942,7 @@
       <c r="AE9" s="12"/>
       <c r="AF9" s="12"/>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -1931,7 +1978,7 @@
       <c r="AE10" s="8"/>
       <c r="AF10" s="8"/>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
@@ -1967,7 +2014,7 @@
       <c r="AE11" s="12"/>
       <c r="AF11" s="12"/>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
@@ -2011,7 +2058,7 @@
       <c r="AE12" s="8"/>
       <c r="AF12" s="8"/>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>31</v>
       </c>
@@ -2075,7 +2122,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="12.75" customHeight="1">
+    <row r="14" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -2123,7 +2170,7 @@
       <c r="AE14" s="8"/>
       <c r="AF14" s="8"/>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>33</v>
       </c>
@@ -2159,7 +2206,7 @@
       <c r="AE15" s="12"/>
       <c r="AF15" s="12"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
@@ -2195,7 +2242,7 @@
       <c r="AE16" s="8"/>
       <c r="AF16" s="8"/>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
@@ -2261,7 +2308,7 @@
       </c>
       <c r="AF17" s="12"/>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
@@ -2315,7 +2362,7 @@
       <c r="AE18" s="8"/>
       <c r="AF18" s="8"/>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>44</v>
       </c>
@@ -2326,7 +2373,7 @@
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>62</v>
       </c>
@@ -2402,7 +2449,7 @@
       </c>
       <c r="AF20" s="7"/>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
@@ -2410,7 +2457,7 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
@@ -2424,7 +2471,7 @@
       <c r="M25" s="32"/>
       <c r="N25" s="32"/>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -2432,13 +2479,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G27" s="31" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="31"/>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
@@ -2447,7 +2494,7 @@
       </c>
       <c r="I28" s="31"/>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -2455,7 +2502,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
@@ -2465,7 +2512,7 @@
       <c r="I30" s="31"/>
       <c r="J30" s="31"/>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
@@ -2491,21 +2538,21 @@
   <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.25" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="29.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2606,7 +2653,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>36</v>
       </c>
@@ -2617,7 +2664,9 @@
         <v>149</v>
       </c>
       <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -2647,7 +2696,7 @@
       <c r="AF2" s="8"/>
       <c r="AG2" s="8"/>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>32</v>
       </c>
@@ -2690,7 +2739,7 @@
       <c r="AF3" s="12"/>
       <c r="AG3" s="12"/>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>35</v>
       </c>
@@ -2733,7 +2782,7 @@
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>154</v>
       </c>
@@ -2774,7 +2823,7 @@
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
@@ -2815,7 +2864,7 @@
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>161</v>
       </c>
@@ -2824,7 +2873,9 @@
       <c r="D7" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -2854,7 +2905,7 @@
       <c r="AF7" s="12"/>
       <c r="AG7" s="12"/>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -2889,7 +2940,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -2924,7 +2975,7 @@
       <c r="AF9" s="12"/>
       <c r="AG9" s="12"/>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -2959,7 +3010,7 @@
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -2994,7 +3045,7 @@
       <c r="AF11" s="12"/>
       <c r="AG11" s="12"/>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -3029,7 +3080,7 @@
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -3114,7 +3165,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -3150,7 +3201,7 @@
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -3185,7 +3236,7 @@
       <c r="AF15" s="12"/>
       <c r="AG15" s="12"/>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -3220,7 +3271,7 @@
       <c r="AF16" s="8"/>
       <c r="AG16" s="8"/>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -3255,7 +3306,7 @@
       <c r="AF17" s="11"/>
       <c r="AG17" s="11"/>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -3290,7 +3341,7 @@
       <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -3325,7 +3376,7 @@
       <c r="AG19" s="29"/>
       <c r="AH19" s="29"/>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3360,7 +3411,7 @@
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I22" s="28" t="s">
         <v>58</v>
       </c>
@@ -3374,7 +3425,7 @@
       <c r="O22" s="29"/>
       <c r="P22" s="29"/>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I23" s="28" t="s">
         <v>24</v>
       </c>
@@ -3388,7 +3439,7 @@
       <c r="O23" s="32"/>
       <c r="P23" s="32"/>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I24" s="28" t="s">
         <v>54</v>
       </c>
@@ -3402,7 +3453,7 @@
       <c r="O24" s="30"/>
       <c r="P24" s="30"/>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I25" s="31" t="s">
         <v>45</v>
       </c>
@@ -3414,7 +3465,7 @@
       <c r="O25" s="29"/>
       <c r="P25" s="29"/>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I26" s="28" t="s">
         <v>49</v>
       </c>
@@ -3428,7 +3479,7 @@
       <c r="O26" s="29"/>
       <c r="P26" s="29"/>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I27" s="28" t="s">
         <v>46</v>
       </c>
@@ -3442,7 +3493,7 @@
       <c r="O27" s="29"/>
       <c r="P27" s="29"/>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I28" s="28" t="s">
         <v>51</v>
       </c>
@@ -3456,7 +3507,7 @@
       <c r="O28" s="29"/>
       <c r="P28" s="29"/>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I29" s="28" t="s">
         <v>57</v>
       </c>
@@ -3491,12 +3542,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3507,22 +3558,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -3542,18 +3593,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="41.5" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="41.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3576,7 +3627,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3587,7 +3638,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3604,7 +3655,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -3615,7 +3666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -3623,7 +3674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="完整书单" sheetId="4" r:id="rId1"/>
@@ -23,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="169">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -665,10 +660,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0-.7%（360-365）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0-4.0%（198-214）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -714,18 +705,26 @@
   </si>
   <si>
     <t>0-17.2%(51-94)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-0.7%（360-365）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-0.7%（379-385）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1082,7 +1081,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1115,26 +1114,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1167,23 +1149,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1366,107 +1331,107 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="57.6640625" customWidth="1"/>
+    <col min="1" max="1" width="57.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="29" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="14.45">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="19" t="s">
         <v>62</v>
       </c>
@@ -1486,40 +1451,40 @@
       <selection pane="topRight" activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="45.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="16.77734375" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" customWidth="1"/>
-    <col min="14" max="14" width="15.77734375" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" customWidth="1"/>
-    <col min="16" max="16" width="19.44140625" customWidth="1"/>
-    <col min="17" max="17" width="16.77734375" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" customWidth="1"/>
-    <col min="19" max="19" width="21.44140625" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" customWidth="1"/>
-    <col min="21" max="21" width="16.21875" customWidth="1"/>
-    <col min="22" max="22" width="15.33203125" customWidth="1"/>
-    <col min="23" max="23" width="17.33203125" customWidth="1"/>
-    <col min="24" max="24" width="17.21875" customWidth="1"/>
-    <col min="25" max="25" width="18.21875" customWidth="1"/>
-    <col min="26" max="26" width="14.44140625" customWidth="1"/>
-    <col min="27" max="27" width="17.44140625" customWidth="1"/>
-    <col min="28" max="28" width="17.109375" customWidth="1"/>
-    <col min="29" max="29" width="17.88671875" customWidth="1"/>
-    <col min="30" max="30" width="16.77734375" customWidth="1"/>
-    <col min="31" max="31" width="26.44140625" customWidth="1"/>
+    <col min="12" max="12" width="16.75" customWidth="1"/>
+    <col min="13" max="13" width="18.375" customWidth="1"/>
+    <col min="14" max="14" width="15.75" customWidth="1"/>
+    <col min="15" max="15" width="17.875" customWidth="1"/>
+    <col min="16" max="16" width="19.5" customWidth="1"/>
+    <col min="17" max="17" width="16.75" customWidth="1"/>
+    <col min="18" max="18" width="14.625" customWidth="1"/>
+    <col min="19" max="19" width="21.5" customWidth="1"/>
+    <col min="20" max="20" width="16.625" customWidth="1"/>
+    <col min="21" max="21" width="16.25" customWidth="1"/>
+    <col min="22" max="22" width="15.375" customWidth="1"/>
+    <col min="23" max="23" width="17.375" customWidth="1"/>
+    <col min="24" max="24" width="17.25" customWidth="1"/>
+    <col min="25" max="25" width="18.25" customWidth="1"/>
+    <col min="26" max="26" width="14.5" customWidth="1"/>
+    <col min="27" max="27" width="17.5" customWidth="1"/>
+    <col min="28" max="28" width="17.125" customWidth="1"/>
+    <col min="29" max="29" width="17.875" customWidth="1"/>
+    <col min="30" max="30" width="16.75" customWidth="1"/>
+    <col min="31" max="31" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -1617,7 +1582,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32">
       <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
@@ -1655,7 +1620,7 @@
       <c r="AE2" s="8"/>
       <c r="AF2" s="8"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32">
       <c r="A3" s="9" t="s">
         <v>38</v>
       </c>
@@ -1693,7 +1658,7 @@
       <c r="AE3" s="12"/>
       <c r="AF3" s="12"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
@@ -1729,7 +1694,7 @@
       <c r="AE4" s="8"/>
       <c r="AF4" s="8"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32">
       <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
@@ -1774,7 +1739,7 @@
       <c r="AE5" s="12"/>
       <c r="AF5" s="12"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32">
       <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
@@ -1810,7 +1775,7 @@
       <c r="AE6" s="8"/>
       <c r="AF6" s="8"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32">
       <c r="A7" s="14" t="s">
         <v>42</v>
       </c>
@@ -1870,7 +1835,7 @@
       <c r="AE7" s="12"/>
       <c r="AF7" s="12"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
@@ -1906,7 +1871,7 @@
       <c r="AE8" s="8"/>
       <c r="AF8" s="8"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32">
       <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
@@ -1942,7 +1907,7 @@
       <c r="AE9" s="12"/>
       <c r="AF9" s="12"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="14.45">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -1978,7 +1943,7 @@
       <c r="AE10" s="8"/>
       <c r="AF10" s="8"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
@@ -2014,7 +1979,7 @@
       <c r="AE11" s="12"/>
       <c r="AF11" s="12"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32">
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
@@ -2058,7 +2023,7 @@
       <c r="AE12" s="8"/>
       <c r="AF12" s="8"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
         <v>31</v>
       </c>
@@ -2122,7 +2087,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="12.75" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -2170,7 +2135,7 @@
       <c r="AE14" s="8"/>
       <c r="AF14" s="8"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
         <v>33</v>
       </c>
@@ -2206,7 +2171,7 @@
       <c r="AE15" s="12"/>
       <c r="AF15" s="12"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
@@ -2242,7 +2207,7 @@
       <c r="AE16" s="8"/>
       <c r="AF16" s="8"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32">
       <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
@@ -2308,7 +2273,7 @@
       </c>
       <c r="AF17" s="12"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32">
       <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
@@ -2362,7 +2327,7 @@
       <c r="AE18" s="8"/>
       <c r="AF18" s="8"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32">
       <c r="A19" s="15" t="s">
         <v>44</v>
       </c>
@@ -2373,7 +2338,7 @@
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32">
       <c r="A20" s="19" t="s">
         <v>62</v>
       </c>
@@ -2449,7 +2414,7 @@
       </c>
       <c r="AF20" s="7"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
@@ -2457,7 +2422,7 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
@@ -2471,7 +2436,7 @@
       <c r="M25" s="32"/>
       <c r="N25" s="32"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -2479,13 +2444,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32">
       <c r="G27" s="31" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="31"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
@@ -2494,7 +2459,7 @@
       </c>
       <c r="I28" s="31"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -2502,7 +2467,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
@@ -2512,7 +2477,7 @@
       <c r="I30" s="31"/>
       <c r="J30" s="31"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
@@ -2538,21 +2503,23 @@
   <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="29.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="29.25" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2568,7 +2535,7 @@
       <c r="E1" s="18">
         <v>42920</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="18">
         <v>42921</v>
       </c>
       <c r="G1" s="5">
@@ -2653,7 +2620,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34">
       <c r="A2" s="6" t="s">
         <v>36</v>
       </c>
@@ -2665,7 +2632,7 @@
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -2696,7 +2663,7 @@
       <c r="AF2" s="8"/>
       <c r="AG2" s="8"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34">
       <c r="A3" s="9" t="s">
         <v>32</v>
       </c>
@@ -2707,7 +2674,7 @@
         <v>153</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -2739,7 +2706,7 @@
       <c r="AF3" s="12"/>
       <c r="AG3" s="12"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34">
       <c r="A4" s="9" t="s">
         <v>35</v>
       </c>
@@ -2748,10 +2715,10 @@
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -2782,19 +2749,21 @@
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34">
       <c r="A5" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="F5" s="11"/>
+        <v>162</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>168</v>
+      </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -2823,17 +2792,17 @@
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34">
       <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -2864,17 +2833,17 @@
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34">
       <c r="A7" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -2905,7 +2874,7 @@
       <c r="AF7" s="12"/>
       <c r="AG7" s="12"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" ht="14.45">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -2940,7 +2909,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" ht="14.45">
       <c r="A9" s="9"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -2975,7 +2944,7 @@
       <c r="AF9" s="12"/>
       <c r="AG9" s="12"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" ht="14.45">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -3010,7 +2979,7 @@
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" ht="14.45">
       <c r="A11" s="9"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -3045,7 +3014,7 @@
       <c r="AF11" s="12"/>
       <c r="AG11" s="12"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" ht="14.45">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -3080,7 +3049,7 @@
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" ht="14.45">
       <c r="A13" s="9"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -3165,7 +3134,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" ht="14.45">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -3201,7 +3170,7 @@
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" ht="14.45">
       <c r="A15" s="9"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -3236,7 +3205,7 @@
       <c r="AF15" s="12"/>
       <c r="AG15" s="12"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" ht="14.45">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -3271,7 +3240,7 @@
       <c r="AF16" s="8"/>
       <c r="AG16" s="8"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" ht="14.45">
       <c r="A17" s="9"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -3306,7 +3275,7 @@
       <c r="AF17" s="11"/>
       <c r="AG17" s="11"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" ht="14.45">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -3341,7 +3310,7 @@
       <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" ht="14.45">
       <c r="A19" s="9"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -3376,7 +3345,7 @@
       <c r="AG19" s="29"/>
       <c r="AH19" s="29"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" ht="14.45">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3411,7 +3380,7 @@
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34">
       <c r="I22" s="28" t="s">
         <v>58</v>
       </c>
@@ -3425,7 +3394,7 @@
       <c r="O22" s="29"/>
       <c r="P22" s="29"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34">
       <c r="I23" s="28" t="s">
         <v>24</v>
       </c>
@@ -3439,7 +3408,7 @@
       <c r="O23" s="32"/>
       <c r="P23" s="32"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34">
       <c r="I24" s="28" t="s">
         <v>54</v>
       </c>
@@ -3453,7 +3422,7 @@
       <c r="O24" s="30"/>
       <c r="P24" s="30"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34">
       <c r="I25" s="31" t="s">
         <v>45</v>
       </c>
@@ -3465,7 +3434,7 @@
       <c r="O25" s="29"/>
       <c r="P25" s="29"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34">
       <c r="I26" s="28" t="s">
         <v>49</v>
       </c>
@@ -3479,7 +3448,7 @@
       <c r="O26" s="29"/>
       <c r="P26" s="29"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34">
       <c r="I27" s="28" t="s">
         <v>46</v>
       </c>
@@ -3493,7 +3462,7 @@
       <c r="O27" s="29"/>
       <c r="P27" s="29"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34">
       <c r="I28" s="28" t="s">
         <v>51</v>
       </c>
@@ -3507,7 +3476,7 @@
       <c r="O28" s="29"/>
       <c r="P28" s="29"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34">
       <c r="I29" s="28" t="s">
         <v>57</v>
       </c>
@@ -3542,12 +3511,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3558,22 +3527,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -3593,18 +3562,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="41.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3627,7 +3596,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3638,7 +3607,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3655,7 +3624,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -3666,7 +3635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -3674,7 +3643,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="170">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -713,6 +713,10 @@
   </si>
   <si>
     <t>0-0.7%（379-385）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-4.5%（274-292）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1381,7 +1385,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="14.45">
+    <row r="10" spans="1:1">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -1907,7 +1911,7 @@
       <c r="AE9" s="12"/>
       <c r="AF9" s="12"/>
     </row>
-    <row r="10" spans="1:32" ht="14.45">
+    <row r="10" spans="1:32">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -2503,8 +2507,8 @@
   <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B12" sqref="B12"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2720,7 +2724,9 @@
       <c r="E4" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>169</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -2874,7 +2880,7 @@
       <c r="AF7" s="12"/>
       <c r="AG7" s="12"/>
     </row>
-    <row r="8" spans="1:34" ht="14.45">
+    <row r="8" spans="1:34">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -2909,7 +2915,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
     </row>
-    <row r="9" spans="1:34" ht="14.45">
+    <row r="9" spans="1:34">
       <c r="A9" s="9"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -2944,7 +2950,7 @@
       <c r="AF9" s="12"/>
       <c r="AG9" s="12"/>
     </row>
-    <row r="10" spans="1:34" ht="14.45">
+    <row r="10" spans="1:34">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -2979,7 +2985,7 @@
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
     </row>
-    <row r="11" spans="1:34" ht="14.45">
+    <row r="11" spans="1:34">
       <c r="A11" s="9"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -3014,7 +3020,7 @@
       <c r="AF11" s="12"/>
       <c r="AG11" s="12"/>
     </row>
-    <row r="12" spans="1:34" ht="14.45">
+    <row r="12" spans="1:34">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -3049,7 +3055,7 @@
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:34" ht="14.45">
+    <row r="13" spans="1:34">
       <c r="A13" s="9"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -3134,7 +3140,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="14.45">
+    <row r="14" spans="1:34">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -3170,7 +3176,7 @@
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
     </row>
-    <row r="15" spans="1:34" ht="14.45">
+    <row r="15" spans="1:34">
       <c r="A15" s="9"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -3205,7 +3211,7 @@
       <c r="AF15" s="12"/>
       <c r="AG15" s="12"/>
     </row>
-    <row r="16" spans="1:34" ht="14.45">
+    <row r="16" spans="1:34">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -3240,7 +3246,7 @@
       <c r="AF16" s="8"/>
       <c r="AG16" s="8"/>
     </row>
-    <row r="17" spans="1:34" ht="14.45">
+    <row r="17" spans="1:34">
       <c r="A17" s="9"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -3275,7 +3281,7 @@
       <c r="AF17" s="11"/>
       <c r="AG17" s="11"/>
     </row>
-    <row r="18" spans="1:34" ht="14.45">
+    <row r="18" spans="1:34">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -3310,7 +3316,7 @@
       <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
     </row>
-    <row r="19" spans="1:34" ht="14.45">
+    <row r="19" spans="1:34">
       <c r="A19" s="9"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -3345,7 +3351,7 @@
       <c r="AG19" s="29"/>
       <c r="AH19" s="29"/>
     </row>
-    <row r="20" spans="1:34" ht="14.45">
+    <row r="20" spans="1:34">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3532,7 +3538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.45">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>16</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="171">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -717,6 +717,10 @@
   </si>
   <si>
     <t>0-4.5%（274-292）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1.9%（307-016）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2508,7 +2512,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F4" sqref="F4"/>
+      <selection pane="topRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2810,7 +2814,9 @@
       <c r="E6" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>170</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="172">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -721,6 +721,10 @@
   </si>
   <si>
     <t>0-1.9%（307-016）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-2.7%（386-404）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2512,7 +2516,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F6" sqref="F6"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2523,6 +2527,7 @@
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="17.625" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9" style="29"/>
   </cols>
@@ -2546,7 +2551,7 @@
       <c r="F1" s="18">
         <v>42921</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="18">
         <v>42922</v>
       </c>
       <c r="H1" s="5">
@@ -2774,7 +2779,9 @@
       <c r="F5" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="173">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -725,6 +725,10 @@
   </si>
   <si>
     <t>0-2.7%（386-404）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-3.2%（293-306）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2516,7 +2520,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="topRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2736,7 +2740,9 @@
       <c r="F4" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>172</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="174">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -720,15 +720,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0-1.9%（307-016）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0-2.7%（386-404）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0-3.2%（293-306）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1.9%（307-316）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-5.4%（317-342）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2520,7 +2524,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G4" sqref="G4"/>
+      <selection pane="topRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2741,7 +2745,7 @@
         <v>169</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -2786,7 +2790,7 @@
         <v>168</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -2828,9 +2832,11 @@
         <v>164</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G6" s="7"/>
+        <v>172</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>173</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="175">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -733,6 +733,10 @@
   </si>
   <si>
     <t>0-5.4%（317-342）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-0.7%（405-411）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2524,7 +2528,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G6" sqref="G6"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2536,6 +2540,7 @@
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="17.625" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9" style="29"/>
   </cols>
@@ -2562,7 +2567,7 @@
       <c r="G1" s="18">
         <v>42922</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1" s="18">
         <v>42923</v>
       </c>
       <c r="I1" s="5">
@@ -2792,7 +2797,9 @@
       <c r="G5" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="H5" s="11"/>
+      <c r="H5" s="11" t="s">
+        <v>174</v>
+      </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="176">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -737,6 +737,10 @@
   </si>
   <si>
     <t>0-0.7%（405-411）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-2.5%（307-317）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2528,7 +2532,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="topRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2752,7 +2756,9 @@
       <c r="G4" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>175</v>
+      </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="177">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -741,6 +741,10 @@
   </si>
   <si>
     <t>0-2.5%（307-317）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1.9%（412-425）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2531,8 +2535,8 @@
   <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H4" sqref="H4"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2546,6 +2550,7 @@
     <col min="7" max="7" width="17.5" customWidth="1"/>
     <col min="8" max="8" width="15.5" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.625" customWidth="1"/>
     <col min="31" max="31" width="9" style="29"/>
   </cols>
   <sheetData>
@@ -2808,7 +2813,9 @@
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
+      <c r="K5" s="11" t="s">
+        <v>176</v>
+      </c>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="178">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -745,6 +745,10 @@
   </si>
   <si>
     <t>0-1.9%（412-425）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-2.4%（318-327）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2536,7 +2540,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K5" sqref="K5"/>
+      <selection pane="topRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2766,7 +2770,9 @@
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="K4" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="179">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -749,6 +749,10 @@
   </si>
   <si>
     <t>0-2.4%（318-327）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-2.8%（343-355）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2540,7 +2544,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K4" sqref="K4"/>
+      <selection pane="topRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2866,7 +2870,9 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="K6" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="完整书单" sheetId="4" r:id="rId1"/>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="182">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -755,16 +760,28 @@
     <t>0-2.8%（343-355）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>0-6.2%（240-262）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1.4%（235-240）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-2.3%（356-369）享元模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1121,7 +1138,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1154,9 +1171,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1189,6 +1223,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1371,107 +1422,107 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.625" customWidth="1"/>
+    <col min="1" max="1" width="57.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="29" customFormat="1">
+    <row r="1" spans="1:1" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>62</v>
       </c>
@@ -1491,40 +1542,40 @@
       <selection pane="topRight" activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.625" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="16.75" customWidth="1"/>
-    <col min="13" max="13" width="18.375" customWidth="1"/>
-    <col min="14" max="14" width="15.75" customWidth="1"/>
-    <col min="15" max="15" width="17.875" customWidth="1"/>
-    <col min="16" max="16" width="19.5" customWidth="1"/>
-    <col min="17" max="17" width="16.75" customWidth="1"/>
-    <col min="18" max="18" width="14.625" customWidth="1"/>
-    <col min="19" max="19" width="21.5" customWidth="1"/>
-    <col min="20" max="20" width="16.625" customWidth="1"/>
-    <col min="21" max="21" width="16.25" customWidth="1"/>
-    <col min="22" max="22" width="15.375" customWidth="1"/>
-    <col min="23" max="23" width="17.375" customWidth="1"/>
-    <col min="24" max="24" width="17.25" customWidth="1"/>
-    <col min="25" max="25" width="18.25" customWidth="1"/>
-    <col min="26" max="26" width="14.5" customWidth="1"/>
-    <col min="27" max="27" width="17.5" customWidth="1"/>
-    <col min="28" max="28" width="17.125" customWidth="1"/>
-    <col min="29" max="29" width="17.875" customWidth="1"/>
-    <col min="30" max="30" width="16.75" customWidth="1"/>
-    <col min="31" max="31" width="26.5" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="15.77734375" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" customWidth="1"/>
+    <col min="16" max="16" width="19.44140625" customWidth="1"/>
+    <col min="17" max="17" width="16.77734375" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" customWidth="1"/>
+    <col min="19" max="19" width="21.44140625" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" customWidth="1"/>
+    <col min="21" max="21" width="16.21875" customWidth="1"/>
+    <col min="22" max="22" width="15.33203125" customWidth="1"/>
+    <col min="23" max="23" width="17.33203125" customWidth="1"/>
+    <col min="24" max="24" width="17.21875" customWidth="1"/>
+    <col min="25" max="25" width="18.21875" customWidth="1"/>
+    <col min="26" max="26" width="14.44140625" customWidth="1"/>
+    <col min="27" max="27" width="17.44140625" customWidth="1"/>
+    <col min="28" max="28" width="17.109375" customWidth="1"/>
+    <col min="29" max="29" width="17.88671875" customWidth="1"/>
+    <col min="30" max="30" width="16.77734375" customWidth="1"/>
+    <col min="31" max="31" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -1622,7 +1673,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
@@ -1660,7 +1711,7 @@
       <c r="AE2" s="8"/>
       <c r="AF2" s="8"/>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>38</v>
       </c>
@@ -1698,7 +1749,7 @@
       <c r="AE3" s="12"/>
       <c r="AF3" s="12"/>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
@@ -1734,7 +1785,7 @@
       <c r="AE4" s="8"/>
       <c r="AF4" s="8"/>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
@@ -1779,7 +1830,7 @@
       <c r="AE5" s="12"/>
       <c r="AF5" s="12"/>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
@@ -1815,7 +1866,7 @@
       <c r="AE6" s="8"/>
       <c r="AF6" s="8"/>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>42</v>
       </c>
@@ -1875,7 +1926,7 @@
       <c r="AE7" s="12"/>
       <c r="AF7" s="12"/>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
@@ -1911,7 +1962,7 @@
       <c r="AE8" s="8"/>
       <c r="AF8" s="8"/>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
@@ -1947,7 +1998,7 @@
       <c r="AE9" s="12"/>
       <c r="AF9" s="12"/>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -1983,7 +2034,7 @@
       <c r="AE10" s="8"/>
       <c r="AF10" s="8"/>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
@@ -2019,7 +2070,7 @@
       <c r="AE11" s="12"/>
       <c r="AF11" s="12"/>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
@@ -2063,7 +2114,7 @@
       <c r="AE12" s="8"/>
       <c r="AF12" s="8"/>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>31</v>
       </c>
@@ -2127,7 +2178,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="12.75" customHeight="1">
+    <row r="14" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -2175,7 +2226,7 @@
       <c r="AE14" s="8"/>
       <c r="AF14" s="8"/>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>33</v>
       </c>
@@ -2211,7 +2262,7 @@
       <c r="AE15" s="12"/>
       <c r="AF15" s="12"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
@@ -2247,7 +2298,7 @@
       <c r="AE16" s="8"/>
       <c r="AF16" s="8"/>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
@@ -2313,7 +2364,7 @@
       </c>
       <c r="AF17" s="12"/>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
@@ -2367,7 +2418,7 @@
       <c r="AE18" s="8"/>
       <c r="AF18" s="8"/>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>44</v>
       </c>
@@ -2378,7 +2429,7 @@
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>62</v>
       </c>
@@ -2454,7 +2505,7 @@
       </c>
       <c r="AF20" s="7"/>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
@@ -2462,7 +2513,7 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
@@ -2476,7 +2527,7 @@
       <c r="M25" s="32"/>
       <c r="N25" s="32"/>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -2484,13 +2535,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G27" s="31" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="31"/>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
@@ -2499,7 +2550,7 @@
       </c>
       <c r="I28" s="31"/>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -2507,7 +2558,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
@@ -2517,7 +2568,7 @@
       <c r="I30" s="31"/>
       <c r="J30" s="31"/>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
@@ -2543,26 +2594,27 @@
   <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I4" sqref="I4"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.25" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="29.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="17.625" customWidth="1"/>
-    <col min="7" max="7" width="17.5" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" customWidth="1"/>
     <col min="31" max="31" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2587,13 +2639,13 @@
       <c r="H1" s="18">
         <v>42923</v>
       </c>
-      <c r="I1" s="5">
+      <c r="I1" s="18">
         <v>42924</v>
       </c>
       <c r="J1" s="5">
         <v>42925</v>
       </c>
-      <c r="K1" s="5">
+      <c r="K1" s="18">
         <v>42926</v>
       </c>
       <c r="L1" s="5">
@@ -2663,7 +2715,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>36</v>
       </c>
@@ -2680,9 +2732,13 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="I2" s="7" t="s">
+        <v>180</v>
+      </c>
       <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="K2" s="7" t="s">
+        <v>179</v>
+      </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
@@ -2706,7 +2762,7 @@
       <c r="AF2" s="8"/>
       <c r="AG2" s="8"/>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>32</v>
       </c>
@@ -2723,7 +2779,9 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="I3" s="11" t="s">
+        <v>181</v>
+      </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
@@ -2749,7 +2807,7 @@
       <c r="AF3" s="12"/>
       <c r="AG3" s="12"/>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>35</v>
       </c>
@@ -2800,7 +2858,7 @@
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>154</v>
       </c>
@@ -2849,7 +2907,7 @@
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
@@ -2896,7 +2954,7 @@
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>160</v>
       </c>
@@ -2937,7 +2995,7 @@
       <c r="AF7" s="12"/>
       <c r="AG7" s="12"/>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -2972,7 +3030,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -3007,7 +3065,7 @@
       <c r="AF9" s="12"/>
       <c r="AG9" s="12"/>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -3042,7 +3100,7 @@
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -3077,7 +3135,7 @@
       <c r="AF11" s="12"/>
       <c r="AG11" s="12"/>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -3112,7 +3170,7 @@
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -3197,7 +3255,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -3233,7 +3291,7 @@
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -3268,7 +3326,7 @@
       <c r="AF15" s="12"/>
       <c r="AG15" s="12"/>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -3303,7 +3361,7 @@
       <c r="AF16" s="8"/>
       <c r="AG16" s="8"/>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -3338,7 +3396,7 @@
       <c r="AF17" s="11"/>
       <c r="AG17" s="11"/>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -3373,7 +3431,7 @@
       <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -3408,7 +3466,7 @@
       <c r="AG19" s="29"/>
       <c r="AH19" s="29"/>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3443,7 +3501,7 @@
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I22" s="28" t="s">
         <v>58</v>
       </c>
@@ -3457,7 +3515,7 @@
       <c r="O22" s="29"/>
       <c r="P22" s="29"/>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I23" s="28" t="s">
         <v>24</v>
       </c>
@@ -3471,7 +3529,7 @@
       <c r="O23" s="32"/>
       <c r="P23" s="32"/>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I24" s="28" t="s">
         <v>54</v>
       </c>
@@ -3485,7 +3543,7 @@
       <c r="O24" s="30"/>
       <c r="P24" s="30"/>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I25" s="31" t="s">
         <v>45</v>
       </c>
@@ -3497,7 +3555,7 @@
       <c r="O25" s="29"/>
       <c r="P25" s="29"/>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I26" s="28" t="s">
         <v>49</v>
       </c>
@@ -3511,7 +3569,7 @@
       <c r="O26" s="29"/>
       <c r="P26" s="29"/>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I27" s="28" t="s">
         <v>46</v>
       </c>
@@ -3525,7 +3583,7 @@
       <c r="O27" s="29"/>
       <c r="P27" s="29"/>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I28" s="28" t="s">
         <v>51</v>
       </c>
@@ -3539,7 +3597,7 @@
       <c r="O28" s="29"/>
       <c r="P28" s="29"/>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I29" s="28" t="s">
         <v>57</v>
       </c>
@@ -3574,12 +3632,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3590,22 +3648,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -3625,18 +3683,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="41.5" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="41.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3659,7 +3717,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3670,7 +3728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3687,7 +3745,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -3698,7 +3756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -3706,7 +3764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="完整书单" sheetId="4" r:id="rId1"/>
@@ -23,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="183">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -772,16 +767,20 @@
     <t>0-2.3%（356-369）享元模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>0-2.4%（328-338）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1138,7 +1137,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1171,26 +1170,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1223,23 +1205,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1422,107 +1387,107 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="57.6640625" customWidth="1"/>
+    <col min="1" max="1" width="57.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="29" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="14.45">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="9" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="9" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="19" t="s">
         <v>62</v>
       </c>
@@ -1542,40 +1507,40 @@
       <selection pane="topRight" activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="45.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="16.77734375" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" customWidth="1"/>
-    <col min="14" max="14" width="15.77734375" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" customWidth="1"/>
-    <col min="16" max="16" width="19.44140625" customWidth="1"/>
-    <col min="17" max="17" width="16.77734375" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" customWidth="1"/>
-    <col min="19" max="19" width="21.44140625" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" customWidth="1"/>
-    <col min="21" max="21" width="16.21875" customWidth="1"/>
-    <col min="22" max="22" width="15.33203125" customWidth="1"/>
-    <col min="23" max="23" width="17.33203125" customWidth="1"/>
-    <col min="24" max="24" width="17.21875" customWidth="1"/>
-    <col min="25" max="25" width="18.21875" customWidth="1"/>
-    <col min="26" max="26" width="14.44140625" customWidth="1"/>
-    <col min="27" max="27" width="17.44140625" customWidth="1"/>
-    <col min="28" max="28" width="17.109375" customWidth="1"/>
-    <col min="29" max="29" width="17.88671875" customWidth="1"/>
-    <col min="30" max="30" width="16.77734375" customWidth="1"/>
-    <col min="31" max="31" width="26.44140625" customWidth="1"/>
+    <col min="12" max="12" width="16.75" customWidth="1"/>
+    <col min="13" max="13" width="18.375" customWidth="1"/>
+    <col min="14" max="14" width="15.75" customWidth="1"/>
+    <col min="15" max="15" width="17.875" customWidth="1"/>
+    <col min="16" max="16" width="19.5" customWidth="1"/>
+    <col min="17" max="17" width="16.75" customWidth="1"/>
+    <col min="18" max="18" width="14.625" customWidth="1"/>
+    <col min="19" max="19" width="21.5" customWidth="1"/>
+    <col min="20" max="20" width="16.625" customWidth="1"/>
+    <col min="21" max="21" width="16.25" customWidth="1"/>
+    <col min="22" max="22" width="15.375" customWidth="1"/>
+    <col min="23" max="23" width="17.375" customWidth="1"/>
+    <col min="24" max="24" width="17.25" customWidth="1"/>
+    <col min="25" max="25" width="18.25" customWidth="1"/>
+    <col min="26" max="26" width="14.5" customWidth="1"/>
+    <col min="27" max="27" width="17.5" customWidth="1"/>
+    <col min="28" max="28" width="17.125" customWidth="1"/>
+    <col min="29" max="29" width="17.875" customWidth="1"/>
+    <col min="30" max="30" width="16.75" customWidth="1"/>
+    <col min="31" max="31" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -1673,7 +1638,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32">
       <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
@@ -1711,7 +1676,7 @@
       <c r="AE2" s="8"/>
       <c r="AF2" s="8"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32">
       <c r="A3" s="9" t="s">
         <v>38</v>
       </c>
@@ -1749,7 +1714,7 @@
       <c r="AE3" s="12"/>
       <c r="AF3" s="12"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
@@ -1785,7 +1750,7 @@
       <c r="AE4" s="8"/>
       <c r="AF4" s="8"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32">
       <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
@@ -1830,7 +1795,7 @@
       <c r="AE5" s="12"/>
       <c r="AF5" s="12"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32">
       <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
@@ -1866,7 +1831,7 @@
       <c r="AE6" s="8"/>
       <c r="AF6" s="8"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32">
       <c r="A7" s="14" t="s">
         <v>42</v>
       </c>
@@ -1926,7 +1891,7 @@
       <c r="AE7" s="12"/>
       <c r="AF7" s="12"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
@@ -1962,7 +1927,7 @@
       <c r="AE8" s="8"/>
       <c r="AF8" s="8"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32">
       <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
@@ -1998,7 +1963,7 @@
       <c r="AE9" s="12"/>
       <c r="AF9" s="12"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="14.45">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -2034,7 +1999,7 @@
       <c r="AE10" s="8"/>
       <c r="AF10" s="8"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
@@ -2070,7 +2035,7 @@
       <c r="AE11" s="12"/>
       <c r="AF11" s="12"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32">
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
@@ -2114,7 +2079,7 @@
       <c r="AE12" s="8"/>
       <c r="AF12" s="8"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
         <v>31</v>
       </c>
@@ -2178,7 +2143,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="12.75" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -2226,7 +2191,7 @@
       <c r="AE14" s="8"/>
       <c r="AF14" s="8"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
         <v>33</v>
       </c>
@@ -2262,7 +2227,7 @@
       <c r="AE15" s="12"/>
       <c r="AF15" s="12"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
@@ -2298,7 +2263,7 @@
       <c r="AE16" s="8"/>
       <c r="AF16" s="8"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32">
       <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
@@ -2364,7 +2329,7 @@
       </c>
       <c r="AF17" s="12"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32">
       <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
@@ -2418,7 +2383,7 @@
       <c r="AE18" s="8"/>
       <c r="AF18" s="8"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32">
       <c r="A19" s="15" t="s">
         <v>44</v>
       </c>
@@ -2429,7 +2394,7 @@
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32">
       <c r="A20" s="19" t="s">
         <v>62</v>
       </c>
@@ -2505,7 +2470,7 @@
       </c>
       <c r="AF20" s="7"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
@@ -2513,7 +2478,7 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
@@ -2527,7 +2492,7 @@
       <c r="M25" s="32"/>
       <c r="N25" s="32"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -2535,13 +2500,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32">
       <c r="G27" s="31" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="31"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
@@ -2550,7 +2515,7 @@
       </c>
       <c r="I28" s="31"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -2558,7 +2523,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
@@ -2568,7 +2533,7 @@
       <c r="I30" s="31"/>
       <c r="J30" s="31"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
@@ -2594,27 +2559,28 @@
   <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="29.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="29.25" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.625" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
     <col min="31" max="31" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2648,7 +2614,7 @@
       <c r="K1" s="18">
         <v>42926</v>
       </c>
-      <c r="L1" s="5">
+      <c r="L1" s="18">
         <v>42927</v>
       </c>
       <c r="M1" s="5">
@@ -2715,7 +2681,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34">
       <c r="A2" s="6" t="s">
         <v>36</v>
       </c>
@@ -2762,7 +2728,7 @@
       <c r="AF2" s="8"/>
       <c r="AG2" s="8"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34">
       <c r="A3" s="9" t="s">
         <v>32</v>
       </c>
@@ -2807,7 +2773,7 @@
       <c r="AF3" s="12"/>
       <c r="AG3" s="12"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34">
       <c r="A4" s="9" t="s">
         <v>35</v>
       </c>
@@ -2835,7 +2801,9 @@
       <c r="K4" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>182</v>
+      </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -2858,7 +2826,7 @@
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34">
       <c r="A5" s="9" t="s">
         <v>154</v>
       </c>
@@ -2907,7 +2875,7 @@
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34">
       <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
@@ -2954,7 +2922,7 @@
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34">
       <c r="A7" s="14" t="s">
         <v>160</v>
       </c>
@@ -2995,7 +2963,7 @@
       <c r="AF7" s="12"/>
       <c r="AG7" s="12"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" ht="14.45">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -3030,7 +2998,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" ht="14.45">
       <c r="A9" s="9"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -3065,7 +3033,7 @@
       <c r="AF9" s="12"/>
       <c r="AG9" s="12"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" ht="14.45">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -3100,7 +3068,7 @@
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" ht="14.45">
       <c r="A11" s="9"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -3135,7 +3103,7 @@
       <c r="AF11" s="12"/>
       <c r="AG11" s="12"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" ht="14.45">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -3170,7 +3138,7 @@
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" ht="14.45">
       <c r="A13" s="9"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -3255,7 +3223,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" ht="14.45">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -3291,7 +3259,7 @@
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" ht="14.45">
       <c r="A15" s="9"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -3326,7 +3294,7 @@
       <c r="AF15" s="12"/>
       <c r="AG15" s="12"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" ht="14.45">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -3361,7 +3329,7 @@
       <c r="AF16" s="8"/>
       <c r="AG16" s="8"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" ht="14.45">
       <c r="A17" s="9"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -3396,7 +3364,7 @@
       <c r="AF17" s="11"/>
       <c r="AG17" s="11"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" ht="14.45">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -3431,7 +3399,7 @@
       <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" ht="14.45">
       <c r="A19" s="9"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -3466,7 +3434,7 @@
       <c r="AG19" s="29"/>
       <c r="AH19" s="29"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" ht="14.45">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3501,7 +3469,7 @@
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34">
       <c r="I22" s="28" t="s">
         <v>58</v>
       </c>
@@ -3515,7 +3483,7 @@
       <c r="O22" s="29"/>
       <c r="P22" s="29"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34">
       <c r="I23" s="28" t="s">
         <v>24</v>
       </c>
@@ -3529,7 +3497,7 @@
       <c r="O23" s="32"/>
       <c r="P23" s="32"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34">
       <c r="I24" s="28" t="s">
         <v>54</v>
       </c>
@@ -3543,7 +3511,7 @@
       <c r="O24" s="30"/>
       <c r="P24" s="30"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34">
       <c r="I25" s="31" t="s">
         <v>45</v>
       </c>
@@ -3555,7 +3523,7 @@
       <c r="O25" s="29"/>
       <c r="P25" s="29"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34">
       <c r="I26" s="28" t="s">
         <v>49</v>
       </c>
@@ -3569,7 +3537,7 @@
       <c r="O26" s="29"/>
       <c r="P26" s="29"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34">
       <c r="I27" s="28" t="s">
         <v>46</v>
       </c>
@@ -3583,7 +3551,7 @@
       <c r="O27" s="29"/>
       <c r="P27" s="29"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34">
       <c r="I28" s="28" t="s">
         <v>51</v>
       </c>
@@ -3597,7 +3565,7 @@
       <c r="O28" s="29"/>
       <c r="P28" s="29"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34">
       <c r="I29" s="28" t="s">
         <v>57</v>
       </c>
@@ -3632,12 +3600,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3648,22 +3616,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -3683,18 +3651,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="41.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3717,7 +3685,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3728,7 +3696,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3745,7 +3713,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -3756,7 +3724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -3764,7 +3732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="184">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -769,6 +769,10 @@
   </si>
   <si>
     <t>0-2.4%（328-338）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1.5%（426-436）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1437,7 +1441,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="14.45">
+    <row r="10" spans="1:1">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -1963,7 +1967,7 @@
       <c r="AE9" s="12"/>
       <c r="AF9" s="12"/>
     </row>
-    <row r="10" spans="1:32" ht="14.45">
+    <row r="10" spans="1:32">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -2560,7 +2564,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L4" sqref="L4"/>
+      <selection pane="topRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2577,6 +2581,7 @@
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.625" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
+    <col min="13" max="13" width="16.625" customWidth="1"/>
     <col min="31" max="31" width="9" style="29"/>
   </cols>
   <sheetData>
@@ -2617,7 +2622,7 @@
       <c r="L1" s="18">
         <v>42927</v>
       </c>
-      <c r="M1" s="5">
+      <c r="M1" s="18">
         <v>42928</v>
       </c>
       <c r="N1" s="5">
@@ -2853,7 +2858,9 @@
         <v>176</v>
       </c>
       <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
+      <c r="M5" s="11" t="s">
+        <v>183</v>
+      </c>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
@@ -2963,7 +2970,7 @@
       <c r="AF7" s="12"/>
       <c r="AG7" s="12"/>
     </row>
-    <row r="8" spans="1:34" ht="14.45">
+    <row r="8" spans="1:34">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -2998,7 +3005,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
     </row>
-    <row r="9" spans="1:34" ht="14.45">
+    <row r="9" spans="1:34">
       <c r="A9" s="9"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -3033,7 +3040,7 @@
       <c r="AF9" s="12"/>
       <c r="AG9" s="12"/>
     </row>
-    <row r="10" spans="1:34" ht="14.45">
+    <row r="10" spans="1:34">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -3068,7 +3075,7 @@
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
     </row>
-    <row r="11" spans="1:34" ht="14.45">
+    <row r="11" spans="1:34">
       <c r="A11" s="9"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -3103,7 +3110,7 @@
       <c r="AF11" s="12"/>
       <c r="AG11" s="12"/>
     </row>
-    <row r="12" spans="1:34" ht="14.45">
+    <row r="12" spans="1:34">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -3138,7 +3145,7 @@
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:34" ht="14.45">
+    <row r="13" spans="1:34">
       <c r="A13" s="9"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -3223,7 +3230,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="14.45">
+    <row r="14" spans="1:34">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -3259,7 +3266,7 @@
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
     </row>
-    <row r="15" spans="1:34" ht="14.45">
+    <row r="15" spans="1:34">
       <c r="A15" s="9"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -3294,7 +3301,7 @@
       <c r="AF15" s="12"/>
       <c r="AG15" s="12"/>
     </row>
-    <row r="16" spans="1:34" ht="14.45">
+    <row r="16" spans="1:34">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -3329,7 +3336,7 @@
       <c r="AF16" s="8"/>
       <c r="AG16" s="8"/>
     </row>
-    <row r="17" spans="1:34" ht="14.45">
+    <row r="17" spans="1:34">
       <c r="A17" s="9"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -3364,7 +3371,7 @@
       <c r="AF17" s="11"/>
       <c r="AG17" s="11"/>
     </row>
-    <row r="18" spans="1:34" ht="14.45">
+    <row r="18" spans="1:34">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -3399,7 +3406,7 @@
       <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
     </row>
-    <row r="19" spans="1:34" ht="14.45">
+    <row r="19" spans="1:34">
       <c r="A19" s="9"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -3434,7 +3441,7 @@
       <c r="AG19" s="29"/>
       <c r="AH19" s="29"/>
     </row>
-    <row r="20" spans="1:34" ht="14.45">
+    <row r="20" spans="1:34">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3621,7 +3628,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.45">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>16</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="185">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -773,6 +773,10 @@
   </si>
   <si>
     <t>0-1.5%（426-436）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-2.7%（339-350）SpringMVC结束</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2563,8 +2567,8 @@
   <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M5" sqref="M5"/>
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2581,7 +2585,7 @@
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.625" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
-    <col min="13" max="13" width="16.625" customWidth="1"/>
+    <col min="13" max="13" width="20.5" customWidth="1"/>
     <col min="31" max="31" width="9" style="29"/>
   </cols>
   <sheetData>
@@ -2809,7 +2813,9 @@
       <c r="L4" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="M4" s="7"/>
+      <c r="M4" s="7" t="s">
+        <v>184</v>
+      </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="186">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -777,6 +777,10 @@
   </si>
   <si>
     <t>0-2.7%（339-350）SpringMVC结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1%（356-361）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2567,8 +2571,8 @@
   <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M4" sqref="M4"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2913,7 +2917,9 @@
         <v>178</v>
       </c>
       <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="M6" s="7" t="s">
+        <v>185</v>
+      </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -14,11 +14,12 @@
     <sheet name="格式1.0" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="189">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -781,6 +782,18 @@
   </si>
   <si>
     <t>0-1%（356-361）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-5%（437-460）图结束，最后的最短路径没仔细看，就这样吧这本书结束以后需要再看。后面两章不重要，不看了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2571,8 +2584,8 @@
   <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M6" sqref="M6"/>
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L12" sqref="L12:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2590,6 +2603,7 @@
     <col min="11" max="11" width="18.625" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
     <col min="13" max="13" width="20.5" customWidth="1"/>
+    <col min="14" max="14" width="17.75" customWidth="1"/>
     <col min="31" max="31" width="9" style="29"/>
   </cols>
   <sheetData>
@@ -2633,7 +2647,7 @@
       <c r="M1" s="18">
         <v>42928</v>
       </c>
-      <c r="N1" s="5">
+      <c r="N1" s="18">
         <v>42929</v>
       </c>
       <c r="O1" s="5">
@@ -2871,13 +2885,27 @@
       <c r="M5" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
+      <c r="N5" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>188</v>
+      </c>
       <c r="U5" s="11"/>
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -14,12 +14,11 @@
     <sheet name="格式1.0" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="191">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -794,6 +793,14 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-4.3%（362-383）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2584,8 +2591,8 @@
   <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L12" sqref="L12:M12"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2834,7 +2841,9 @@
       <c r="M4" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7" t="s">
+        <v>189</v>
+      </c>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
@@ -2948,7 +2957,9 @@
       <c r="M6" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="N6" s="7"/>
+      <c r="N6" s="7" t="s">
+        <v>190</v>
+      </c>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="193">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -802,6 +802,13 @@
   <si>
     <t>0-4.3%（362-383）</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Netty权威指南 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1.2%（29-36）</t>
   </si>
 </sst>
 </file>
@@ -2592,7 +2599,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N6" sqref="N6"/>
+      <selection pane="topRight" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2611,6 +2618,7 @@
     <col min="12" max="12" width="20" customWidth="1"/>
     <col min="13" max="13" width="20.5" customWidth="1"/>
     <col min="14" max="14" width="17.75" customWidth="1"/>
+    <col min="15" max="15" width="16.75" customWidth="1"/>
     <col min="31" max="31" width="9" style="29"/>
   </cols>
   <sheetData>
@@ -3022,7 +3030,9 @@
       <c r="AG7" s="12"/>
     </row>
     <row r="8" spans="1:34">
-      <c r="A8" s="6"/>
+      <c r="A8" s="6" t="s">
+        <v>191</v>
+      </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -3036,7 +3046,9 @@
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="O8" s="7" t="s">
+        <v>192</v>
+      </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="194">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -809,6 +809,10 @@
   </si>
   <si>
     <t>0-1.2%（29-36）</t>
+  </si>
+  <si>
+    <t>0-3%（384-398）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2598,8 +2602,8 @@
   <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A8" sqref="A8:XFD8"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2665,7 +2669,7 @@
       <c r="N1" s="18">
         <v>42929</v>
       </c>
-      <c r="O1" s="5">
+      <c r="O1" s="18">
         <v>42930</v>
       </c>
       <c r="P1" s="5">
@@ -2968,7 +2972,9 @@
       <c r="N6" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="O6" s="7"/>
+      <c r="O6" s="7" t="s">
+        <v>193</v>
+      </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="196">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -812,6 +812,14 @@
   </si>
   <si>
     <t>0-3%（384-398）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高性能MySQl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-0.7%(232-238)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2603,7 +2611,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O1" sqref="O1"/>
+      <selection pane="topRight" activeCell="R6" activeCellId="1" sqref="O9 R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3075,7 +3083,9 @@
       <c r="AG8" s="8"/>
     </row>
     <row r="9" spans="1:34">
-      <c r="A9" s="9"/>
+      <c r="A9" s="9" t="s">
+        <v>194</v>
+      </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -3089,7 +3099,9 @@
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
+      <c r="O9" s="11" t="s">
+        <v>195</v>
+      </c>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="完整书单" sheetId="4" r:id="rId1"/>
@@ -808,9 +813,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0-1.2%（29-36）</t>
-  </si>
-  <si>
     <t>0-3%（384-398）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -820,18 +822,22 @@
   </si>
   <si>
     <t>0-0.7%(232-238)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0-1.2%（29-36）  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1188,7 +1194,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1221,9 +1227,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1256,6 +1279,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1438,107 +1478,107 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.625" customWidth="1"/>
+    <col min="1" max="1" width="57.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="29" customFormat="1">
+    <row r="1" spans="1:1" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>62</v>
       </c>
@@ -1558,40 +1598,40 @@
       <selection pane="topRight" activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.625" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="16.75" customWidth="1"/>
-    <col min="13" max="13" width="18.375" customWidth="1"/>
-    <col min="14" max="14" width="15.75" customWidth="1"/>
-    <col min="15" max="15" width="17.875" customWidth="1"/>
-    <col min="16" max="16" width="19.5" customWidth="1"/>
-    <col min="17" max="17" width="16.75" customWidth="1"/>
-    <col min="18" max="18" width="14.625" customWidth="1"/>
-    <col min="19" max="19" width="21.5" customWidth="1"/>
-    <col min="20" max="20" width="16.625" customWidth="1"/>
-    <col min="21" max="21" width="16.25" customWidth="1"/>
-    <col min="22" max="22" width="15.375" customWidth="1"/>
-    <col min="23" max="23" width="17.375" customWidth="1"/>
-    <col min="24" max="24" width="17.25" customWidth="1"/>
-    <col min="25" max="25" width="18.25" customWidth="1"/>
-    <col min="26" max="26" width="14.5" customWidth="1"/>
-    <col min="27" max="27" width="17.5" customWidth="1"/>
-    <col min="28" max="28" width="17.125" customWidth="1"/>
-    <col min="29" max="29" width="17.875" customWidth="1"/>
-    <col min="30" max="30" width="16.75" customWidth="1"/>
-    <col min="31" max="31" width="26.5" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="15.77734375" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" customWidth="1"/>
+    <col min="16" max="16" width="19.44140625" customWidth="1"/>
+    <col min="17" max="17" width="16.77734375" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" customWidth="1"/>
+    <col min="19" max="19" width="21.44140625" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" customWidth="1"/>
+    <col min="21" max="21" width="16.21875" customWidth="1"/>
+    <col min="22" max="22" width="15.33203125" customWidth="1"/>
+    <col min="23" max="23" width="17.33203125" customWidth="1"/>
+    <col min="24" max="24" width="17.21875" customWidth="1"/>
+    <col min="25" max="25" width="18.21875" customWidth="1"/>
+    <col min="26" max="26" width="14.44140625" customWidth="1"/>
+    <col min="27" max="27" width="17.44140625" customWidth="1"/>
+    <col min="28" max="28" width="17.109375" customWidth="1"/>
+    <col min="29" max="29" width="17.88671875" customWidth="1"/>
+    <col min="30" max="30" width="16.77734375" customWidth="1"/>
+    <col min="31" max="31" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -1689,7 +1729,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
@@ -1727,7 +1767,7 @@
       <c r="AE2" s="8"/>
       <c r="AF2" s="8"/>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>38</v>
       </c>
@@ -1765,7 +1805,7 @@
       <c r="AE3" s="12"/>
       <c r="AF3" s="12"/>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
@@ -1801,7 +1841,7 @@
       <c r="AE4" s="8"/>
       <c r="AF4" s="8"/>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
@@ -1846,7 +1886,7 @@
       <c r="AE5" s="12"/>
       <c r="AF5" s="12"/>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
@@ -1882,7 +1922,7 @@
       <c r="AE6" s="8"/>
       <c r="AF6" s="8"/>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>42</v>
       </c>
@@ -1942,7 +1982,7 @@
       <c r="AE7" s="12"/>
       <c r="AF7" s="12"/>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
@@ -1978,7 +2018,7 @@
       <c r="AE8" s="8"/>
       <c r="AF8" s="8"/>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
@@ -2014,7 +2054,7 @@
       <c r="AE9" s="12"/>
       <c r="AF9" s="12"/>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -2050,7 +2090,7 @@
       <c r="AE10" s="8"/>
       <c r="AF10" s="8"/>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
@@ -2086,7 +2126,7 @@
       <c r="AE11" s="12"/>
       <c r="AF11" s="12"/>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
@@ -2130,7 +2170,7 @@
       <c r="AE12" s="8"/>
       <c r="AF12" s="8"/>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>31</v>
       </c>
@@ -2194,7 +2234,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="12.75" customHeight="1">
+    <row r="14" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -2242,7 +2282,7 @@
       <c r="AE14" s="8"/>
       <c r="AF14" s="8"/>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>33</v>
       </c>
@@ -2278,7 +2318,7 @@
       <c r="AE15" s="12"/>
       <c r="AF15" s="12"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
@@ -2314,7 +2354,7 @@
       <c r="AE16" s="8"/>
       <c r="AF16" s="8"/>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
@@ -2380,7 +2420,7 @@
       </c>
       <c r="AF17" s="12"/>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
@@ -2434,7 +2474,7 @@
       <c r="AE18" s="8"/>
       <c r="AF18" s="8"/>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>44</v>
       </c>
@@ -2445,7 +2485,7 @@
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>62</v>
       </c>
@@ -2521,7 +2561,7 @@
       </c>
       <c r="AF20" s="7"/>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
@@ -2529,7 +2569,7 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
@@ -2543,7 +2583,7 @@
       <c r="M25" s="32"/>
       <c r="N25" s="32"/>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -2551,13 +2591,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G27" s="31" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="31"/>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
@@ -2566,7 +2606,7 @@
       </c>
       <c r="I28" s="31"/>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -2574,7 +2614,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
@@ -2584,7 +2624,7 @@
       <c r="I30" s="31"/>
       <c r="J30" s="31"/>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
@@ -2611,30 +2651,30 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R6" activeCellId="1" sqref="O9 R6"/>
+      <selection pane="topRight" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.25" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="29.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="17.625" customWidth="1"/>
-    <col min="7" max="7" width="17.5" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="18.125" customWidth="1"/>
-    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
-    <col min="13" max="13" width="20.5" customWidth="1"/>
-    <col min="14" max="14" width="17.75" customWidth="1"/>
-    <col min="15" max="15" width="16.75" customWidth="1"/>
+    <col min="13" max="13" width="20.44140625" customWidth="1"/>
+    <col min="14" max="14" width="17.77734375" customWidth="1"/>
+    <col min="15" max="15" width="18.109375" customWidth="1"/>
     <col min="31" max="31" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2735,7 +2775,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>36</v>
       </c>
@@ -2782,7 +2822,7 @@
       <c r="AF2" s="8"/>
       <c r="AG2" s="8"/>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>32</v>
       </c>
@@ -2827,7 +2867,7 @@
       <c r="AF3" s="12"/>
       <c r="AG3" s="12"/>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>35</v>
       </c>
@@ -2884,7 +2924,7 @@
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>154</v>
       </c>
@@ -2949,7 +2989,7 @@
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
@@ -2981,7 +3021,7 @@
         <v>190</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
@@ -3002,7 +3042,7 @@
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>160</v>
       </c>
@@ -3043,7 +3083,7 @@
       <c r="AF7" s="12"/>
       <c r="AG7" s="12"/>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>191</v>
       </c>
@@ -3061,7 +3101,7 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
@@ -3082,9 +3122,9 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -3100,7 +3140,7 @@
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
@@ -3121,7 +3161,7 @@
       <c r="AF9" s="12"/>
       <c r="AG9" s="12"/>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -3156,7 +3196,7 @@
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -3191,7 +3231,7 @@
       <c r="AF11" s="12"/>
       <c r="AG11" s="12"/>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -3226,7 +3266,7 @@
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -3311,7 +3351,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -3347,7 +3387,7 @@
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -3382,7 +3422,7 @@
       <c r="AF15" s="12"/>
       <c r="AG15" s="12"/>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -3417,7 +3457,7 @@
       <c r="AF16" s="8"/>
       <c r="AG16" s="8"/>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -3452,7 +3492,7 @@
       <c r="AF17" s="11"/>
       <c r="AG17" s="11"/>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -3487,7 +3527,7 @@
       <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -3522,7 +3562,7 @@
       <c r="AG19" s="29"/>
       <c r="AH19" s="29"/>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3557,7 +3597,7 @@
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I22" s="28" t="s">
         <v>58</v>
       </c>
@@ -3571,7 +3611,7 @@
       <c r="O22" s="29"/>
       <c r="P22" s="29"/>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I23" s="28" t="s">
         <v>24</v>
       </c>
@@ -3585,7 +3625,7 @@
       <c r="O23" s="32"/>
       <c r="P23" s="32"/>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I24" s="28" t="s">
         <v>54</v>
       </c>
@@ -3599,7 +3639,7 @@
       <c r="O24" s="30"/>
       <c r="P24" s="30"/>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I25" s="31" t="s">
         <v>45</v>
       </c>
@@ -3611,7 +3651,7 @@
       <c r="O25" s="29"/>
       <c r="P25" s="29"/>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I26" s="28" t="s">
         <v>49</v>
       </c>
@@ -3625,7 +3665,7 @@
       <c r="O26" s="29"/>
       <c r="P26" s="29"/>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I27" s="28" t="s">
         <v>46</v>
       </c>
@@ -3639,7 +3679,7 @@
       <c r="O27" s="29"/>
       <c r="P27" s="29"/>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I28" s="28" t="s">
         <v>51</v>
       </c>
@@ -3653,7 +3693,7 @@
       <c r="O28" s="29"/>
       <c r="P28" s="29"/>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I29" s="28" t="s">
         <v>57</v>
       </c>
@@ -3688,12 +3728,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3704,22 +3744,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -3739,18 +3779,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="41.5" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="41.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3773,7 +3813,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3784,7 +3824,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3801,7 +3841,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -3812,7 +3852,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -3820,7 +3860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="完整书单" sheetId="4" r:id="rId1"/>
@@ -23,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="197">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -828,16 +823,20 @@
     <t xml:space="preserve">0-1.2%（29-36）  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>0-2.2%（37-49）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1194,7 +1193,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1227,26 +1226,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1279,23 +1261,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1478,107 +1443,107 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="57.6640625" customWidth="1"/>
+    <col min="1" max="1" width="57.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="29" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="14.45">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="9" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="9" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="19" t="s">
         <v>62</v>
       </c>
@@ -1598,40 +1563,40 @@
       <selection pane="topRight" activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="45.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="16.77734375" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" customWidth="1"/>
-    <col min="14" max="14" width="15.77734375" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" customWidth="1"/>
-    <col min="16" max="16" width="19.44140625" customWidth="1"/>
-    <col min="17" max="17" width="16.77734375" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" customWidth="1"/>
-    <col min="19" max="19" width="21.44140625" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" customWidth="1"/>
-    <col min="21" max="21" width="16.21875" customWidth="1"/>
-    <col min="22" max="22" width="15.33203125" customWidth="1"/>
-    <col min="23" max="23" width="17.33203125" customWidth="1"/>
-    <col min="24" max="24" width="17.21875" customWidth="1"/>
-    <col min="25" max="25" width="18.21875" customWidth="1"/>
-    <col min="26" max="26" width="14.44140625" customWidth="1"/>
-    <col min="27" max="27" width="17.44140625" customWidth="1"/>
-    <col min="28" max="28" width="17.109375" customWidth="1"/>
-    <col min="29" max="29" width="17.88671875" customWidth="1"/>
-    <col min="30" max="30" width="16.77734375" customWidth="1"/>
-    <col min="31" max="31" width="26.44140625" customWidth="1"/>
+    <col min="12" max="12" width="16.75" customWidth="1"/>
+    <col min="13" max="13" width="18.375" customWidth="1"/>
+    <col min="14" max="14" width="15.75" customWidth="1"/>
+    <col min="15" max="15" width="17.875" customWidth="1"/>
+    <col min="16" max="16" width="19.5" customWidth="1"/>
+    <col min="17" max="17" width="16.75" customWidth="1"/>
+    <col min="18" max="18" width="14.625" customWidth="1"/>
+    <col min="19" max="19" width="21.5" customWidth="1"/>
+    <col min="20" max="20" width="16.625" customWidth="1"/>
+    <col min="21" max="21" width="16.25" customWidth="1"/>
+    <col min="22" max="22" width="15.375" customWidth="1"/>
+    <col min="23" max="23" width="17.375" customWidth="1"/>
+    <col min="24" max="24" width="17.25" customWidth="1"/>
+    <col min="25" max="25" width="18.25" customWidth="1"/>
+    <col min="26" max="26" width="14.5" customWidth="1"/>
+    <col min="27" max="27" width="17.5" customWidth="1"/>
+    <col min="28" max="28" width="17.125" customWidth="1"/>
+    <col min="29" max="29" width="17.875" customWidth="1"/>
+    <col min="30" max="30" width="16.75" customWidth="1"/>
+    <col min="31" max="31" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -1729,7 +1694,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32">
       <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
@@ -1767,7 +1732,7 @@
       <c r="AE2" s="8"/>
       <c r="AF2" s="8"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32">
       <c r="A3" s="9" t="s">
         <v>38</v>
       </c>
@@ -1805,7 +1770,7 @@
       <c r="AE3" s="12"/>
       <c r="AF3" s="12"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
@@ -1841,7 +1806,7 @@
       <c r="AE4" s="8"/>
       <c r="AF4" s="8"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32">
       <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
@@ -1886,7 +1851,7 @@
       <c r="AE5" s="12"/>
       <c r="AF5" s="12"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32">
       <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
@@ -1922,7 +1887,7 @@
       <c r="AE6" s="8"/>
       <c r="AF6" s="8"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32">
       <c r="A7" s="14" t="s">
         <v>42</v>
       </c>
@@ -1982,7 +1947,7 @@
       <c r="AE7" s="12"/>
       <c r="AF7" s="12"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
@@ -2018,7 +1983,7 @@
       <c r="AE8" s="8"/>
       <c r="AF8" s="8"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32">
       <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
@@ -2054,7 +2019,7 @@
       <c r="AE9" s="12"/>
       <c r="AF9" s="12"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="14.45">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -2090,7 +2055,7 @@
       <c r="AE10" s="8"/>
       <c r="AF10" s="8"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
@@ -2126,7 +2091,7 @@
       <c r="AE11" s="12"/>
       <c r="AF11" s="12"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32">
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
@@ -2170,7 +2135,7 @@
       <c r="AE12" s="8"/>
       <c r="AF12" s="8"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
         <v>31</v>
       </c>
@@ -2234,7 +2199,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="12.75" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -2282,7 +2247,7 @@
       <c r="AE14" s="8"/>
       <c r="AF14" s="8"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
         <v>33</v>
       </c>
@@ -2318,7 +2283,7 @@
       <c r="AE15" s="12"/>
       <c r="AF15" s="12"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
@@ -2354,7 +2319,7 @@
       <c r="AE16" s="8"/>
       <c r="AF16" s="8"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32">
       <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
@@ -2420,7 +2385,7 @@
       </c>
       <c r="AF17" s="12"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32">
       <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
@@ -2474,7 +2439,7 @@
       <c r="AE18" s="8"/>
       <c r="AF18" s="8"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32">
       <c r="A19" s="15" t="s">
         <v>44</v>
       </c>
@@ -2485,7 +2450,7 @@
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32">
       <c r="A20" s="19" t="s">
         <v>62</v>
       </c>
@@ -2561,7 +2526,7 @@
       </c>
       <c r="AF20" s="7"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
@@ -2569,7 +2534,7 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
@@ -2583,7 +2548,7 @@
       <c r="M25" s="32"/>
       <c r="N25" s="32"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -2591,13 +2556,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32">
       <c r="G27" s="31" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="31"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
@@ -2606,7 +2571,7 @@
       </c>
       <c r="I28" s="31"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -2614,7 +2579,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
@@ -2624,7 +2589,7 @@
       <c r="I30" s="31"/>
       <c r="J30" s="31"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
@@ -2650,31 +2615,32 @@
   <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P4" sqref="P4"/>
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="29.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="29.25" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.625" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
-    <col min="13" max="13" width="20.44140625" customWidth="1"/>
-    <col min="14" max="14" width="17.77734375" customWidth="1"/>
-    <col min="15" max="15" width="18.109375" customWidth="1"/>
+    <col min="13" max="13" width="20.5" customWidth="1"/>
+    <col min="14" max="14" width="17.75" customWidth="1"/>
+    <col min="15" max="15" width="18.125" customWidth="1"/>
+    <col min="18" max="18" width="16.125" customWidth="1"/>
     <col min="31" max="31" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2775,7 +2741,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34">
       <c r="A2" s="6" t="s">
         <v>36</v>
       </c>
@@ -2822,7 +2788,7 @@
       <c r="AF2" s="8"/>
       <c r="AG2" s="8"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34">
       <c r="A3" s="9" t="s">
         <v>32</v>
       </c>
@@ -2867,7 +2833,7 @@
       <c r="AF3" s="12"/>
       <c r="AG3" s="12"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34">
       <c r="A4" s="9" t="s">
         <v>35</v>
       </c>
@@ -2924,7 +2890,7 @@
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34">
       <c r="A5" s="9" t="s">
         <v>154</v>
       </c>
@@ -2989,7 +2955,7 @@
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34">
       <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
@@ -3042,7 +3008,7 @@
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34">
       <c r="A7" s="14" t="s">
         <v>160</v>
       </c>
@@ -3083,7 +3049,7 @@
       <c r="AF7" s="12"/>
       <c r="AG7" s="12"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34">
       <c r="A8" s="6" t="s">
         <v>191</v>
       </c>
@@ -3105,7 +3071,9 @@
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="R8" s="7" t="s">
+        <v>196</v>
+      </c>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
@@ -3122,7 +3090,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34">
       <c r="A9" s="9" t="s">
         <v>193</v>
       </c>
@@ -3161,7 +3129,7 @@
       <c r="AF9" s="12"/>
       <c r="AG9" s="12"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" ht="14.45">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -3196,7 +3164,7 @@
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" ht="14.45">
       <c r="A11" s="9"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -3231,7 +3199,7 @@
       <c r="AF11" s="12"/>
       <c r="AG11" s="12"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" ht="14.45">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -3266,7 +3234,7 @@
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" ht="14.45">
       <c r="A13" s="9"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -3351,7 +3319,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" ht="14.45">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -3387,7 +3355,7 @@
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" ht="14.45">
       <c r="A15" s="9"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -3422,7 +3390,7 @@
       <c r="AF15" s="12"/>
       <c r="AG15" s="12"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" ht="14.45">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -3457,7 +3425,7 @@
       <c r="AF16" s="8"/>
       <c r="AG16" s="8"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" ht="14.45">
       <c r="A17" s="9"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -3492,7 +3460,7 @@
       <c r="AF17" s="11"/>
       <c r="AG17" s="11"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" ht="14.45">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -3527,7 +3495,7 @@
       <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" ht="14.45">
       <c r="A19" s="9"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -3562,7 +3530,7 @@
       <c r="AG19" s="29"/>
       <c r="AH19" s="29"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" ht="14.45">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3597,7 +3565,7 @@
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34">
       <c r="I22" s="28" t="s">
         <v>58</v>
       </c>
@@ -3611,7 +3579,7 @@
       <c r="O22" s="29"/>
       <c r="P22" s="29"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34">
       <c r="I23" s="28" t="s">
         <v>24</v>
       </c>
@@ -3625,7 +3593,7 @@
       <c r="O23" s="32"/>
       <c r="P23" s="32"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34">
       <c r="I24" s="28" t="s">
         <v>54</v>
       </c>
@@ -3639,7 +3607,7 @@
       <c r="O24" s="30"/>
       <c r="P24" s="30"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34">
       <c r="I25" s="31" t="s">
         <v>45</v>
       </c>
@@ -3651,7 +3619,7 @@
       <c r="O25" s="29"/>
       <c r="P25" s="29"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34">
       <c r="I26" s="28" t="s">
         <v>49</v>
       </c>
@@ -3665,7 +3633,7 @@
       <c r="O26" s="29"/>
       <c r="P26" s="29"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34">
       <c r="I27" s="28" t="s">
         <v>46</v>
       </c>
@@ -3679,7 +3647,7 @@
       <c r="O27" s="29"/>
       <c r="P27" s="29"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34">
       <c r="I28" s="28" t="s">
         <v>51</v>
       </c>
@@ -3693,7 +3661,7 @@
       <c r="O28" s="29"/>
       <c r="P28" s="29"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34">
       <c r="I29" s="28" t="s">
         <v>57</v>
       </c>
@@ -3728,12 +3696,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3744,22 +3712,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -3779,18 +3747,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="41.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3813,7 +3781,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3824,7 +3792,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3841,7 +3809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -3852,7 +3820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -3860,7 +3828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="199">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -825,6 +825,14 @@
   </si>
   <si>
     <t>0-2.2%（37-49）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-13%（399-459）最后一章没看，就算看完了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -912,7 +920,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -946,6 +954,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFDCE6F1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor rgb="FFDCE6F1"/>
       </patternFill>
     </fill>
@@ -1010,7 +1024,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1108,6 +1122,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1493,7 +1510,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="14.45">
+    <row r="10" spans="1:1">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -2019,7 +2036,7 @@
       <c r="AE9" s="12"/>
       <c r="AF9" s="12"/>
     </row>
-    <row r="10" spans="1:32" ht="14.45">
+    <row r="10" spans="1:32">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -2616,7 +2633,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R8" sqref="R8"/>
+      <selection pane="topRight" activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2991,10 +3008,18 @@
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
+      <c r="R6" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>198</v>
+      </c>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
@@ -3129,7 +3154,7 @@
       <c r="AF9" s="12"/>
       <c r="AG9" s="12"/>
     </row>
-    <row r="10" spans="1:34" ht="14.45">
+    <row r="10" spans="1:34">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -3164,7 +3189,7 @@
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
     </row>
-    <row r="11" spans="1:34" ht="14.45">
+    <row r="11" spans="1:34">
       <c r="A11" s="9"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -3199,7 +3224,7 @@
       <c r="AF11" s="12"/>
       <c r="AG11" s="12"/>
     </row>
-    <row r="12" spans="1:34" ht="14.45">
+    <row r="12" spans="1:34">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -3234,7 +3259,7 @@
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:34" ht="14.45">
+    <row r="13" spans="1:34">
       <c r="A13" s="9"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -3319,7 +3344,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="14.45">
+    <row r="14" spans="1:34">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -3355,7 +3380,7 @@
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
     </row>
-    <row r="15" spans="1:34" ht="14.45">
+    <row r="15" spans="1:34">
       <c r="A15" s="9"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -3390,7 +3415,7 @@
       <c r="AF15" s="12"/>
       <c r="AG15" s="12"/>
     </row>
-    <row r="16" spans="1:34" ht="14.45">
+    <row r="16" spans="1:34">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -3425,7 +3450,7 @@
       <c r="AF16" s="8"/>
       <c r="AG16" s="8"/>
     </row>
-    <row r="17" spans="1:34" ht="14.45">
+    <row r="17" spans="1:34">
       <c r="A17" s="9"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -3460,7 +3485,7 @@
       <c r="AF17" s="11"/>
       <c r="AG17" s="11"/>
     </row>
-    <row r="18" spans="1:34" ht="14.45">
+    <row r="18" spans="1:34">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -3495,7 +3520,7 @@
       <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
     </row>
-    <row r="19" spans="1:34" ht="14.45">
+    <row r="19" spans="1:34">
       <c r="A19" s="9"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -3530,7 +3555,7 @@
       <c r="AG19" s="29"/>
       <c r="AH19" s="29"/>
     </row>
-    <row r="20" spans="1:34" ht="14.45">
+    <row r="20" spans="1:34">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3717,7 +3742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.45">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>16</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="200">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -833,6 +833,10 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1.6%（239-252）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1118,13 +1122,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2555,15 +2559,15 @@
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="32" t="s">
+      <c r="H25" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
     </row>
     <row r="26" spans="1:32">
       <c r="G26" s="1" t="s">
@@ -2574,19 +2578,19 @@
       </c>
     </row>
     <row r="27" spans="1:32">
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="H27" s="31"/>
+      <c r="H27" s="32"/>
     </row>
     <row r="28" spans="1:32">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="31" t="s">
+      <c r="H28" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="31"/>
+      <c r="I28" s="32"/>
     </row>
     <row r="29" spans="1:32">
       <c r="G29" s="1" t="s">
@@ -2600,11 +2604,11 @@
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H30" s="31" t="s">
+      <c r="H30" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
     </row>
     <row r="31" spans="1:32">
       <c r="G31" s="1" t="s">
@@ -2633,7 +2637,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U6" sqref="U6"/>
+      <selection pane="topRight" activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2709,7 +2713,7 @@
       <c r="Q1" s="5">
         <v>42932</v>
       </c>
-      <c r="R1" s="5">
+      <c r="R1" s="18">
         <v>42933</v>
       </c>
       <c r="S1" s="5">
@@ -3008,7 +3012,7 @@
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="33" t="s">
+      <c r="R6" s="31" t="s">
         <v>197</v>
       </c>
       <c r="S6" s="7" t="s">
@@ -3137,7 +3141,9 @@
       </c>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
+      <c r="R9" s="11" t="s">
+        <v>199</v>
+      </c>
       <c r="S9" s="11"/>
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
@@ -3608,15 +3614,15 @@
       <c r="I23" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="32" t="s">
+      <c r="J23" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
     </row>
     <row r="24" spans="1:34">
       <c r="I24" s="28" t="s">
@@ -3633,10 +3639,10 @@
       <c r="P24" s="30"/>
     </row>
     <row r="25" spans="1:34">
-      <c r="I25" s="31" t="s">
+      <c r="I25" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="J25" s="31"/>
+      <c r="J25" s="32"/>
       <c r="K25" s="29"/>
       <c r="L25" s="29"/>
       <c r="M25" s="29"/>
@@ -3648,10 +3654,10 @@
       <c r="I26" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="J26" s="31" t="s">
+      <c r="J26" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="K26" s="31"/>
+      <c r="K26" s="32"/>
       <c r="L26" s="29"/>
       <c r="M26" s="29"/>
       <c r="N26" s="29"/>
@@ -3676,11 +3682,11 @@
       <c r="I28" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="J28" s="31" t="s">
+      <c r="J28" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
       <c r="M28" s="29"/>
       <c r="N28" s="29"/>
       <c r="O28" s="29"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="完整书单" sheetId="4" r:id="rId1"/>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="201">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -839,16 +844,20 @@
     <t>0-1.6%（239-252）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>0-12%（310-352）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1214,7 +1223,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1247,9 +1256,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1282,6 +1308,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1464,107 +1507,107 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.625" customWidth="1"/>
+    <col min="1" max="1" width="57.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="29" customFormat="1">
+    <row r="1" spans="1:1" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>62</v>
       </c>
@@ -1584,40 +1627,40 @@
       <selection pane="topRight" activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.625" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="16.75" customWidth="1"/>
-    <col min="13" max="13" width="18.375" customWidth="1"/>
-    <col min="14" max="14" width="15.75" customWidth="1"/>
-    <col min="15" max="15" width="17.875" customWidth="1"/>
-    <col min="16" max="16" width="19.5" customWidth="1"/>
-    <col min="17" max="17" width="16.75" customWidth="1"/>
-    <col min="18" max="18" width="14.625" customWidth="1"/>
-    <col min="19" max="19" width="21.5" customWidth="1"/>
-    <col min="20" max="20" width="16.625" customWidth="1"/>
-    <col min="21" max="21" width="16.25" customWidth="1"/>
-    <col min="22" max="22" width="15.375" customWidth="1"/>
-    <col min="23" max="23" width="17.375" customWidth="1"/>
-    <col min="24" max="24" width="17.25" customWidth="1"/>
-    <col min="25" max="25" width="18.25" customWidth="1"/>
-    <col min="26" max="26" width="14.5" customWidth="1"/>
-    <col min="27" max="27" width="17.5" customWidth="1"/>
-    <col min="28" max="28" width="17.125" customWidth="1"/>
-    <col min="29" max="29" width="17.875" customWidth="1"/>
-    <col min="30" max="30" width="16.75" customWidth="1"/>
-    <col min="31" max="31" width="26.5" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="15.77734375" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" customWidth="1"/>
+    <col min="16" max="16" width="19.44140625" customWidth="1"/>
+    <col min="17" max="17" width="16.77734375" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" customWidth="1"/>
+    <col min="19" max="19" width="21.44140625" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" customWidth="1"/>
+    <col min="21" max="21" width="16.21875" customWidth="1"/>
+    <col min="22" max="22" width="15.33203125" customWidth="1"/>
+    <col min="23" max="23" width="17.33203125" customWidth="1"/>
+    <col min="24" max="24" width="17.21875" customWidth="1"/>
+    <col min="25" max="25" width="18.21875" customWidth="1"/>
+    <col min="26" max="26" width="14.44140625" customWidth="1"/>
+    <col min="27" max="27" width="17.44140625" customWidth="1"/>
+    <col min="28" max="28" width="17.109375" customWidth="1"/>
+    <col min="29" max="29" width="17.88671875" customWidth="1"/>
+    <col min="30" max="30" width="16.77734375" customWidth="1"/>
+    <col min="31" max="31" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -1715,7 +1758,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
@@ -1753,7 +1796,7 @@
       <c r="AE2" s="8"/>
       <c r="AF2" s="8"/>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>38</v>
       </c>
@@ -1791,7 +1834,7 @@
       <c r="AE3" s="12"/>
       <c r="AF3" s="12"/>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
@@ -1827,7 +1870,7 @@
       <c r="AE4" s="8"/>
       <c r="AF4" s="8"/>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
@@ -1872,7 +1915,7 @@
       <c r="AE5" s="12"/>
       <c r="AF5" s="12"/>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
@@ -1908,7 +1951,7 @@
       <c r="AE6" s="8"/>
       <c r="AF6" s="8"/>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>42</v>
       </c>
@@ -1968,7 +2011,7 @@
       <c r="AE7" s="12"/>
       <c r="AF7" s="12"/>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
@@ -2004,7 +2047,7 @@
       <c r="AE8" s="8"/>
       <c r="AF8" s="8"/>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
@@ -2040,7 +2083,7 @@
       <c r="AE9" s="12"/>
       <c r="AF9" s="12"/>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -2076,7 +2119,7 @@
       <c r="AE10" s="8"/>
       <c r="AF10" s="8"/>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
@@ -2112,7 +2155,7 @@
       <c r="AE11" s="12"/>
       <c r="AF11" s="12"/>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
@@ -2156,7 +2199,7 @@
       <c r="AE12" s="8"/>
       <c r="AF12" s="8"/>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>31</v>
       </c>
@@ -2220,7 +2263,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="12.75" customHeight="1">
+    <row r="14" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -2268,7 +2311,7 @@
       <c r="AE14" s="8"/>
       <c r="AF14" s="8"/>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>33</v>
       </c>
@@ -2304,7 +2347,7 @@
       <c r="AE15" s="12"/>
       <c r="AF15" s="12"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
@@ -2340,7 +2383,7 @@
       <c r="AE16" s="8"/>
       <c r="AF16" s="8"/>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
@@ -2406,7 +2449,7 @@
       </c>
       <c r="AF17" s="12"/>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
@@ -2460,7 +2503,7 @@
       <c r="AE18" s="8"/>
       <c r="AF18" s="8"/>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>44</v>
       </c>
@@ -2471,7 +2514,7 @@
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>62</v>
       </c>
@@ -2547,7 +2590,7 @@
       </c>
       <c r="AF20" s="7"/>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
@@ -2555,7 +2598,7 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
@@ -2569,7 +2612,7 @@
       <c r="M25" s="33"/>
       <c r="N25" s="33"/>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -2577,13 +2620,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G27" s="32" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="32"/>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
@@ -2592,7 +2635,7 @@
       </c>
       <c r="I28" s="32"/>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -2600,7 +2643,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
@@ -2610,7 +2653,7 @@
       <c r="I30" s="32"/>
       <c r="J30" s="32"/>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
@@ -2636,32 +2679,32 @@
   <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R2" sqref="R2"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.25" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="29.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="17.625" customWidth="1"/>
-    <col min="7" max="7" width="17.5" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="18.125" customWidth="1"/>
-    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
-    <col min="13" max="13" width="20.5" customWidth="1"/>
-    <col min="14" max="14" width="17.75" customWidth="1"/>
-    <col min="15" max="15" width="18.125" customWidth="1"/>
-    <col min="18" max="18" width="16.125" customWidth="1"/>
+    <col min="13" max="13" width="20.44140625" customWidth="1"/>
+    <col min="14" max="14" width="17.77734375" customWidth="1"/>
+    <col min="15" max="15" width="18.109375" customWidth="1"/>
+    <col min="18" max="18" width="16.109375" customWidth="1"/>
     <col min="31" max="31" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2762,7 +2805,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>36</v>
       </c>
@@ -2792,7 +2835,9 @@
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
+      <c r="R2" s="31" t="s">
+        <v>200</v>
+      </c>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
@@ -2809,7 +2854,7 @@
       <c r="AF2" s="8"/>
       <c r="AG2" s="8"/>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>32</v>
       </c>
@@ -2854,7 +2899,7 @@
       <c r="AF3" s="12"/>
       <c r="AG3" s="12"/>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>35</v>
       </c>
@@ -2911,7 +2956,7 @@
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>154</v>
       </c>
@@ -2976,7 +3021,7 @@
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
@@ -3037,7 +3082,7 @@
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>160</v>
       </c>
@@ -3078,7 +3123,7 @@
       <c r="AF7" s="12"/>
       <c r="AG7" s="12"/>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>191</v>
       </c>
@@ -3119,7 +3164,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>193</v>
       </c>
@@ -3160,7 +3205,7 @@
       <c r="AF9" s="12"/>
       <c r="AG9" s="12"/>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -3195,7 +3240,7 @@
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -3230,7 +3275,7 @@
       <c r="AF11" s="12"/>
       <c r="AG11" s="12"/>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -3265,7 +3310,7 @@
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -3350,7 +3395,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -3386,7 +3431,7 @@
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -3421,7 +3466,7 @@
       <c r="AF15" s="12"/>
       <c r="AG15" s="12"/>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -3456,7 +3501,7 @@
       <c r="AF16" s="8"/>
       <c r="AG16" s="8"/>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -3491,7 +3536,7 @@
       <c r="AF17" s="11"/>
       <c r="AG17" s="11"/>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -3526,7 +3571,7 @@
       <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -3561,7 +3606,7 @@
       <c r="AG19" s="29"/>
       <c r="AH19" s="29"/>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3596,7 +3641,7 @@
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I22" s="28" t="s">
         <v>58</v>
       </c>
@@ -3610,7 +3655,7 @@
       <c r="O22" s="29"/>
       <c r="P22" s="29"/>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I23" s="28" t="s">
         <v>24</v>
       </c>
@@ -3624,7 +3669,7 @@
       <c r="O23" s="33"/>
       <c r="P23" s="33"/>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I24" s="28" t="s">
         <v>54</v>
       </c>
@@ -3638,7 +3683,7 @@
       <c r="O24" s="30"/>
       <c r="P24" s="30"/>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I25" s="32" t="s">
         <v>45</v>
       </c>
@@ -3650,7 +3695,7 @@
       <c r="O25" s="29"/>
       <c r="P25" s="29"/>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I26" s="28" t="s">
         <v>49</v>
       </c>
@@ -3664,7 +3709,7 @@
       <c r="O26" s="29"/>
       <c r="P26" s="29"/>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I27" s="28" t="s">
         <v>46</v>
       </c>
@@ -3678,7 +3723,7 @@
       <c r="O27" s="29"/>
       <c r="P27" s="29"/>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I28" s="28" t="s">
         <v>51</v>
       </c>
@@ -3692,7 +3737,7 @@
       <c r="O28" s="29"/>
       <c r="P28" s="29"/>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I29" s="28" t="s">
         <v>57</v>
       </c>
@@ -3727,12 +3772,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3743,22 +3788,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -3778,18 +3823,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="41.5" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="41.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3812,7 +3857,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3823,7 +3868,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3840,7 +3885,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -3851,7 +3896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -3859,7 +3904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="完整书单" sheetId="4" r:id="rId1"/>
@@ -23,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="202">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -848,16 +843,20 @@
     <t>0-12%（310-352）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>0-1.6%（253-265）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1223,7 +1222,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1256,26 +1255,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1308,23 +1290,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1507,107 +1472,107 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="57.6640625" customWidth="1"/>
+    <col min="1" max="1" width="57.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="29" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="14.45">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="9" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="9" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="19" t="s">
         <v>62</v>
       </c>
@@ -1627,40 +1592,40 @@
       <selection pane="topRight" activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="45.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="16.77734375" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" customWidth="1"/>
-    <col min="14" max="14" width="15.77734375" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" customWidth="1"/>
-    <col min="16" max="16" width="19.44140625" customWidth="1"/>
-    <col min="17" max="17" width="16.77734375" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" customWidth="1"/>
-    <col min="19" max="19" width="21.44140625" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" customWidth="1"/>
-    <col min="21" max="21" width="16.21875" customWidth="1"/>
-    <col min="22" max="22" width="15.33203125" customWidth="1"/>
-    <col min="23" max="23" width="17.33203125" customWidth="1"/>
-    <col min="24" max="24" width="17.21875" customWidth="1"/>
-    <col min="25" max="25" width="18.21875" customWidth="1"/>
-    <col min="26" max="26" width="14.44140625" customWidth="1"/>
-    <col min="27" max="27" width="17.44140625" customWidth="1"/>
-    <col min="28" max="28" width="17.109375" customWidth="1"/>
-    <col min="29" max="29" width="17.88671875" customWidth="1"/>
-    <col min="30" max="30" width="16.77734375" customWidth="1"/>
-    <col min="31" max="31" width="26.44140625" customWidth="1"/>
+    <col min="12" max="12" width="16.75" customWidth="1"/>
+    <col min="13" max="13" width="18.375" customWidth="1"/>
+    <col min="14" max="14" width="15.75" customWidth="1"/>
+    <col min="15" max="15" width="17.875" customWidth="1"/>
+    <col min="16" max="16" width="19.5" customWidth="1"/>
+    <col min="17" max="17" width="16.75" customWidth="1"/>
+    <col min="18" max="18" width="14.625" customWidth="1"/>
+    <col min="19" max="19" width="21.5" customWidth="1"/>
+    <col min="20" max="20" width="16.625" customWidth="1"/>
+    <col min="21" max="21" width="16.25" customWidth="1"/>
+    <col min="22" max="22" width="15.375" customWidth="1"/>
+    <col min="23" max="23" width="17.375" customWidth="1"/>
+    <col min="24" max="24" width="17.25" customWidth="1"/>
+    <col min="25" max="25" width="18.25" customWidth="1"/>
+    <col min="26" max="26" width="14.5" customWidth="1"/>
+    <col min="27" max="27" width="17.5" customWidth="1"/>
+    <col min="28" max="28" width="17.125" customWidth="1"/>
+    <col min="29" max="29" width="17.875" customWidth="1"/>
+    <col min="30" max="30" width="16.75" customWidth="1"/>
+    <col min="31" max="31" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -1758,7 +1723,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32">
       <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
@@ -1796,7 +1761,7 @@
       <c r="AE2" s="8"/>
       <c r="AF2" s="8"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32">
       <c r="A3" s="9" t="s">
         <v>38</v>
       </c>
@@ -1834,7 +1799,7 @@
       <c r="AE3" s="12"/>
       <c r="AF3" s="12"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
@@ -1870,7 +1835,7 @@
       <c r="AE4" s="8"/>
       <c r="AF4" s="8"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32">
       <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
@@ -1915,7 +1880,7 @@
       <c r="AE5" s="12"/>
       <c r="AF5" s="12"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32">
       <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
@@ -1951,7 +1916,7 @@
       <c r="AE6" s="8"/>
       <c r="AF6" s="8"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32">
       <c r="A7" s="14" t="s">
         <v>42</v>
       </c>
@@ -2011,7 +1976,7 @@
       <c r="AE7" s="12"/>
       <c r="AF7" s="12"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
@@ -2047,7 +2012,7 @@
       <c r="AE8" s="8"/>
       <c r="AF8" s="8"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32">
       <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
@@ -2083,7 +2048,7 @@
       <c r="AE9" s="12"/>
       <c r="AF9" s="12"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="14.45">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -2119,7 +2084,7 @@
       <c r="AE10" s="8"/>
       <c r="AF10" s="8"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
@@ -2155,7 +2120,7 @@
       <c r="AE11" s="12"/>
       <c r="AF11" s="12"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32">
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
@@ -2199,7 +2164,7 @@
       <c r="AE12" s="8"/>
       <c r="AF12" s="8"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
         <v>31</v>
       </c>
@@ -2263,7 +2228,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="12.75" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -2311,7 +2276,7 @@
       <c r="AE14" s="8"/>
       <c r="AF14" s="8"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
         <v>33</v>
       </c>
@@ -2347,7 +2312,7 @@
       <c r="AE15" s="12"/>
       <c r="AF15" s="12"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
@@ -2383,7 +2348,7 @@
       <c r="AE16" s="8"/>
       <c r="AF16" s="8"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32">
       <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
@@ -2449,7 +2414,7 @@
       </c>
       <c r="AF17" s="12"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32">
       <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
@@ -2503,7 +2468,7 @@
       <c r="AE18" s="8"/>
       <c r="AF18" s="8"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32">
       <c r="A19" s="15" t="s">
         <v>44</v>
       </c>
@@ -2514,7 +2479,7 @@
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32">
       <c r="A20" s="19" t="s">
         <v>62</v>
       </c>
@@ -2590,7 +2555,7 @@
       </c>
       <c r="AF20" s="7"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
@@ -2598,7 +2563,7 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
@@ -2612,7 +2577,7 @@
       <c r="M25" s="33"/>
       <c r="N25" s="33"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -2620,13 +2585,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32">
       <c r="G27" s="32" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="32"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
@@ -2635,7 +2600,7 @@
       </c>
       <c r="I28" s="32"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -2643,7 +2608,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
@@ -2653,7 +2618,7 @@
       <c r="I30" s="32"/>
       <c r="J30" s="32"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
@@ -2679,32 +2644,33 @@
   <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O8" sqref="O8"/>
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="29.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="29.25" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.625" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
-    <col min="13" max="13" width="20.44140625" customWidth="1"/>
-    <col min="14" max="14" width="17.77734375" customWidth="1"/>
-    <col min="15" max="15" width="18.109375" customWidth="1"/>
-    <col min="18" max="18" width="16.109375" customWidth="1"/>
+    <col min="13" max="13" width="20.5" customWidth="1"/>
+    <col min="14" max="14" width="17.75" customWidth="1"/>
+    <col min="15" max="15" width="18.125" customWidth="1"/>
+    <col min="18" max="18" width="16.125" customWidth="1"/>
+    <col min="19" max="19" width="18" customWidth="1"/>
     <col min="31" max="31" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2759,7 +2725,7 @@
       <c r="R1" s="18">
         <v>42933</v>
       </c>
-      <c r="S1" s="5">
+      <c r="S1" s="18">
         <v>42934</v>
       </c>
       <c r="T1" s="5">
@@ -2805,7 +2771,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34">
       <c r="A2" s="6" t="s">
         <v>36</v>
       </c>
@@ -2854,7 +2820,7 @@
       <c r="AF2" s="8"/>
       <c r="AG2" s="8"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34">
       <c r="A3" s="9" t="s">
         <v>32</v>
       </c>
@@ -2899,7 +2865,7 @@
       <c r="AF3" s="12"/>
       <c r="AG3" s="12"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34">
       <c r="A4" s="9" t="s">
         <v>35</v>
       </c>
@@ -2956,7 +2922,7 @@
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34">
       <c r="A5" s="9" t="s">
         <v>154</v>
       </c>
@@ -3021,7 +2987,7 @@
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34">
       <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
@@ -3082,7 +3048,7 @@
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34">
       <c r="A7" s="14" t="s">
         <v>160</v>
       </c>
@@ -3123,7 +3089,7 @@
       <c r="AF7" s="12"/>
       <c r="AG7" s="12"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34">
       <c r="A8" s="6" t="s">
         <v>191</v>
       </c>
@@ -3164,7 +3130,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34">
       <c r="A9" s="9" t="s">
         <v>193</v>
       </c>
@@ -3189,7 +3155,9 @@
       <c r="R9" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="S9" s="11"/>
+      <c r="S9" s="11" t="s">
+        <v>201</v>
+      </c>
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
       <c r="V9" s="11"/>
@@ -3205,7 +3173,7 @@
       <c r="AF9" s="12"/>
       <c r="AG9" s="12"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" ht="14.45">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -3240,7 +3208,7 @@
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" ht="14.45">
       <c r="A11" s="9"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -3275,7 +3243,7 @@
       <c r="AF11" s="12"/>
       <c r="AG11" s="12"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" ht="14.45">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -3310,7 +3278,7 @@
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" ht="14.45">
       <c r="A13" s="9"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -3395,7 +3363,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" ht="14.45">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -3431,7 +3399,7 @@
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" ht="14.45">
       <c r="A15" s="9"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -3466,7 +3434,7 @@
       <c r="AF15" s="12"/>
       <c r="AG15" s="12"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" ht="14.45">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -3501,7 +3469,7 @@
       <c r="AF16" s="8"/>
       <c r="AG16" s="8"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" ht="14.45">
       <c r="A17" s="9"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -3536,7 +3504,7 @@
       <c r="AF17" s="11"/>
       <c r="AG17" s="11"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" ht="14.45">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -3571,7 +3539,7 @@
       <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" ht="14.45">
       <c r="A19" s="9"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -3606,7 +3574,7 @@
       <c r="AG19" s="29"/>
       <c r="AH19" s="29"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" ht="14.45">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3641,7 +3609,7 @@
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34">
       <c r="I22" s="28" t="s">
         <v>58</v>
       </c>
@@ -3655,7 +3623,7 @@
       <c r="O22" s="29"/>
       <c r="P22" s="29"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34">
       <c r="I23" s="28" t="s">
         <v>24</v>
       </c>
@@ -3669,7 +3637,7 @@
       <c r="O23" s="33"/>
       <c r="P23" s="33"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34">
       <c r="I24" s="28" t="s">
         <v>54</v>
       </c>
@@ -3683,7 +3651,7 @@
       <c r="O24" s="30"/>
       <c r="P24" s="30"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34">
       <c r="I25" s="32" t="s">
         <v>45</v>
       </c>
@@ -3695,7 +3663,7 @@
       <c r="O25" s="29"/>
       <c r="P25" s="29"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34">
       <c r="I26" s="28" t="s">
         <v>49</v>
       </c>
@@ -3709,7 +3677,7 @@
       <c r="O26" s="29"/>
       <c r="P26" s="29"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34">
       <c r="I27" s="28" t="s">
         <v>46</v>
       </c>
@@ -3723,7 +3691,7 @@
       <c r="O27" s="29"/>
       <c r="P27" s="29"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34">
       <c r="I28" s="28" t="s">
         <v>51</v>
       </c>
@@ -3737,7 +3705,7 @@
       <c r="O28" s="29"/>
       <c r="P28" s="29"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34">
       <c r="I29" s="28" t="s">
         <v>57</v>
       </c>
@@ -3772,12 +3740,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3788,22 +3756,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -3823,18 +3791,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="41.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3857,7 +3825,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3868,7 +3836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3885,7 +3853,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -3896,7 +3864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -3904,7 +3872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="完整书单" sheetId="4" r:id="rId1"/>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="204">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -847,16 +852,24 @@
     <t>0-1.6%（253-265）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>数据结构与算法分析java语言描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-2.6%（44-54）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1222,7 +1235,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1255,9 +1268,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1290,6 +1320,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1472,107 +1519,107 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.625" customWidth="1"/>
+    <col min="1" max="1" width="57.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="29" customFormat="1">
+    <row r="1" spans="1:1" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="14.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>62</v>
       </c>
@@ -1592,40 +1639,40 @@
       <selection pane="topRight" activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.625" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="16.75" customWidth="1"/>
-    <col min="13" max="13" width="18.375" customWidth="1"/>
-    <col min="14" max="14" width="15.75" customWidth="1"/>
-    <col min="15" max="15" width="17.875" customWidth="1"/>
-    <col min="16" max="16" width="19.5" customWidth="1"/>
-    <col min="17" max="17" width="16.75" customWidth="1"/>
-    <col min="18" max="18" width="14.625" customWidth="1"/>
-    <col min="19" max="19" width="21.5" customWidth="1"/>
-    <col min="20" max="20" width="16.625" customWidth="1"/>
-    <col min="21" max="21" width="16.25" customWidth="1"/>
-    <col min="22" max="22" width="15.375" customWidth="1"/>
-    <col min="23" max="23" width="17.375" customWidth="1"/>
-    <col min="24" max="24" width="17.25" customWidth="1"/>
-    <col min="25" max="25" width="18.25" customWidth="1"/>
-    <col min="26" max="26" width="14.5" customWidth="1"/>
-    <col min="27" max="27" width="17.5" customWidth="1"/>
-    <col min="28" max="28" width="17.125" customWidth="1"/>
-    <col min="29" max="29" width="17.875" customWidth="1"/>
-    <col min="30" max="30" width="16.75" customWidth="1"/>
-    <col min="31" max="31" width="26.5" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="15.77734375" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" customWidth="1"/>
+    <col min="16" max="16" width="19.44140625" customWidth="1"/>
+    <col min="17" max="17" width="16.77734375" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" customWidth="1"/>
+    <col min="19" max="19" width="21.44140625" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" customWidth="1"/>
+    <col min="21" max="21" width="16.21875" customWidth="1"/>
+    <col min="22" max="22" width="15.33203125" customWidth="1"/>
+    <col min="23" max="23" width="17.33203125" customWidth="1"/>
+    <col min="24" max="24" width="17.21875" customWidth="1"/>
+    <col min="25" max="25" width="18.21875" customWidth="1"/>
+    <col min="26" max="26" width="14.44140625" customWidth="1"/>
+    <col min="27" max="27" width="17.44140625" customWidth="1"/>
+    <col min="28" max="28" width="17.109375" customWidth="1"/>
+    <col min="29" max="29" width="17.88671875" customWidth="1"/>
+    <col min="30" max="30" width="16.77734375" customWidth="1"/>
+    <col min="31" max="31" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -1723,7 +1770,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
@@ -1761,7 +1808,7 @@
       <c r="AE2" s="8"/>
       <c r="AF2" s="8"/>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>38</v>
       </c>
@@ -1799,7 +1846,7 @@
       <c r="AE3" s="12"/>
       <c r="AF3" s="12"/>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
@@ -1835,7 +1882,7 @@
       <c r="AE4" s="8"/>
       <c r="AF4" s="8"/>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
@@ -1880,7 +1927,7 @@
       <c r="AE5" s="12"/>
       <c r="AF5" s="12"/>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
@@ -1916,7 +1963,7 @@
       <c r="AE6" s="8"/>
       <c r="AF6" s="8"/>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>42</v>
       </c>
@@ -1976,7 +2023,7 @@
       <c r="AE7" s="12"/>
       <c r="AF7" s="12"/>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
@@ -2012,7 +2059,7 @@
       <c r="AE8" s="8"/>
       <c r="AF8" s="8"/>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
@@ -2048,7 +2095,7 @@
       <c r="AE9" s="12"/>
       <c r="AF9" s="12"/>
     </row>
-    <row r="10" spans="1:32" ht="14.45">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -2084,7 +2131,7 @@
       <c r="AE10" s="8"/>
       <c r="AF10" s="8"/>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
@@ -2120,7 +2167,7 @@
       <c r="AE11" s="12"/>
       <c r="AF11" s="12"/>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
@@ -2164,7 +2211,7 @@
       <c r="AE12" s="8"/>
       <c r="AF12" s="8"/>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>31</v>
       </c>
@@ -2228,7 +2275,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="12.75" customHeight="1">
+    <row r="14" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -2276,7 +2323,7 @@
       <c r="AE14" s="8"/>
       <c r="AF14" s="8"/>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>33</v>
       </c>
@@ -2312,7 +2359,7 @@
       <c r="AE15" s="12"/>
       <c r="AF15" s="12"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
@@ -2348,7 +2395,7 @@
       <c r="AE16" s="8"/>
       <c r="AF16" s="8"/>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
@@ -2414,7 +2461,7 @@
       </c>
       <c r="AF17" s="12"/>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
@@ -2468,7 +2515,7 @@
       <c r="AE18" s="8"/>
       <c r="AF18" s="8"/>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>44</v>
       </c>
@@ -2479,7 +2526,7 @@
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>62</v>
       </c>
@@ -2555,7 +2602,7 @@
       </c>
       <c r="AF20" s="7"/>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
@@ -2563,7 +2610,7 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
@@ -2577,7 +2624,7 @@
       <c r="M25" s="33"/>
       <c r="N25" s="33"/>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -2585,13 +2632,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G27" s="32" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="32"/>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
@@ -2600,7 +2647,7 @@
       </c>
       <c r="I28" s="32"/>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -2608,7 +2655,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
@@ -2618,7 +2665,7 @@
       <c r="I30" s="32"/>
       <c r="J30" s="32"/>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
@@ -2645,32 +2692,32 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S7" sqref="S7"/>
+      <selection pane="topRight" activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.25" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="29.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="17.625" customWidth="1"/>
-    <col min="7" max="7" width="17.5" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="18.125" customWidth="1"/>
-    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
-    <col min="13" max="13" width="20.5" customWidth="1"/>
-    <col min="14" max="14" width="17.75" customWidth="1"/>
-    <col min="15" max="15" width="18.125" customWidth="1"/>
-    <col min="18" max="18" width="16.125" customWidth="1"/>
+    <col min="13" max="13" width="20.44140625" customWidth="1"/>
+    <col min="14" max="14" width="17.77734375" customWidth="1"/>
+    <col min="15" max="15" width="18.109375" customWidth="1"/>
+    <col min="18" max="18" width="16.109375" customWidth="1"/>
     <col min="19" max="19" width="18" customWidth="1"/>
     <col min="31" max="31" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2771,7 +2818,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>36</v>
       </c>
@@ -2820,7 +2867,7 @@
       <c r="AF2" s="8"/>
       <c r="AG2" s="8"/>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>32</v>
       </c>
@@ -2865,7 +2912,7 @@
       <c r="AF3" s="12"/>
       <c r="AG3" s="12"/>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>35</v>
       </c>
@@ -2922,7 +2969,7 @@
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>154</v>
       </c>
@@ -2987,7 +3034,7 @@
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
@@ -3048,7 +3095,7 @@
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>160</v>
       </c>
@@ -3089,7 +3136,7 @@
       <c r="AF7" s="12"/>
       <c r="AG7" s="12"/>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>191</v>
       </c>
@@ -3130,7 +3177,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>193</v>
       </c>
@@ -3173,8 +3220,10 @@
       <c r="AF9" s="12"/>
       <c r="AG9" s="12"/>
     </row>
-    <row r="10" spans="1:34" ht="14.45">
-      <c r="A10" s="6"/>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>202</v>
+      </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -3192,7 +3241,9 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
+      <c r="S10" s="7" t="s">
+        <v>203</v>
+      </c>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
@@ -3208,7 +3259,7 @@
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
     </row>
-    <row r="11" spans="1:34" ht="14.45">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -3243,7 +3294,7 @@
       <c r="AF11" s="12"/>
       <c r="AG11" s="12"/>
     </row>
-    <row r="12" spans="1:34" ht="14.45">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -3278,7 +3329,7 @@
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:34" ht="14.45">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -3363,7 +3414,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="14.45">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -3399,7 +3450,7 @@
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
     </row>
-    <row r="15" spans="1:34" ht="14.45">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -3434,7 +3485,7 @@
       <c r="AF15" s="12"/>
       <c r="AG15" s="12"/>
     </row>
-    <row r="16" spans="1:34" ht="14.45">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -3469,7 +3520,7 @@
       <c r="AF16" s="8"/>
       <c r="AG16" s="8"/>
     </row>
-    <row r="17" spans="1:34" ht="14.45">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -3504,7 +3555,7 @@
       <c r="AF17" s="11"/>
       <c r="AG17" s="11"/>
     </row>
-    <row r="18" spans="1:34" ht="14.45">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -3539,7 +3590,7 @@
       <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
     </row>
-    <row r="19" spans="1:34" ht="14.45">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -3574,7 +3625,7 @@
       <c r="AG19" s="29"/>
       <c r="AH19" s="29"/>
     </row>
-    <row r="20" spans="1:34" ht="14.45">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3609,7 +3660,7 @@
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I22" s="28" t="s">
         <v>58</v>
       </c>
@@ -3623,7 +3674,7 @@
       <c r="O22" s="29"/>
       <c r="P22" s="29"/>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I23" s="28" t="s">
         <v>24</v>
       </c>
@@ -3637,7 +3688,7 @@
       <c r="O23" s="33"/>
       <c r="P23" s="33"/>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I24" s="28" t="s">
         <v>54</v>
       </c>
@@ -3651,7 +3702,7 @@
       <c r="O24" s="30"/>
       <c r="P24" s="30"/>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I25" s="32" t="s">
         <v>45</v>
       </c>
@@ -3663,7 +3714,7 @@
       <c r="O25" s="29"/>
       <c r="P25" s="29"/>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I26" s="28" t="s">
         <v>49</v>
       </c>
@@ -3677,7 +3728,7 @@
       <c r="O26" s="29"/>
       <c r="P26" s="29"/>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I27" s="28" t="s">
         <v>46</v>
       </c>
@@ -3691,7 +3742,7 @@
       <c r="O27" s="29"/>
       <c r="P27" s="29"/>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I28" s="28" t="s">
         <v>51</v>
       </c>
@@ -3705,7 +3756,7 @@
       <c r="O28" s="29"/>
       <c r="P28" s="29"/>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I29" s="28" t="s">
         <v>57</v>
       </c>
@@ -3740,12 +3791,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3756,22 +3807,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -3791,18 +3842,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="41.5" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="41.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3825,7 +3876,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3836,7 +3887,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3853,7 +3904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -3864,7 +3915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -3872,7 +3923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="205">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -858,6 +858,10 @@
   </si>
   <si>
     <t>0-2.6%（44-54）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-2.6%（55-65）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2691,8 +2695,8 @@
   <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S10" sqref="S10"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2714,6 +2718,7 @@
     <col min="15" max="15" width="18.109375" customWidth="1"/>
     <col min="18" max="18" width="16.109375" customWidth="1"/>
     <col min="19" max="19" width="18" customWidth="1"/>
+    <col min="20" max="20" width="16" customWidth="1"/>
     <col min="31" max="31" width="9" style="29"/>
   </cols>
   <sheetData>
@@ -3244,7 +3249,9 @@
       <c r="S10" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="T10" s="7"/>
+      <c r="T10" s="7" t="s">
+        <v>204</v>
+      </c>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="206">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -862,6 +862,10 @@
   </si>
   <si>
     <t>0-2.6%（55-65）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1.8%（66-73）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2695,8 +2699,8 @@
   <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T9" sqref="T9"/>
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2719,6 +2723,7 @@
     <col min="18" max="18" width="16.109375" customWidth="1"/>
     <col min="19" max="19" width="18" customWidth="1"/>
     <col min="20" max="20" width="16" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" customWidth="1"/>
     <col min="31" max="31" width="9" style="29"/>
   </cols>
   <sheetData>
@@ -2780,10 +2785,10 @@
       <c r="S1" s="18">
         <v>42934</v>
       </c>
-      <c r="T1" s="5">
+      <c r="T1" s="18">
         <v>42935</v>
       </c>
-      <c r="U1" s="5">
+      <c r="U1" s="18">
         <v>42936</v>
       </c>
       <c r="V1" s="5">
@@ -3252,7 +3257,9 @@
       <c r="T10" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="U10" s="7"/>
+      <c r="U10" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="完整书单" sheetId="4" r:id="rId1"/>
@@ -23,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="207">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -868,16 +863,20 @@
     <t>0-1.8%（66-73）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>0-3%（266-296）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1243,7 +1242,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1276,26 +1275,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1328,23 +1310,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1527,107 +1492,107 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="57.6640625" customWidth="1"/>
+    <col min="1" max="1" width="57.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="29" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="14.45">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="9" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="9" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="19" t="s">
         <v>62</v>
       </c>
@@ -1647,40 +1612,40 @@
       <selection pane="topRight" activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="45.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="16.77734375" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" customWidth="1"/>
-    <col min="14" max="14" width="15.77734375" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" customWidth="1"/>
-    <col min="16" max="16" width="19.44140625" customWidth="1"/>
-    <col min="17" max="17" width="16.77734375" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" customWidth="1"/>
-    <col min="19" max="19" width="21.44140625" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" customWidth="1"/>
-    <col min="21" max="21" width="16.21875" customWidth="1"/>
-    <col min="22" max="22" width="15.33203125" customWidth="1"/>
-    <col min="23" max="23" width="17.33203125" customWidth="1"/>
-    <col min="24" max="24" width="17.21875" customWidth="1"/>
-    <col min="25" max="25" width="18.21875" customWidth="1"/>
-    <col min="26" max="26" width="14.44140625" customWidth="1"/>
-    <col min="27" max="27" width="17.44140625" customWidth="1"/>
-    <col min="28" max="28" width="17.109375" customWidth="1"/>
-    <col min="29" max="29" width="17.88671875" customWidth="1"/>
-    <col min="30" max="30" width="16.77734375" customWidth="1"/>
-    <col min="31" max="31" width="26.44140625" customWidth="1"/>
+    <col min="12" max="12" width="16.75" customWidth="1"/>
+    <col min="13" max="13" width="18.375" customWidth="1"/>
+    <col min="14" max="14" width="15.75" customWidth="1"/>
+    <col min="15" max="15" width="17.875" customWidth="1"/>
+    <col min="16" max="16" width="19.5" customWidth="1"/>
+    <col min="17" max="17" width="16.75" customWidth="1"/>
+    <col min="18" max="18" width="14.625" customWidth="1"/>
+    <col min="19" max="19" width="21.5" customWidth="1"/>
+    <col min="20" max="20" width="16.625" customWidth="1"/>
+    <col min="21" max="21" width="16.25" customWidth="1"/>
+    <col min="22" max="22" width="15.375" customWidth="1"/>
+    <col min="23" max="23" width="17.375" customWidth="1"/>
+    <col min="24" max="24" width="17.25" customWidth="1"/>
+    <col min="25" max="25" width="18.25" customWidth="1"/>
+    <col min="26" max="26" width="14.5" customWidth="1"/>
+    <col min="27" max="27" width="17.5" customWidth="1"/>
+    <col min="28" max="28" width="17.125" customWidth="1"/>
+    <col min="29" max="29" width="17.875" customWidth="1"/>
+    <col min="30" max="30" width="16.75" customWidth="1"/>
+    <col min="31" max="31" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -1778,7 +1743,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32">
       <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
@@ -1816,7 +1781,7 @@
       <c r="AE2" s="8"/>
       <c r="AF2" s="8"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32">
       <c r="A3" s="9" t="s">
         <v>38</v>
       </c>
@@ -1854,7 +1819,7 @@
       <c r="AE3" s="12"/>
       <c r="AF3" s="12"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
@@ -1890,7 +1855,7 @@
       <c r="AE4" s="8"/>
       <c r="AF4" s="8"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32">
       <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
@@ -1935,7 +1900,7 @@
       <c r="AE5" s="12"/>
       <c r="AF5" s="12"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32">
       <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
@@ -1971,7 +1936,7 @@
       <c r="AE6" s="8"/>
       <c r="AF6" s="8"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32">
       <c r="A7" s="14" t="s">
         <v>42</v>
       </c>
@@ -2031,7 +1996,7 @@
       <c r="AE7" s="12"/>
       <c r="AF7" s="12"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
@@ -2067,7 +2032,7 @@
       <c r="AE8" s="8"/>
       <c r="AF8" s="8"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32">
       <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
@@ -2103,7 +2068,7 @@
       <c r="AE9" s="12"/>
       <c r="AF9" s="12"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="14.45">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -2139,7 +2104,7 @@
       <c r="AE10" s="8"/>
       <c r="AF10" s="8"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
@@ -2175,7 +2140,7 @@
       <c r="AE11" s="12"/>
       <c r="AF11" s="12"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32">
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
@@ -2219,7 +2184,7 @@
       <c r="AE12" s="8"/>
       <c r="AF12" s="8"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
         <v>31</v>
       </c>
@@ -2283,7 +2248,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="12.75" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -2331,7 +2296,7 @@
       <c r="AE14" s="8"/>
       <c r="AF14" s="8"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
         <v>33</v>
       </c>
@@ -2367,7 +2332,7 @@
       <c r="AE15" s="12"/>
       <c r="AF15" s="12"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
@@ -2403,7 +2368,7 @@
       <c r="AE16" s="8"/>
       <c r="AF16" s="8"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32">
       <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
@@ -2469,7 +2434,7 @@
       </c>
       <c r="AF17" s="12"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32">
       <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
@@ -2523,7 +2488,7 @@
       <c r="AE18" s="8"/>
       <c r="AF18" s="8"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32">
       <c r="A19" s="15" t="s">
         <v>44</v>
       </c>
@@ -2534,7 +2499,7 @@
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32">
       <c r="A20" s="19" t="s">
         <v>62</v>
       </c>
@@ -2610,7 +2575,7 @@
       </c>
       <c r="AF20" s="7"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
@@ -2618,7 +2583,7 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
@@ -2632,7 +2597,7 @@
       <c r="M25" s="33"/>
       <c r="N25" s="33"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -2640,13 +2605,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32">
       <c r="G27" s="32" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="32"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
@@ -2655,7 +2620,7 @@
       </c>
       <c r="I28" s="32"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -2663,7 +2628,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
@@ -2673,7 +2638,7 @@
       <c r="I30" s="32"/>
       <c r="J30" s="32"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,34 +2665,35 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U1" sqref="U1"/>
+      <selection pane="topRight" activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="29.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="29.25" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.625" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
-    <col min="13" max="13" width="20.44140625" customWidth="1"/>
-    <col min="14" max="14" width="17.77734375" customWidth="1"/>
-    <col min="15" max="15" width="18.109375" customWidth="1"/>
-    <col min="18" max="18" width="16.109375" customWidth="1"/>
+    <col min="13" max="13" width="20.5" customWidth="1"/>
+    <col min="14" max="14" width="17.75" customWidth="1"/>
+    <col min="15" max="15" width="18.125" customWidth="1"/>
+    <col min="18" max="18" width="16.125" customWidth="1"/>
     <col min="19" max="19" width="18" customWidth="1"/>
     <col min="20" max="20" width="16" customWidth="1"/>
-    <col min="21" max="21" width="15.6640625" customWidth="1"/>
+    <col min="21" max="21" width="15.625" customWidth="1"/>
+    <col min="25" max="25" width="17.375" customWidth="1"/>
     <col min="31" max="31" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2800,7 +2766,7 @@
       <c r="X1" s="5">
         <v>42939</v>
       </c>
-      <c r="Y1" s="5">
+      <c r="Y1" s="18">
         <v>42940</v>
       </c>
       <c r="Z1" s="5">
@@ -2828,7 +2794,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34">
       <c r="A2" s="6" t="s">
         <v>36</v>
       </c>
@@ -2877,7 +2843,7 @@
       <c r="AF2" s="8"/>
       <c r="AG2" s="8"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34">
       <c r="A3" s="9" t="s">
         <v>32</v>
       </c>
@@ -2922,7 +2888,7 @@
       <c r="AF3" s="12"/>
       <c r="AG3" s="12"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34">
       <c r="A4" s="9" t="s">
         <v>35</v>
       </c>
@@ -2979,7 +2945,7 @@
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34">
       <c r="A5" s="9" t="s">
         <v>154</v>
       </c>
@@ -3044,7 +3010,7 @@
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34">
       <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
@@ -3105,7 +3071,7 @@
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34">
       <c r="A7" s="14" t="s">
         <v>160</v>
       </c>
@@ -3146,7 +3112,7 @@
       <c r="AF7" s="12"/>
       <c r="AG7" s="12"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34">
       <c r="A8" s="6" t="s">
         <v>191</v>
       </c>
@@ -3187,7 +3153,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34">
       <c r="A9" s="9" t="s">
         <v>193</v>
       </c>
@@ -3220,7 +3186,9 @@
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
+      <c r="Y9" s="11" t="s">
+        <v>206</v>
+      </c>
       <c r="Z9" s="11"/>
       <c r="AA9" s="11"/>
       <c r="AB9" s="11"/>
@@ -3230,7 +3198,7 @@
       <c r="AF9" s="12"/>
       <c r="AG9" s="12"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34">
       <c r="A10" s="6" t="s">
         <v>202</v>
       </c>
@@ -3273,7 +3241,7 @@
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" ht="14.45">
       <c r="A11" s="9"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -3308,7 +3276,7 @@
       <c r="AF11" s="12"/>
       <c r="AG11" s="12"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" ht="14.45">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -3343,7 +3311,7 @@
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" ht="14.45">
       <c r="A13" s="9"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -3428,7 +3396,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" ht="14.45">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -3464,7 +3432,7 @@
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" ht="14.45">
       <c r="A15" s="9"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -3499,7 +3467,7 @@
       <c r="AF15" s="12"/>
       <c r="AG15" s="12"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" ht="14.45">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -3534,7 +3502,7 @@
       <c r="AF16" s="8"/>
       <c r="AG16" s="8"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" ht="14.45">
       <c r="A17" s="9"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -3569,7 +3537,7 @@
       <c r="AF17" s="11"/>
       <c r="AG17" s="11"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" ht="14.45">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -3604,7 +3572,7 @@
       <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" ht="14.45">
       <c r="A19" s="9"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -3639,7 +3607,7 @@
       <c r="AG19" s="29"/>
       <c r="AH19" s="29"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" ht="14.45">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3674,7 +3642,7 @@
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34">
       <c r="I22" s="28" t="s">
         <v>58</v>
       </c>
@@ -3688,7 +3656,7 @@
       <c r="O22" s="29"/>
       <c r="P22" s="29"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34">
       <c r="I23" s="28" t="s">
         <v>24</v>
       </c>
@@ -3702,7 +3670,7 @@
       <c r="O23" s="33"/>
       <c r="P23" s="33"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34">
       <c r="I24" s="28" t="s">
         <v>54</v>
       </c>
@@ -3716,7 +3684,7 @@
       <c r="O24" s="30"/>
       <c r="P24" s="30"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34">
       <c r="I25" s="32" t="s">
         <v>45</v>
       </c>
@@ -3728,7 +3696,7 @@
       <c r="O25" s="29"/>
       <c r="P25" s="29"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34">
       <c r="I26" s="28" t="s">
         <v>49</v>
       </c>
@@ -3742,7 +3710,7 @@
       <c r="O26" s="29"/>
       <c r="P26" s="29"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34">
       <c r="I27" s="28" t="s">
         <v>46</v>
       </c>
@@ -3756,7 +3724,7 @@
       <c r="O27" s="29"/>
       <c r="P27" s="29"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34">
       <c r="I28" s="28" t="s">
         <v>51</v>
       </c>
@@ -3770,7 +3738,7 @@
       <c r="O28" s="29"/>
       <c r="P28" s="29"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34">
       <c r="I29" s="28" t="s">
         <v>57</v>
       </c>
@@ -3805,12 +3773,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3821,22 +3789,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -3856,18 +3824,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="41.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3890,7 +3858,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3901,7 +3869,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3918,7 +3886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -3929,7 +3897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -3937,7 +3905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/书单-2017.xlsx
+++ b/书单-2017.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="完整书单" sheetId="4" r:id="rId1"/>
     <sheet name="6月" sheetId="3" r:id="rId2"/>
     <sheet name="7月" sheetId="5" r:id="rId3"/>
-    <sheet name="再返工" sheetId="2" r:id="rId4"/>
-    <sheet name="格式1.0" sheetId="1" r:id="rId5"/>
+    <sheet name="8月" sheetId="6" r:id="rId4"/>
+    <sheet name="再返工" sheetId="2" r:id="rId5"/>
+    <sheet name="格式1.0" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="208">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -867,16 +873,20 @@
     <t>0-3%（266-296）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>0-1%（78-82）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1242,7 +1252,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1275,9 +1285,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1310,6 +1337,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1492,107 +1536,107 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.625" customWidth="1"/>
+    <col min="1" max="1" width="57.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="29" customFormat="1">
+    <row r="1" spans="1:1" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="14.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>62</v>
       </c>
@@ -1612,40 +1656,40 @@
       <selection pane="topRight" activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.625" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="16.75" customWidth="1"/>
-    <col min="13" max="13" width="18.375" customWidth="1"/>
-    <col min="14" max="14" width="15.75" customWidth="1"/>
-    <col min="15" max="15" width="17.875" customWidth="1"/>
-    <col min="16" max="16" width="19.5" customWidth="1"/>
-    <col min="17" max="17" width="16.75" customWidth="1"/>
-    <col min="18" max="18" width="14.625" customWidth="1"/>
-    <col min="19" max="19" width="21.5" customWidth="1"/>
-    <col min="20" max="20" width="16.625" customWidth="1"/>
-    <col min="21" max="21" width="16.25" customWidth="1"/>
-    <col min="22" max="22" width="15.375" customWidth="1"/>
-    <col min="23" max="23" width="17.375" customWidth="1"/>
-    <col min="24" max="24" width="17.25" customWidth="1"/>
-    <col min="25" max="25" width="18.25" customWidth="1"/>
-    <col min="26" max="26" width="14.5" customWidth="1"/>
-    <col min="27" max="27" width="17.5" customWidth="1"/>
-    <col min="28" max="28" width="17.125" customWidth="1"/>
-    <col min="29" max="29" width="17.875" customWidth="1"/>
-    <col min="30" max="30" width="16.75" customWidth="1"/>
-    <col min="31" max="31" width="26.5" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="15.77734375" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" customWidth="1"/>
+    <col min="16" max="16" width="19.44140625" customWidth="1"/>
+    <col min="17" max="17" width="16.77734375" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" customWidth="1"/>
+    <col min="19" max="19" width="21.44140625" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" customWidth="1"/>
+    <col min="21" max="21" width="16.21875" customWidth="1"/>
+    <col min="22" max="22" width="15.33203125" customWidth="1"/>
+    <col min="23" max="23" width="17.33203125" customWidth="1"/>
+    <col min="24" max="24" width="17.21875" customWidth="1"/>
+    <col min="25" max="25" width="18.21875" customWidth="1"/>
+    <col min="26" max="26" width="14.44140625" customWidth="1"/>
+    <col min="27" max="27" width="17.44140625" customWidth="1"/>
+    <col min="28" max="28" width="17.109375" customWidth="1"/>
+    <col min="29" max="29" width="17.88671875" customWidth="1"/>
+    <col min="30" max="30" width="16.77734375" customWidth="1"/>
+    <col min="31" max="31" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -1743,7 +1787,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
@@ -1781,7 +1825,7 @@
       <c r="AE2" s="8"/>
       <c r="AF2" s="8"/>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>38</v>
       </c>
@@ -1819,7 +1863,7 @@
       <c r="AE3" s="12"/>
       <c r="AF3" s="12"/>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
@@ -1855,7 +1899,7 @@
       <c r="AE4" s="8"/>
       <c r="AF4" s="8"/>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
@@ -1900,7 +1944,7 @@
       <c r="AE5" s="12"/>
       <c r="AF5" s="12"/>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
@@ -1936,7 +1980,7 @@
       <c r="AE6" s="8"/>
       <c r="AF6" s="8"/>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>42</v>
       </c>
@@ -1996,7 +2040,7 @@
       <c r="AE7" s="12"/>
       <c r="AF7" s="12"/>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
@@ -2032,7 +2076,7 @@
       <c r="AE8" s="8"/>
       <c r="AF8" s="8"/>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
@@ -2068,7 +2112,7 @@
       <c r="AE9" s="12"/>
       <c r="AF9" s="12"/>
     </row>
-    <row r="10" spans="1:32" ht="14.45">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -2104,7 +2148,7 @@
       <c r="AE10" s="8"/>
       <c r="AF10" s="8"/>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
@@ -2140,7 +2184,7 @@
       <c r="AE11" s="12"/>
       <c r="AF11" s="12"/>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
@@ -2184,7 +2228,7 @@
       <c r="AE12" s="8"/>
       <c r="AF12" s="8"/>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>31</v>
       </c>
@@ -2248,7 +2292,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="12.75" customHeight="1">
+    <row r="14" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -2296,7 +2340,7 @@
       <c r="AE14" s="8"/>
       <c r="AF14" s="8"/>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>33</v>
       </c>
@@ -2332,7 +2376,7 @@
       <c r="AE15" s="12"/>
       <c r="AF15" s="12"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
@@ -2368,7 +2412,7 @@
       <c r="AE16" s="8"/>
       <c r="AF16" s="8"/>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
@@ -2434,7 +2478,7 @@
       </c>
       <c r="AF17" s="12"/>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
@@ -2488,7 +2532,7 @@
       <c r="AE18" s="8"/>
       <c r="AF18" s="8"/>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>44</v>
       </c>
@@ -2499,7 +2543,7 @@
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>62</v>
       </c>
@@ -2575,7 +2619,7 @@
       </c>
       <c r="AF20" s="7"/>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
@@ -2583,7 +2627,7 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
@@ -2597,7 +2641,7 @@
       <c r="M25" s="33"/>
       <c r="N25" s="33"/>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
@@ -2605,13 +2649,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G27" s="32" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="32"/>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,7 +2664,7 @@
       </c>
       <c r="I28" s="32"/>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
@@ -2628,7 +2672,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
@@ -2638,7 +2682,7 @@
       <c r="I30" s="32"/>
       <c r="J30" s="32"/>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
@@ -2663,37 +2707,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y1" sqref="Y1"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A10" sqref="A1:AG10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.25" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="29.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="17.625" customWidth="1"/>
-    <col min="7" max="7" width="17.5" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="18.125" customWidth="1"/>
-    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
-    <col min="13" max="13" width="20.5" customWidth="1"/>
-    <col min="14" max="14" width="17.75" customWidth="1"/>
-    <col min="15" max="15" width="18.125" customWidth="1"/>
-    <col min="18" max="18" width="16.125" customWidth="1"/>
+    <col min="13" max="13" width="20.44140625" customWidth="1"/>
+    <col min="14" max="14" width="17.77734375" customWidth="1"/>
+    <col min="15" max="15" width="18.109375" customWidth="1"/>
+    <col min="18" max="18" width="16.109375" customWidth="1"/>
     <col min="19" max="19" width="18" customWidth="1"/>
     <col min="20" max="20" width="16" customWidth="1"/>
-    <col min="21" max="21" width="15.625" customWidth="1"/>
-    <col min="25" max="25" width="17.375" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" customWidth="1"/>
+    <col min="25" max="25" width="17.33203125" customWidth="1"/>
     <col min="31" max="31" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2794,7 +2838,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>36</v>
       </c>
@@ -2843,7 +2887,7 @@
       <c r="AF2" s="8"/>
       <c r="AG2" s="8"/>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>32</v>
       </c>
@@ -2888,7 +2932,7 @@
       <c r="AF3" s="12"/>
       <c r="AG3" s="12"/>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>35</v>
       </c>
@@ -2945,7 +2989,7 @@
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>154</v>
       </c>
@@ -3010,7 +3054,7 @@
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
@@ -3071,7 +3115,7 @@
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>160</v>
       </c>
@@ -3112,7 +3156,7 @@
       <c r="AF7" s="12"/>
       <c r="AG7" s="12"/>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>191</v>
       </c>
@@ -3153,7 +3197,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>193</v>
       </c>
@@ -3198,7 +3242,7 @@
       <c r="AF9" s="12"/>
       <c r="AG9" s="12"/>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>202</v>
       </c>
@@ -3241,7 +3285,7 @@
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
     </row>
-    <row r="11" spans="1:34" ht="14.45">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -3276,7 +3320,7 @@
       <c r="AF11" s="12"/>
       <c r="AG11" s="12"/>
     </row>
-    <row r="12" spans="1:34" ht="14.45">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -3311,7 +3355,7 @@
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:34" ht="14.45">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -3396,7 +3440,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="14.45">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -3432,7 +3476,7 @@
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
     </row>
-    <row r="15" spans="1:34" ht="14.45">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -3467,7 +3511,7 @@
       <c r="AF15" s="12"/>
       <c r="AG15" s="12"/>
     </row>
-    <row r="16" spans="1:34" ht="14.45">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -3502,7 +3546,7 @@
       <c r="AF16" s="8"/>
       <c r="AG16" s="8"/>
     </row>
-    <row r="17" spans="1:34" ht="14.45">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -3537,7 +3581,7 @@
       <c r="AF17" s="11"/>
       <c r="AG17" s="11"/>
     </row>
-    <row r="18" spans="1:34" ht="14.45">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -3572,7 +3616,7 @@
       <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
     </row>
-    <row r="19" spans="1:34" ht="14.45">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -3607,7 +3651,7 @@
       <c r="AG19" s="29"/>
       <c r="AH19" s="29"/>
     </row>
-    <row r="20" spans="1:34" ht="14.45">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3642,7 +3686,7 @@
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I22" s="28" t="s">
         <v>58</v>
       </c>
@@ -3656,7 +3700,7 @@
       <c r="O22" s="29"/>
       <c r="P22" s="29"/>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I23" s="28" t="s">
         <v>24</v>
       </c>
@@ -3670,7 +3714,7 @@
       <c r="O23" s="33"/>
       <c r="P23" s="33"/>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I24" s="28" t="s">
         <v>54</v>
       </c>
@@ -3684,7 +3728,7 @@
       <c r="O24" s="30"/>
       <c r="P24" s="30"/>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I25" s="32" t="s">
         <v>45</v>
       </c>
@@ -3696,7 +3740,7 @@
       <c r="O25" s="29"/>
       <c r="P25" s="29"/>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I26" s="28" t="s">
         <v>49</v>
       </c>
@@ -3710,7 +3754,7 @@
       <c r="O26" s="29"/>
       <c r="P26" s="29"/>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I27" s="28" t="s">
         <v>46</v>
       </c>
@@ -3724,7 +3768,7 @@
       <c r="O27" s="29"/>
       <c r="P27" s="29"/>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I28" s="28" t="s">
         <v>51</v>
       </c>
@@ -3738,7 +3782,7 @@
       <c r="O28" s="29"/>
       <c r="P28" s="29"/>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I29" s="28" t="s">
         <v>57</v>
       </c>
@@ -3767,46 +3811,162 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" customWidth="1"/>
+    <col min="17" max="17" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.45">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>21</v>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18">
+        <v>42948</v>
+      </c>
+      <c r="C1" s="18">
+        <v>42949</v>
+      </c>
+      <c r="D1" s="18">
+        <v>42950</v>
+      </c>
+      <c r="E1" s="18">
+        <v>42951</v>
+      </c>
+      <c r="F1" s="18">
+        <v>42952</v>
+      </c>
+      <c r="G1" s="18">
+        <v>42953</v>
+      </c>
+      <c r="H1" s="18">
+        <v>42954</v>
+      </c>
+      <c r="I1" s="18">
+        <v>42955</v>
+      </c>
+      <c r="J1" s="18">
+        <v>42956</v>
+      </c>
+      <c r="K1" s="18">
+        <v>42957</v>
+      </c>
+      <c r="L1" s="18">
+        <v>42958</v>
+      </c>
+      <c r="M1" s="18">
+        <v>42959</v>
+      </c>
+      <c r="N1" s="18">
+        <v>42960</v>
+      </c>
+      <c r="O1" s="18">
+        <v>42961</v>
+      </c>
+      <c r="P1" s="18">
+        <v>42962</v>
+      </c>
+      <c r="Q1" s="18">
+        <v>42963</v>
+      </c>
+      <c r="R1" s="18">
+        <v>42964</v>
+      </c>
+      <c r="S1" s="18">
+        <v>42965</v>
+      </c>
+      <c r="T1" s="18">
+        <v>42966</v>
+      </c>
+      <c r="U1" s="18">
+        <v>42967</v>
+      </c>
+      <c r="V1" s="18">
+        <v>42968</v>
+      </c>
+      <c r="W1" s="18">
+        <v>42969</v>
+      </c>
+      <c r="X1" s="18">
+        <v>42970</v>
+      </c>
+      <c r="Y1" s="18">
+        <v>42971</v>
+      </c>
+      <c r="Z1" s="18">
+        <v>42972</v>
+      </c>
+      <c r="AA1" s="18">
+        <v>42973</v>
+      </c>
+      <c r="AB1" s="18">
+        <v>42974</v>
+      </c>
+      <c r="AC1" s="18">
+        <v>42975</v>
+      </c>
+      <c r="AD1" s="18">
+        <v>42976</v>
+      </c>
+      <c r="AE1" s="18">
+        <v>42977</v>
+      </c>
+      <c r="AF1" s="18">
+        <v>42978</v>
+      </c>
+      <c r="AG1" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <f>U7</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3818,24 +3978,75 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="41.5" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="41.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3858,7 +4069,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3869,7 +4080,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3886,7 +4097,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -3897,7 +4108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -3905,7 +4116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
